--- a/excel/finished/环保/7BF-煤气布袋除尘报表.xlsx
+++ b/excel/finished/环保/7BF-煤气布袋除尘报表.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19935" windowHeight="7785"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="7BF-煤气布袋除尘报表" sheetId="1" r:id="rId1"/>
     <sheet name="_tag_day_hour" sheetId="2" r:id="rId2"/>
-    <sheet name="_dictionary" sheetId="3" state="hidden" r:id="rId3"/>
-    <sheet name="_metadata" sheetId="4" state="hidden" r:id="rId4"/>
+    <sheet name="_dictionary" sheetId="3" r:id="rId3"/>
+    <sheet name="_metadata" sheetId="4" r:id="rId4"/>
     <sheet name="_fanchui7_day_hour" sheetId="5" r:id="rId5"/>
     <sheet name="_maxmin_day_hour" sheetId="6" r:id="rId6"/>
   </sheets>
@@ -269,7 +269,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="131">
   <si>
     <t>7号高炉煤气布袋除尘器运行记录</t>
   </si>
@@ -677,12 +677,12 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm;@"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -730,13 +730,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -750,68 +743,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -827,9 +760,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -841,17 +774,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -872,6 +811,78 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -888,25 +899,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -918,13 +935,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -942,7 +953,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -954,19 +971,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -978,13 +1019,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -996,79 +1049,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1287,8 +1298,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1308,20 +1328,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1343,41 +1375,20 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1387,10 +1398,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1399,133 +1410,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1989,7 +2000,7 @@
   <dimension ref="A1:AB28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4841,8 +4852,8 @@
   <sheetPr/>
   <dimension ref="A1:CQ49"/>
   <sheetViews>
-    <sheetView topLeftCell="CB1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -10664,10 +10675,13 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C1" sqref="C$1:C$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="21.625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">

--- a/excel/finished/环保/7BF-煤气布袋除尘报表.xlsx
+++ b/excel/finished/环保/7BF-煤气布袋除尘报表.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\朱川\Desktop\布袋除尘\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20736" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="7BF-煤气布袋除尘报表" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,7 @@
     <sheet name="_fanchui7_day_hour" sheetId="5" r:id="rId5"/>
     <sheet name="_maxmin_day_hour" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -24,7 +29,7 @@
     <author>何茂成</author>
   </authors>
   <commentList>
-    <comment ref="B5" authorId="0">
+    <comment ref="B5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -46,7 +51,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P5" authorId="0">
+    <comment ref="P5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -68,7 +73,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q5" authorId="0">
+    <comment ref="Q5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -90,7 +95,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S5" authorId="0">
+    <comment ref="S5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -112,7 +117,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V5" authorId="0">
+    <comment ref="V5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -144,7 +149,7 @@
     <author>何茂成</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -166,7 +171,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AL1" authorId="0">
+    <comment ref="AL1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -188,7 +193,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BP1" authorId="0">
+    <comment ref="BP1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -220,7 +225,7 @@
     <author>何茂成</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -242,7 +247,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0">
+    <comment ref="H1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -311,9 +316,6 @@
     <t>反吹时间及压差</t>
   </si>
   <si>
-    <t>1.8米放散温度（℃）</t>
-  </si>
-  <si>
     <t>记事栏</t>
   </si>
   <si>
@@ -342,9 +344,6 @@
   </si>
   <si>
     <t>含尘量mg/m3</t>
-  </si>
-  <si>
-    <t>时间</t>
   </si>
   <si>
     <t>前kPa</t>
@@ -669,20 +668,39 @@
   </si>
   <si>
     <t>BF7_L2C_DEDUST_NewTag_4_1m_avg</t>
+  </si>
+  <si>
+    <t>反吹时间</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>米放散温度（℃）</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="4">
     <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm;@"/>
+    <numFmt numFmtId="177" formatCode="0.0_ "/>
+    <numFmt numFmtId="178" formatCode="0_ "/>
+    <numFmt numFmtId="179" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -694,7 +712,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -721,156 +739,12 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
@@ -883,8 +757,22 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -897,194 +785,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="23">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1294,257 +996,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center"/>
     </xf>
@@ -1573,95 +1030,101 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1671,69 +1134,64 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1991,2831 +1449,2841 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AA1" activeCellId="1" sqref="Z1:Z1048576 AA1:AA1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.3666666666667" style="11" customWidth="1"/>
-    <col min="2" max="5" width="9" style="11"/>
-    <col min="6" max="6" width="9" style="11" customWidth="1"/>
-    <col min="7" max="27" width="9" style="11"/>
-    <col min="28" max="28" width="23.2666666666667" style="11" customWidth="1"/>
-    <col min="29" max="16384" width="9" style="11"/>
+    <col min="1" max="1" width="12.33203125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="9" style="19"/>
+    <col min="3" max="5" width="9" style="26"/>
+    <col min="6" max="6" width="9" style="26" customWidth="1"/>
+    <col min="7" max="15" width="9" style="26"/>
+    <col min="16" max="16" width="9" style="19"/>
+    <col min="17" max="17" width="9" style="26"/>
+    <col min="18" max="18" width="9" style="19"/>
+    <col min="19" max="19" width="9" style="26"/>
+    <col min="20" max="20" width="9" style="31"/>
+    <col min="21" max="22" width="9" style="36"/>
+    <col min="23" max="23" width="13.109375" style="24" customWidth="1"/>
+    <col min="24" max="25" width="9" style="36"/>
+    <col min="26" max="27" width="9" style="26"/>
+    <col min="28" max="28" width="23.21875" style="10" customWidth="1"/>
+    <col min="29" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" s="11" customFormat="1" ht="22.5" spans="4:17">
-      <c r="D1" s="12" t="s">
+    <row r="1" spans="1:28" ht="22.2" x14ac:dyDescent="0.25">
+      <c r="D1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
+      <c r="Q1" s="57"/>
     </row>
-    <row r="2" s="11" customFormat="1" ht="15" spans="6:16">
-      <c r="F2" s="13" t="str">
+    <row r="2" spans="1:28" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="F2" s="58" t="str">
         <f>IF(_metadata!B2="","",_metadata!B2)</f>
         <v/>
       </c>
-      <c r="G2" s="13"/>
-      <c r="P2" s="31" t="s">
+      <c r="G2" s="58"/>
+      <c r="P2" s="20" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" s="11" customFormat="1" ht="39.5" customHeight="1" spans="1:28">
-      <c r="A3" s="14" t="s">
+    <row r="3" spans="1:28" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="17"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="16" t="s">
+      <c r="E3" s="48"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="17"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="16" t="s">
+      <c r="H3" s="48"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="17"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="16" t="s">
+      <c r="K3" s="48"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="17"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="16" t="s">
+      <c r="N3" s="48"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="16" t="s">
+      <c r="Q3" s="47"/>
+      <c r="R3" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="S3" s="18"/>
-      <c r="T3" s="16" t="s">
+      <c r="S3" s="47"/>
+      <c r="T3" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="U3" s="17"/>
-      <c r="V3" s="18"/>
-      <c r="W3" s="16" t="s">
+      <c r="U3" s="48"/>
+      <c r="V3" s="47"/>
+      <c r="W3" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="X3" s="17"/>
-      <c r="Y3" s="18"/>
-      <c r="Z3" s="37" t="s">
+      <c r="X3" s="48"/>
+      <c r="Y3" s="47"/>
+      <c r="Z3" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA3" s="50"/>
+      <c r="AB3" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="AA3" s="38"/>
-      <c r="AB3" s="39" t="s">
+    </row>
+    <row r="4" spans="1:28" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="52"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="30" t="s">
         <v>14</v>
       </c>
+      <c r="E4" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="N4" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="O4" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="P4" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q4" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="R4" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="S4" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="T4" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="U4" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="V4" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="W4" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="X4" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y4" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z4" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA4" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB4" s="18"/>
     </row>
-    <row r="4" s="11" customFormat="1" ht="69" customHeight="1" spans="1:28">
-      <c r="A4" s="19"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="21" t="s">
+    <row r="5" spans="1:28" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
+        <v>1</v>
+      </c>
+      <c r="B5" s="12" t="str">
+        <f>IF(COUNTA(_tag_day_hour!A2:'_tag_day_hour'!AB2)=0,"",COUNTIF(_tag_day_hour!A2:'_tag_day_hour'!AB2,"=0"))</f>
+        <v/>
+      </c>
+      <c r="C5" s="27" t="str">
+        <f>IF(_tag_day_hour!AC2="","",_tag_day_hour!AC2)</f>
+        <v/>
+      </c>
+      <c r="D5" s="27" t="str">
+        <f>IF(_tag_day_hour!AD2="","",_tag_day_hour!AD2)</f>
+        <v/>
+      </c>
+      <c r="E5" s="27" t="str">
+        <f>IF(_tag_day_hour!AE2="","",_tag_day_hour!AE2)</f>
+        <v/>
+      </c>
+      <c r="F5" s="27" t="str">
+        <f t="shared" ref="F5:F28" si="0">IFERROR(D5-E5,"")</f>
+        <v/>
+      </c>
+      <c r="G5" s="27" t="str">
+        <f>IF(_tag_day_hour!AF2="","",_tag_day_hour!AF2)</f>
+        <v/>
+      </c>
+      <c r="H5" s="27" t="str">
+        <f>IF(_tag_day_hour!AG2="","",_tag_day_hour!AG2)</f>
+        <v/>
+      </c>
+      <c r="I5" s="27" t="str">
+        <f t="shared" ref="I5:I28" si="1">IFERROR(G5-H5,"")</f>
+        <v/>
+      </c>
+      <c r="J5" s="27" t="str">
+        <f>IF(_tag_day_hour!AH2="","",_tag_day_hour!AH2)</f>
+        <v/>
+      </c>
+      <c r="K5" s="27" t="str">
+        <f>IF(_tag_day_hour!AI2="","",_tag_day_hour!AI2)</f>
+        <v/>
+      </c>
+      <c r="L5" s="27" t="str">
+        <f t="shared" ref="L5:L28" si="2">IFERROR(J5-K5,"")</f>
+        <v/>
+      </c>
+      <c r="M5" s="27" t="str">
+        <f>IF(_tag_day_hour!AJ2="","",_tag_day_hour!AJ2)</f>
+        <v/>
+      </c>
+      <c r="N5" s="27" t="str">
+        <f>IF(_tag_day_hour!AK2="","",_tag_day_hour!AK2)</f>
+        <v/>
+      </c>
+      <c r="O5" s="27" t="str">
+        <f t="shared" ref="O5:O28" si="3">IFERROR(M5-N5,"")</f>
+        <v/>
+      </c>
+      <c r="P5" s="12" t="str">
+        <f>IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$AL$1:'_tag_day_hour'!$BM$1,MATCH(MAX(_tag_day_hour!AL26:'_tag_day_hour'!BM26),_tag_day_hour!AL26:'_tag_day_hour'!BM26,0)),LEN(INDEX(_tag_day_hour!$AL$1:'_tag_day_hour'!$BM$1,MATCH(MAX(_tag_day_hour!AL26:'_tag_day_hour'!BM26),_tag_day_hour!AL26:'_tag_day_hour'!BM26,0)))-13,4),"_",""),"")</f>
+        <v/>
+      </c>
+      <c r="Q5" s="27" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!AL26:'_tag_day_hour'!BM26)=28,"",MAX(_tag_day_hour!AL26:'_tag_day_hour'!BM26))</f>
+        <v/>
+      </c>
+      <c r="R5" s="12" t="str">
+        <f>IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$AL$1:'_tag_day_hour'!$BM$1,MATCH(MIN(_tag_day_hour!AL26:'_tag_day_hour'!BM26),_tag_day_hour!AL26:'_tag_day_hour'!BM26,0)),LEN(INDEX(_tag_day_hour!$AL$1:'_tag_day_hour'!$BM$1,MATCH(MIN(_tag_day_hour!AL26:'_tag_day_hour'!BM26),_tag_day_hour!AL26:'_tag_day_hour'!BM26,0)))-13,4),"_",""),"")</f>
+        <v/>
+      </c>
+      <c r="S5" s="27" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!AL26:'_tag_day_hour'!BM26)=28,"",MIN(_tag_day_hour!AL26:'_tag_day_hour'!BM26))</f>
+        <v/>
+      </c>
+      <c r="T5" s="33" t="str">
+        <f>IF(_tag_day_hour!BN2="","",_tag_day_hour!BN2)</f>
+        <v/>
+      </c>
+      <c r="U5" s="38" t="str">
+        <f>IF(_tag_day_hour!BO2="","",_tag_day_hour!BO2)</f>
+        <v/>
+      </c>
+      <c r="V5" s="39" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!BP26:'_tag_day_hour'!CQ26)=28,"",AVERAGE(_tag_day_hour!BP26:'_tag_day_hour'!CQ26))</f>
+        <v/>
+      </c>
+      <c r="W5" s="15" t="str">
+        <f>IF(_fanchui7_day_hour!B2="","",_fanchui7_day_hour!B2)</f>
+        <v/>
+      </c>
+      <c r="X5" s="39" t="str">
+        <f>IFERROR(AVERAGE(_fanchui7_day_hour!C2:'_fanchui7_day_hour'!F2)-_fanchui7_day_hour!G2,"")</f>
+        <v/>
+      </c>
+      <c r="Y5" s="39" t="str">
+        <f>IFERROR(AVERAGE(_fanchui7_day_hour!H2:'_fanchui7_day_hour'!K2)-_fanchui7_day_hour!L2,"")</f>
+        <v/>
+      </c>
+      <c r="Z5" s="28" t="str">
+        <f>IF(_maxmin_day_hour!A2="","",_maxmin_day_hour!A2)</f>
+        <v/>
+      </c>
+      <c r="AA5" s="28" t="str">
+        <f>IF(_maxmin_day_hour!B2="","",_maxmin_day_hour!B2)</f>
+        <v/>
+      </c>
+      <c r="AB5" s="43" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A6" s="13">
+        <v>2</v>
+      </c>
+      <c r="B6" s="22" t="str">
+        <f>IF(COUNTA(_tag_day_hour!A3:'_tag_day_hour'!AB3)=0,"",COUNTIF(_tag_day_hour!A3:'_tag_day_hour'!AB3,"=0"))</f>
+        <v/>
+      </c>
+      <c r="C6" s="28" t="str">
+        <f>IF(_tag_day_hour!AC3="","",_tag_day_hour!AC3)</f>
+        <v/>
+      </c>
+      <c r="D6" s="28" t="str">
+        <f>IF(_tag_day_hour!AD3="","",_tag_day_hour!AD3)</f>
+        <v/>
+      </c>
+      <c r="E6" s="28" t="str">
+        <f>IF(_tag_day_hour!AE3="","",_tag_day_hour!AE3)</f>
+        <v/>
+      </c>
+      <c r="F6" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G6" s="28" t="str">
+        <f>IF(_tag_day_hour!AF3="","",_tag_day_hour!AF3)</f>
+        <v/>
+      </c>
+      <c r="H6" s="28" t="str">
+        <f>IF(_tag_day_hour!AG3="","",_tag_day_hour!AG3)</f>
+        <v/>
+      </c>
+      <c r="I6" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J6" s="28" t="str">
+        <f>IF(_tag_day_hour!AH3="","",_tag_day_hour!AH3)</f>
+        <v/>
+      </c>
+      <c r="K6" s="28" t="str">
+        <f>IF(_tag_day_hour!AI3="","",_tag_day_hour!AI3)</f>
+        <v/>
+      </c>
+      <c r="L6" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M6" s="28" t="str">
+        <f>IF(_tag_day_hour!AJ3="","",_tag_day_hour!AJ3)</f>
+        <v/>
+      </c>
+      <c r="N6" s="28" t="str">
+        <f>IF(_tag_day_hour!AK3="","",_tag_day_hour!AK3)</f>
+        <v/>
+      </c>
+      <c r="O6" s="28" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="P6" s="22" t="str">
+        <f>IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$AL$1:'_tag_day_hour'!$BM$1,MATCH(MAX(_tag_day_hour!AL27:'_tag_day_hour'!BM27),_tag_day_hour!AL27:'_tag_day_hour'!BM27,0)),LEN(INDEX(_tag_day_hour!$AL$1:'_tag_day_hour'!$BM$1,MATCH(MAX(_tag_day_hour!AL27:'_tag_day_hour'!BM27),_tag_day_hour!AL27:'_tag_day_hour'!BM27,0)))-13,4),"_",""),"")</f>
+        <v/>
+      </c>
+      <c r="Q6" s="28" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!AL27:'_tag_day_hour'!BM27)=28,"",MAX(_tag_day_hour!AL27:'_tag_day_hour'!BM27))</f>
+        <v/>
+      </c>
+      <c r="R6" s="22" t="str">
+        <f>IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$AL$1:'_tag_day_hour'!$BM$1,MATCH(MIN(_tag_day_hour!AL27:'_tag_day_hour'!BM27),_tag_day_hour!AL27:'_tag_day_hour'!BM27,0)),LEN(INDEX(_tag_day_hour!$AL$1:'_tag_day_hour'!$BM$1,MATCH(MIN(_tag_day_hour!AL27:'_tag_day_hour'!BM27),_tag_day_hour!AL27:'_tag_day_hour'!BM27,0)))-13,4),"_",""),"")</f>
+        <v/>
+      </c>
+      <c r="S6" s="28" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!AL27:'_tag_day_hour'!BM27)=28,"",MIN(_tag_day_hour!AL27:'_tag_day_hour'!BM27))</f>
+        <v/>
+      </c>
+      <c r="T6" s="34" t="str">
+        <f>IF(_tag_day_hour!BN3="","",_tag_day_hour!BN3)</f>
+        <v/>
+      </c>
+      <c r="U6" s="39" t="str">
+        <f>IF(_tag_day_hour!BO3="","",_tag_day_hour!BO3)</f>
+        <v/>
+      </c>
+      <c r="V6" s="39" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!BP27:'_tag_day_hour'!CQ27)=28,"",AVERAGE(_tag_day_hour!BP27:'_tag_day_hour'!CQ27))</f>
+        <v/>
+      </c>
+      <c r="W6" s="15" t="str">
+        <f>IF(_fanchui7_day_hour!B3="","",_fanchui7_day_hour!B3)</f>
+        <v/>
+      </c>
+      <c r="X6" s="39" t="str">
+        <f>IFERROR(AVERAGE(_fanchui7_day_hour!C3:'_fanchui7_day_hour'!F3)-_fanchui7_day_hour!G3,"")</f>
+        <v/>
+      </c>
+      <c r="Y6" s="39" t="str">
+        <f>IFERROR(AVERAGE(_fanchui7_day_hour!H3:'_fanchui7_day_hour'!K3)-_fanchui7_day_hour!L3,"")</f>
+        <v/>
+      </c>
+      <c r="Z6" s="28" t="str">
+        <f>IF(_maxmin_day_hour!A3="","",_maxmin_day_hour!A3)</f>
+        <v/>
+      </c>
+      <c r="AA6" s="28" t="str">
+        <f>IF(_maxmin_day_hour!B3="","",_maxmin_day_hour!B3)</f>
+        <v/>
+      </c>
+      <c r="AB6" s="44"/>
+    </row>
+    <row r="7" spans="1:28" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <v>3</v>
+      </c>
+      <c r="B7" s="22" t="str">
+        <f>IF(COUNTA(_tag_day_hour!A4:'_tag_day_hour'!AB4)=0,"",COUNTIF(_tag_day_hour!A4:'_tag_day_hour'!AB4,"=0"))</f>
+        <v/>
+      </c>
+      <c r="C7" s="28" t="str">
+        <f>IF(_tag_day_hour!AC4="","",_tag_day_hour!AC4)</f>
+        <v/>
+      </c>
+      <c r="D7" s="28" t="str">
+        <f>IF(_tag_day_hour!AD4="","",_tag_day_hour!AD4)</f>
+        <v/>
+      </c>
+      <c r="E7" s="28" t="str">
+        <f>IF(_tag_day_hour!AE4="","",_tag_day_hour!AE4)</f>
+        <v/>
+      </c>
+      <c r="F7" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G7" s="28" t="str">
+        <f>IF(_tag_day_hour!AF4="","",_tag_day_hour!AF4)</f>
+        <v/>
+      </c>
+      <c r="H7" s="28" t="str">
+        <f>IF(_tag_day_hour!AG4="","",_tag_day_hour!AG4)</f>
+        <v/>
+      </c>
+      <c r="I7" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J7" s="28" t="str">
+        <f>IF(_tag_day_hour!AH4="","",_tag_day_hour!AH4)</f>
+        <v/>
+      </c>
+      <c r="K7" s="28" t="str">
+        <f>IF(_tag_day_hour!AI4="","",_tag_day_hour!AI4)</f>
+        <v/>
+      </c>
+      <c r="L7" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M7" s="28" t="str">
+        <f>IF(_tag_day_hour!AJ4="","",_tag_day_hour!AJ4)</f>
+        <v/>
+      </c>
+      <c r="N7" s="28" t="str">
+        <f>IF(_tag_day_hour!AK4="","",_tag_day_hour!AK4)</f>
+        <v/>
+      </c>
+      <c r="O7" s="28" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="P7" s="22" t="str">
+        <f>IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$AL$1:'_tag_day_hour'!$BM$1,MATCH(MAX(_tag_day_hour!AL28:'_tag_day_hour'!BM28),_tag_day_hour!AL28:'_tag_day_hour'!BM28,0)),LEN(INDEX(_tag_day_hour!$AL$1:'_tag_day_hour'!$BM$1,MATCH(MAX(_tag_day_hour!AL28:'_tag_day_hour'!BM28),_tag_day_hour!AL28:'_tag_day_hour'!BM28,0)))-13,4),"_",""),"")</f>
+        <v/>
+      </c>
+      <c r="Q7" s="28" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!AL28:'_tag_day_hour'!BM28)=28,"",MAX(_tag_day_hour!AL28:'_tag_day_hour'!BM28))</f>
+        <v/>
+      </c>
+      <c r="R7" s="22" t="str">
+        <f>IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$AL$1:'_tag_day_hour'!$BM$1,MATCH(MIN(_tag_day_hour!AL28:'_tag_day_hour'!BM28),_tag_day_hour!AL28:'_tag_day_hour'!BM28,0)),LEN(INDEX(_tag_day_hour!$AL$1:'_tag_day_hour'!$BM$1,MATCH(MIN(_tag_day_hour!AL28:'_tag_day_hour'!BM28),_tag_day_hour!AL28:'_tag_day_hour'!BM28,0)))-13,4),"_",""),"")</f>
+        <v/>
+      </c>
+      <c r="S7" s="28" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!AL28:'_tag_day_hour'!BM28)=28,"",MIN(_tag_day_hour!AL28:'_tag_day_hour'!BM28))</f>
+        <v/>
+      </c>
+      <c r="T7" s="34" t="str">
+        <f>IF(_tag_day_hour!BN4="","",_tag_day_hour!BN4)</f>
+        <v/>
+      </c>
+      <c r="U7" s="39" t="str">
+        <f>IF(_tag_day_hour!BO4="","",_tag_day_hour!BO4)</f>
+        <v/>
+      </c>
+      <c r="V7" s="39" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!BP28:'_tag_day_hour'!CQ28)=28,"",AVERAGE(_tag_day_hour!BP28:'_tag_day_hour'!CQ28))</f>
+        <v/>
+      </c>
+      <c r="W7" s="15" t="str">
+        <f>IF(_fanchui7_day_hour!B4="","",_fanchui7_day_hour!B4)</f>
+        <v/>
+      </c>
+      <c r="X7" s="39" t="str">
+        <f>IFERROR(AVERAGE(_fanchui7_day_hour!C4:'_fanchui7_day_hour'!F4)-_fanchui7_day_hour!G4,"")</f>
+        <v/>
+      </c>
+      <c r="Y7" s="39" t="str">
+        <f>IFERROR(AVERAGE(_fanchui7_day_hour!H4:'_fanchui7_day_hour'!K4)-_fanchui7_day_hour!L4,"")</f>
+        <v/>
+      </c>
+      <c r="Z7" s="42" t="str">
+        <f>IF(_maxmin_day_hour!A4="","",_maxmin_day_hour!A4)</f>
+        <v/>
+      </c>
+      <c r="AA7" s="42" t="str">
+        <f>IF(_maxmin_day_hour!B4="","",_maxmin_day_hour!B4)</f>
+        <v/>
+      </c>
+      <c r="AB7" s="44"/>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A8" s="13">
+        <v>4</v>
+      </c>
+      <c r="B8" s="22" t="str">
+        <f>IF(COUNTA(_tag_day_hour!A5:'_tag_day_hour'!AB5)=0,"",COUNTIF(_tag_day_hour!A5:'_tag_day_hour'!AB5,"=0"))</f>
+        <v/>
+      </c>
+      <c r="C8" s="28" t="str">
+        <f>IF(_tag_day_hour!AC5="","",_tag_day_hour!AC5)</f>
+        <v/>
+      </c>
+      <c r="D8" s="28" t="str">
+        <f>IF(_tag_day_hour!AD5="","",_tag_day_hour!AD5)</f>
+        <v/>
+      </c>
+      <c r="E8" s="28" t="str">
+        <f>IF(_tag_day_hour!AE5="","",_tag_day_hour!AE5)</f>
+        <v/>
+      </c>
+      <c r="F8" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G8" s="28" t="str">
+        <f>IF(_tag_day_hour!AF5="","",_tag_day_hour!AF5)</f>
+        <v/>
+      </c>
+      <c r="H8" s="28" t="str">
+        <f>IF(_tag_day_hour!AG5="","",_tag_day_hour!AG5)</f>
+        <v/>
+      </c>
+      <c r="I8" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J8" s="28" t="str">
+        <f>IF(_tag_day_hour!AH5="","",_tag_day_hour!AH5)</f>
+        <v/>
+      </c>
+      <c r="K8" s="28" t="str">
+        <f>IF(_tag_day_hour!AI5="","",_tag_day_hour!AI5)</f>
+        <v/>
+      </c>
+      <c r="L8" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M8" s="28" t="str">
+        <f>IF(_tag_day_hour!AJ5="","",_tag_day_hour!AJ5)</f>
+        <v/>
+      </c>
+      <c r="N8" s="28" t="str">
+        <f>IF(_tag_day_hour!AK5="","",_tag_day_hour!AK5)</f>
+        <v/>
+      </c>
+      <c r="O8" s="28" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="P8" s="22" t="str">
+        <f>IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$AL$1:'_tag_day_hour'!$BM$1,MATCH(MAX(_tag_day_hour!AL29:'_tag_day_hour'!BM29),_tag_day_hour!AL29:'_tag_day_hour'!BM29,0)),LEN(INDEX(_tag_day_hour!$AL$1:'_tag_day_hour'!$BM$1,MATCH(MAX(_tag_day_hour!AL29:'_tag_day_hour'!BM29),_tag_day_hour!AL29:'_tag_day_hour'!BM29,0)))-13,4),"_",""),"")</f>
+        <v/>
+      </c>
+      <c r="Q8" s="28" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!AL29:'_tag_day_hour'!BM29)=28,"",MAX(_tag_day_hour!AL29:'_tag_day_hour'!BM29))</f>
+        <v/>
+      </c>
+      <c r="R8" s="22" t="str">
+        <f>IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$AL$1:'_tag_day_hour'!$BM$1,MATCH(MIN(_tag_day_hour!AL29:'_tag_day_hour'!BM29),_tag_day_hour!AL29:'_tag_day_hour'!BM29,0)),LEN(INDEX(_tag_day_hour!$AL$1:'_tag_day_hour'!$BM$1,MATCH(MIN(_tag_day_hour!AL29:'_tag_day_hour'!BM29),_tag_day_hour!AL29:'_tag_day_hour'!BM29,0)))-13,4),"_",""),"")</f>
+        <v/>
+      </c>
+      <c r="S8" s="28" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!AL29:'_tag_day_hour'!BM29)=28,"",MIN(_tag_day_hour!AL29:'_tag_day_hour'!BM29))</f>
+        <v/>
+      </c>
+      <c r="T8" s="34" t="str">
+        <f>IF(_tag_day_hour!BN5="","",_tag_day_hour!BN5)</f>
+        <v/>
+      </c>
+      <c r="U8" s="39" t="str">
+        <f>IF(_tag_day_hour!BO5="","",_tag_day_hour!BO5)</f>
+        <v/>
+      </c>
+      <c r="V8" s="39" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!BP29:'_tag_day_hour'!CQ29)=28,"",AVERAGE(_tag_day_hour!BP29:'_tag_day_hour'!CQ29))</f>
+        <v/>
+      </c>
+      <c r="W8" s="15" t="str">
+        <f>IF(_fanchui7_day_hour!B5="","",_fanchui7_day_hour!B5)</f>
+        <v/>
+      </c>
+      <c r="X8" s="39" t="str">
+        <f>IFERROR(AVERAGE(_fanchui7_day_hour!C5:'_fanchui7_day_hour'!F5)-_fanchui7_day_hour!G5,"")</f>
+        <v/>
+      </c>
+      <c r="Y8" s="39" t="str">
+        <f>IFERROR(AVERAGE(_fanchui7_day_hour!H5:'_fanchui7_day_hour'!K5)-_fanchui7_day_hour!L5,"")</f>
+        <v/>
+      </c>
+      <c r="Z8" s="28" t="str">
+        <f>IF(_maxmin_day_hour!A5="","",_maxmin_day_hour!A5)</f>
+        <v/>
+      </c>
+      <c r="AA8" s="28" t="str">
+        <f>IF(_maxmin_day_hour!B5="","",_maxmin_day_hour!B5)</f>
+        <v/>
+      </c>
+      <c r="AB8" s="44"/>
+    </row>
+    <row r="9" spans="1:28" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
+        <v>5</v>
+      </c>
+      <c r="B9" s="22" t="str">
+        <f>IF(COUNTA(_tag_day_hour!A6:'_tag_day_hour'!AB6)=0,"",COUNTIF(_tag_day_hour!A6:'_tag_day_hour'!AB6,"=0"))</f>
+        <v/>
+      </c>
+      <c r="C9" s="28" t="str">
+        <f>IF(_tag_day_hour!AC6="","",_tag_day_hour!AC6)</f>
+        <v/>
+      </c>
+      <c r="D9" s="28" t="str">
+        <f>IF(_tag_day_hour!AD6="","",_tag_day_hour!AD6)</f>
+        <v/>
+      </c>
+      <c r="E9" s="28" t="str">
+        <f>IF(_tag_day_hour!AE6="","",_tag_day_hour!AE6)</f>
+        <v/>
+      </c>
+      <c r="F9" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G9" s="28" t="str">
+        <f>IF(_tag_day_hour!AF6="","",_tag_day_hour!AF6)</f>
+        <v/>
+      </c>
+      <c r="H9" s="28" t="str">
+        <f>IF(_tag_day_hour!AG6="","",_tag_day_hour!AG6)</f>
+        <v/>
+      </c>
+      <c r="I9" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J9" s="28" t="str">
+        <f>IF(_tag_day_hour!AH6="","",_tag_day_hour!AH6)</f>
+        <v/>
+      </c>
+      <c r="K9" s="28" t="str">
+        <f>IF(_tag_day_hour!AI6="","",_tag_day_hour!AI6)</f>
+        <v/>
+      </c>
+      <c r="L9" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M9" s="28" t="str">
+        <f>IF(_tag_day_hour!AJ6="","",_tag_day_hour!AJ6)</f>
+        <v/>
+      </c>
+      <c r="N9" s="28" t="str">
+        <f>IF(_tag_day_hour!AK6="","",_tag_day_hour!AK6)</f>
+        <v/>
+      </c>
+      <c r="O9" s="28" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="P9" s="22" t="str">
+        <f>IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$AL$1:'_tag_day_hour'!$BM$1,MATCH(MAX(_tag_day_hour!AL30:'_tag_day_hour'!BM30),_tag_day_hour!AL30:'_tag_day_hour'!BM30,0)),LEN(INDEX(_tag_day_hour!$AL$1:'_tag_day_hour'!$BM$1,MATCH(MAX(_tag_day_hour!AL30:'_tag_day_hour'!BM30),_tag_day_hour!AL30:'_tag_day_hour'!BM30,0)))-13,4),"_",""),"")</f>
+        <v/>
+      </c>
+      <c r="Q9" s="28" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!AL30:'_tag_day_hour'!BM30)=28,"",MAX(_tag_day_hour!AL30:'_tag_day_hour'!BM30))</f>
+        <v/>
+      </c>
+      <c r="R9" s="22" t="str">
+        <f>IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$AL$1:'_tag_day_hour'!$BM$1,MATCH(MIN(_tag_day_hour!AL30:'_tag_day_hour'!BM30),_tag_day_hour!AL30:'_tag_day_hour'!BM30,0)),LEN(INDEX(_tag_day_hour!$AL$1:'_tag_day_hour'!$BM$1,MATCH(MIN(_tag_day_hour!AL30:'_tag_day_hour'!BM30),_tag_day_hour!AL30:'_tag_day_hour'!BM30,0)))-13,4),"_",""),"")</f>
+        <v/>
+      </c>
+      <c r="S9" s="28" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!AL30:'_tag_day_hour'!BM30)=28,"",MIN(_tag_day_hour!AL30:'_tag_day_hour'!BM30))</f>
+        <v/>
+      </c>
+      <c r="T9" s="34" t="str">
+        <f>IF(_tag_day_hour!BN6="","",_tag_day_hour!BN6)</f>
+        <v/>
+      </c>
+      <c r="U9" s="39" t="str">
+        <f>IF(_tag_day_hour!BO6="","",_tag_day_hour!BO6)</f>
+        <v/>
+      </c>
+      <c r="V9" s="39" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!BP30:'_tag_day_hour'!CQ30)=28,"",AVERAGE(_tag_day_hour!BP30:'_tag_day_hour'!CQ30))</f>
+        <v/>
+      </c>
+      <c r="W9" s="15" t="str">
+        <f>IF(_fanchui7_day_hour!B6="","",_fanchui7_day_hour!B6)</f>
+        <v/>
+      </c>
+      <c r="X9" s="39" t="str">
+        <f>IFERROR(AVERAGE(_fanchui7_day_hour!C6:'_fanchui7_day_hour'!F6)-_fanchui7_day_hour!G6,"")</f>
+        <v/>
+      </c>
+      <c r="Y9" s="39" t="str">
+        <f>IFERROR(AVERAGE(_fanchui7_day_hour!H6:'_fanchui7_day_hour'!K6)-_fanchui7_day_hour!L6,"")</f>
+        <v/>
+      </c>
+      <c r="Z9" s="28" t="str">
+        <f>IF(_maxmin_day_hour!A6="","",_maxmin_day_hour!A6)</f>
+        <v/>
+      </c>
+      <c r="AA9" s="28" t="str">
+        <f>IF(_maxmin_day_hour!B6="","",_maxmin_day_hour!B6)</f>
+        <v/>
+      </c>
+      <c r="AB9" s="44"/>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A10" s="13">
+        <v>6</v>
+      </c>
+      <c r="B10" s="22" t="str">
+        <f>IF(COUNTA(_tag_day_hour!A7:'_tag_day_hour'!AB7)=0,"",COUNTIF(_tag_day_hour!A7:'_tag_day_hour'!AB7,"=0"))</f>
+        <v/>
+      </c>
+      <c r="C10" s="28" t="str">
+        <f>IF(_tag_day_hour!AC7="","",_tag_day_hour!AC7)</f>
+        <v/>
+      </c>
+      <c r="D10" s="28" t="str">
+        <f>IF(_tag_day_hour!AD7="","",_tag_day_hour!AD7)</f>
+        <v/>
+      </c>
+      <c r="E10" s="28" t="str">
+        <f>IF(_tag_day_hour!AE7="","",_tag_day_hour!AE7)</f>
+        <v/>
+      </c>
+      <c r="F10" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G10" s="28" t="str">
+        <f>IF(_tag_day_hour!AF7="","",_tag_day_hour!AF7)</f>
+        <v/>
+      </c>
+      <c r="H10" s="28" t="str">
+        <f>IF(_tag_day_hour!AG7="","",_tag_day_hour!AG7)</f>
+        <v/>
+      </c>
+      <c r="I10" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J10" s="28" t="str">
+        <f>IF(_tag_day_hour!AH7="","",_tag_day_hour!AH7)</f>
+        <v/>
+      </c>
+      <c r="K10" s="28" t="str">
+        <f>IF(_tag_day_hour!AI7="","",_tag_day_hour!AI7)</f>
+        <v/>
+      </c>
+      <c r="L10" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M10" s="28" t="str">
+        <f>IF(_tag_day_hour!AJ7="","",_tag_day_hour!AJ7)</f>
+        <v/>
+      </c>
+      <c r="N10" s="28" t="str">
+        <f>IF(_tag_day_hour!AK7="","",_tag_day_hour!AK7)</f>
+        <v/>
+      </c>
+      <c r="O10" s="28" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="P10" s="22" t="str">
+        <f>IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$AL$1:'_tag_day_hour'!$BM$1,MATCH(MAX(_tag_day_hour!AL31:'_tag_day_hour'!BM31),_tag_day_hour!AL31:'_tag_day_hour'!BM31,0)),LEN(INDEX(_tag_day_hour!$AL$1:'_tag_day_hour'!$BM$1,MATCH(MAX(_tag_day_hour!AL31:'_tag_day_hour'!BM31),_tag_day_hour!AL31:'_tag_day_hour'!BM31,0)))-13,4),"_",""),"")</f>
+        <v/>
+      </c>
+      <c r="Q10" s="28" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!AL31:'_tag_day_hour'!BM31)=28,"",MAX(_tag_day_hour!AL31:'_tag_day_hour'!BM31))</f>
+        <v/>
+      </c>
+      <c r="R10" s="22" t="str">
+        <f>IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$AL$1:'_tag_day_hour'!$BM$1,MATCH(MIN(_tag_day_hour!AL31:'_tag_day_hour'!BM31),_tag_day_hour!AL31:'_tag_day_hour'!BM31,0)),LEN(INDEX(_tag_day_hour!$AL$1:'_tag_day_hour'!$BM$1,MATCH(MIN(_tag_day_hour!AL31:'_tag_day_hour'!BM31),_tag_day_hour!AL31:'_tag_day_hour'!BM31,0)))-13,4),"_",""),"")</f>
+        <v/>
+      </c>
+      <c r="S10" s="28" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!AL31:'_tag_day_hour'!BM31)=28,"",MIN(_tag_day_hour!AL31:'_tag_day_hour'!BM31))</f>
+        <v/>
+      </c>
+      <c r="T10" s="34" t="str">
+        <f>IF(_tag_day_hour!BN7="","",_tag_day_hour!BN7)</f>
+        <v/>
+      </c>
+      <c r="U10" s="39" t="str">
+        <f>IF(_tag_day_hour!BO7="","",_tag_day_hour!BO7)</f>
+        <v/>
+      </c>
+      <c r="V10" s="39" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!BP31:'_tag_day_hour'!CQ31)=28,"",AVERAGE(_tag_day_hour!BP31:'_tag_day_hour'!CQ31))</f>
+        <v/>
+      </c>
+      <c r="W10" s="15" t="str">
+        <f>IF(_fanchui7_day_hour!B7="","",_fanchui7_day_hour!B7)</f>
+        <v/>
+      </c>
+      <c r="X10" s="39" t="str">
+        <f>IFERROR(AVERAGE(_fanchui7_day_hour!C7:'_fanchui7_day_hour'!F7)-_fanchui7_day_hour!G7,"")</f>
+        <v/>
+      </c>
+      <c r="Y10" s="39" t="str">
+        <f>IFERROR(AVERAGE(_fanchui7_day_hour!H7:'_fanchui7_day_hour'!K7)-_fanchui7_day_hour!L7,"")</f>
+        <v/>
+      </c>
+      <c r="Z10" s="28" t="str">
+        <f>IF(_maxmin_day_hour!A7="","",_maxmin_day_hour!A7)</f>
+        <v/>
+      </c>
+      <c r="AA10" s="28" t="str">
+        <f>IF(_maxmin_day_hour!B7="","",_maxmin_day_hour!B7)</f>
+        <v/>
+      </c>
+      <c r="AB10" s="44"/>
+    </row>
+    <row r="11" spans="1:28" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
+        <v>7</v>
+      </c>
+      <c r="B11" s="22" t="str">
+        <f>IF(COUNTA(_tag_day_hour!A8:'_tag_day_hour'!AB8)=0,"",COUNTIF(_tag_day_hour!A8:'_tag_day_hour'!AB8,"=0"))</f>
+        <v/>
+      </c>
+      <c r="C11" s="28" t="str">
+        <f>IF(_tag_day_hour!AC8="","",_tag_day_hour!AC8)</f>
+        <v/>
+      </c>
+      <c r="D11" s="28" t="str">
+        <f>IF(_tag_day_hour!AD8="","",_tag_day_hour!AD8)</f>
+        <v/>
+      </c>
+      <c r="E11" s="28" t="str">
+        <f>IF(_tag_day_hour!AE8="","",_tag_day_hour!AE8)</f>
+        <v/>
+      </c>
+      <c r="F11" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G11" s="28" t="str">
+        <f>IF(_tag_day_hour!AF8="","",_tag_day_hour!AF8)</f>
+        <v/>
+      </c>
+      <c r="H11" s="28" t="str">
+        <f>IF(_tag_day_hour!AG8="","",_tag_day_hour!AG8)</f>
+        <v/>
+      </c>
+      <c r="I11" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J11" s="28" t="str">
+        <f>IF(_tag_day_hour!AH8="","",_tag_day_hour!AH8)</f>
+        <v/>
+      </c>
+      <c r="K11" s="28" t="str">
+        <f>IF(_tag_day_hour!AI8="","",_tag_day_hour!AI8)</f>
+        <v/>
+      </c>
+      <c r="L11" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M11" s="28" t="str">
+        <f>IF(_tag_day_hour!AJ8="","",_tag_day_hour!AJ8)</f>
+        <v/>
+      </c>
+      <c r="N11" s="28" t="str">
+        <f>IF(_tag_day_hour!AK8="","",_tag_day_hour!AK8)</f>
+        <v/>
+      </c>
+      <c r="O11" s="28" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="P11" s="22" t="str">
+        <f>IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$AL$1:'_tag_day_hour'!$BM$1,MATCH(MAX(_tag_day_hour!AL32:'_tag_day_hour'!BM32),_tag_day_hour!AL32:'_tag_day_hour'!BM32,0)),LEN(INDEX(_tag_day_hour!$AL$1:'_tag_day_hour'!$BM$1,MATCH(MAX(_tag_day_hour!AL32:'_tag_day_hour'!BM32),_tag_day_hour!AL32:'_tag_day_hour'!BM32,0)))-13,4),"_",""),"")</f>
+        <v/>
+      </c>
+      <c r="Q11" s="28" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!AL32:'_tag_day_hour'!BM32)=28,"",MAX(_tag_day_hour!AL32:'_tag_day_hour'!BM32))</f>
+        <v/>
+      </c>
+      <c r="R11" s="22" t="str">
+        <f>IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$AL$1:'_tag_day_hour'!$BM$1,MATCH(MIN(_tag_day_hour!AL32:'_tag_day_hour'!BM32),_tag_day_hour!AL32:'_tag_day_hour'!BM32,0)),LEN(INDEX(_tag_day_hour!$AL$1:'_tag_day_hour'!$BM$1,MATCH(MIN(_tag_day_hour!AL32:'_tag_day_hour'!BM32),_tag_day_hour!AL32:'_tag_day_hour'!BM32,0)))-13,4),"_",""),"")</f>
+        <v/>
+      </c>
+      <c r="S11" s="28" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!AL32:'_tag_day_hour'!BM32)=28,"",MIN(_tag_day_hour!AL32:'_tag_day_hour'!BM32))</f>
+        <v/>
+      </c>
+      <c r="T11" s="34" t="str">
+        <f>IF(_tag_day_hour!BN8="","",_tag_day_hour!BN8)</f>
+        <v/>
+      </c>
+      <c r="U11" s="39" t="str">
+        <f>IF(_tag_day_hour!BO8="","",_tag_day_hour!BO8)</f>
+        <v/>
+      </c>
+      <c r="V11" s="39" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!BP32:'_tag_day_hour'!CQ32)=28,"",AVERAGE(_tag_day_hour!BP32:'_tag_day_hour'!CQ32))</f>
+        <v/>
+      </c>
+      <c r="W11" s="15" t="str">
+        <f>IF(_fanchui7_day_hour!B8="","",_fanchui7_day_hour!B8)</f>
+        <v/>
+      </c>
+      <c r="X11" s="39" t="str">
+        <f>IFERROR(AVERAGE(_fanchui7_day_hour!C8:'_fanchui7_day_hour'!F8)-_fanchui7_day_hour!G8,"")</f>
+        <v/>
+      </c>
+      <c r="Y11" s="39" t="str">
+        <f>IFERROR(AVERAGE(_fanchui7_day_hour!H8:'_fanchui7_day_hour'!K8)-_fanchui7_day_hour!L8,"")</f>
+        <v/>
+      </c>
+      <c r="Z11" s="28" t="str">
+        <f>IF(_maxmin_day_hour!A8="","",_maxmin_day_hour!A8)</f>
+        <v/>
+      </c>
+      <c r="AA11" s="28" t="str">
+        <f>IF(_maxmin_day_hour!B8="","",_maxmin_day_hour!B8)</f>
+        <v/>
+      </c>
+      <c r="AB11" s="44"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A12" s="13">
+        <v>8</v>
+      </c>
+      <c r="B12" s="22" t="str">
+        <f>IF(COUNTA(_tag_day_hour!A9:'_tag_day_hour'!AB9)=0,"",COUNTIF(_tag_day_hour!A9:'_tag_day_hour'!AB9,"=0"))</f>
+        <v/>
+      </c>
+      <c r="C12" s="28" t="str">
+        <f>IF(_tag_day_hour!AC9="","",_tag_day_hour!AC9)</f>
+        <v/>
+      </c>
+      <c r="D12" s="28" t="str">
+        <f>IF(_tag_day_hour!AD9="","",_tag_day_hour!AD9)</f>
+        <v/>
+      </c>
+      <c r="E12" s="28" t="str">
+        <f>IF(_tag_day_hour!AE9="","",_tag_day_hour!AE9)</f>
+        <v/>
+      </c>
+      <c r="F12" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G12" s="28" t="str">
+        <f>IF(_tag_day_hour!AF9="","",_tag_day_hour!AF9)</f>
+        <v/>
+      </c>
+      <c r="H12" s="28" t="str">
+        <f>IF(_tag_day_hour!AG9="","",_tag_day_hour!AG9)</f>
+        <v/>
+      </c>
+      <c r="I12" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J12" s="28" t="str">
+        <f>IF(_tag_day_hour!AH9="","",_tag_day_hour!AH9)</f>
+        <v/>
+      </c>
+      <c r="K12" s="28" t="str">
+        <f>IF(_tag_day_hour!AI9="","",_tag_day_hour!AI9)</f>
+        <v/>
+      </c>
+      <c r="L12" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M12" s="28" t="str">
+        <f>IF(_tag_day_hour!AJ9="","",_tag_day_hour!AJ9)</f>
+        <v/>
+      </c>
+      <c r="N12" s="28" t="str">
+        <f>IF(_tag_day_hour!AK9="","",_tag_day_hour!AK9)</f>
+        <v/>
+      </c>
+      <c r="O12" s="28" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="P12" s="22" t="str">
+        <f>IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$AL$1:'_tag_day_hour'!$BM$1,MATCH(MAX(_tag_day_hour!AL33:'_tag_day_hour'!BM33),_tag_day_hour!AL33:'_tag_day_hour'!BM33,0)),LEN(INDEX(_tag_day_hour!$AL$1:'_tag_day_hour'!$BM$1,MATCH(MAX(_tag_day_hour!AL33:'_tag_day_hour'!BM33),_tag_day_hour!AL33:'_tag_day_hour'!BM33,0)))-13,4),"_",""),"")</f>
+        <v/>
+      </c>
+      <c r="Q12" s="28" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!AL33:'_tag_day_hour'!BM33)=28,"",MAX(_tag_day_hour!AL33:'_tag_day_hour'!BM33))</f>
+        <v/>
+      </c>
+      <c r="R12" s="22" t="str">
+        <f>IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$AL$1:'_tag_day_hour'!$BM$1,MATCH(MIN(_tag_day_hour!AL33:'_tag_day_hour'!BM33),_tag_day_hour!AL33:'_tag_day_hour'!BM33,0)),LEN(INDEX(_tag_day_hour!$AL$1:'_tag_day_hour'!$BM$1,MATCH(MIN(_tag_day_hour!AL33:'_tag_day_hour'!BM33),_tag_day_hour!AL33:'_tag_day_hour'!BM33,0)))-13,4),"_",""),"")</f>
+        <v/>
+      </c>
+      <c r="S12" s="28" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!AL33:'_tag_day_hour'!BM33)=28,"",MIN(_tag_day_hour!AL33:'_tag_day_hour'!BM33))</f>
+        <v/>
+      </c>
+      <c r="T12" s="34" t="str">
+        <f>IF(_tag_day_hour!BN9="","",_tag_day_hour!BN9)</f>
+        <v/>
+      </c>
+      <c r="U12" s="39" t="str">
+        <f>IF(_tag_day_hour!BO9="","",_tag_day_hour!BO9)</f>
+        <v/>
+      </c>
+      <c r="V12" s="39" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!BP33:'_tag_day_hour'!CQ33)=28,"",AVERAGE(_tag_day_hour!BP33:'_tag_day_hour'!CQ33))</f>
+        <v/>
+      </c>
+      <c r="W12" s="15" t="str">
+        <f>IF(_fanchui7_day_hour!B9="","",_fanchui7_day_hour!B9)</f>
+        <v/>
+      </c>
+      <c r="X12" s="39" t="str">
+        <f>IFERROR(AVERAGE(_fanchui7_day_hour!C9:'_fanchui7_day_hour'!F9)-_fanchui7_day_hour!G9,"")</f>
+        <v/>
+      </c>
+      <c r="Y12" s="39" t="str">
+        <f>IFERROR(AVERAGE(_fanchui7_day_hour!H9:'_fanchui7_day_hour'!K9)-_fanchui7_day_hour!L9,"")</f>
+        <v/>
+      </c>
+      <c r="Z12" s="28" t="str">
+        <f>IF(_maxmin_day_hour!A9="","",_maxmin_day_hour!A9)</f>
+        <v/>
+      </c>
+      <c r="AA12" s="28" t="str">
+        <f>IF(_maxmin_day_hour!B9="","",_maxmin_day_hour!B9)</f>
+        <v/>
+      </c>
+      <c r="AB12" s="44"/>
+    </row>
+    <row r="13" spans="1:28" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
+        <v>9</v>
+      </c>
+      <c r="B13" s="22" t="str">
+        <f>IF(COUNTA(_tag_day_hour!A10:'_tag_day_hour'!AB10)=0,"",COUNTIF(_tag_day_hour!A10:'_tag_day_hour'!AB10,"=0"))</f>
+        <v/>
+      </c>
+      <c r="C13" s="28" t="str">
+        <f>IF(_tag_day_hour!AC10="","",_tag_day_hour!AC10)</f>
+        <v/>
+      </c>
+      <c r="D13" s="28" t="str">
+        <f>IF(_tag_day_hour!AD10="","",_tag_day_hour!AD10)</f>
+        <v/>
+      </c>
+      <c r="E13" s="28" t="str">
+        <f>IF(_tag_day_hour!AE10="","",_tag_day_hour!AE10)</f>
+        <v/>
+      </c>
+      <c r="F13" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G13" s="28" t="str">
+        <f>IF(_tag_day_hour!AF10="","",_tag_day_hour!AF10)</f>
+        <v/>
+      </c>
+      <c r="H13" s="28" t="str">
+        <f>IF(_tag_day_hour!AG10="","",_tag_day_hour!AG10)</f>
+        <v/>
+      </c>
+      <c r="I13" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J13" s="28" t="str">
+        <f>IF(_tag_day_hour!AH10="","",_tag_day_hour!AH10)</f>
+        <v/>
+      </c>
+      <c r="K13" s="28" t="str">
+        <f>IF(_tag_day_hour!AI10="","",_tag_day_hour!AI10)</f>
+        <v/>
+      </c>
+      <c r="L13" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M13" s="28" t="str">
+        <f>IF(_tag_day_hour!AJ10="","",_tag_day_hour!AJ10)</f>
+        <v/>
+      </c>
+      <c r="N13" s="28" t="str">
+        <f>IF(_tag_day_hour!AK10="","",_tag_day_hour!AK10)</f>
+        <v/>
+      </c>
+      <c r="O13" s="28" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="P13" s="22" t="str">
+        <f>IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$AL$1:'_tag_day_hour'!$BM$1,MATCH(MAX(_tag_day_hour!AL34:'_tag_day_hour'!BM34),_tag_day_hour!AL34:'_tag_day_hour'!BM34,0)),LEN(INDEX(_tag_day_hour!$AL$1:'_tag_day_hour'!$BM$1,MATCH(MAX(_tag_day_hour!AL34:'_tag_day_hour'!BM34),_tag_day_hour!AL34:'_tag_day_hour'!BM34,0)))-13,4),"_",""),"")</f>
+        <v/>
+      </c>
+      <c r="Q13" s="28" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!AL34:'_tag_day_hour'!BM34)=28,"",MAX(_tag_day_hour!AL34:'_tag_day_hour'!BM34))</f>
+        <v/>
+      </c>
+      <c r="R13" s="22" t="str">
+        <f>IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$AL$1:'_tag_day_hour'!$BM$1,MATCH(MIN(_tag_day_hour!AL34:'_tag_day_hour'!BM34),_tag_day_hour!AL34:'_tag_day_hour'!BM34,0)),LEN(INDEX(_tag_day_hour!$AL$1:'_tag_day_hour'!$BM$1,MATCH(MIN(_tag_day_hour!AL34:'_tag_day_hour'!BM34),_tag_day_hour!AL34:'_tag_day_hour'!BM34,0)))-13,4),"_",""),"")</f>
+        <v/>
+      </c>
+      <c r="S13" s="28" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!AL34:'_tag_day_hour'!BM34)=28,"",MIN(_tag_day_hour!AL34:'_tag_day_hour'!BM34))</f>
+        <v/>
+      </c>
+      <c r="T13" s="34" t="str">
+        <f>IF(_tag_day_hour!BN10="","",_tag_day_hour!BN10)</f>
+        <v/>
+      </c>
+      <c r="U13" s="39" t="str">
+        <f>IF(_tag_day_hour!BO10="","",_tag_day_hour!BO10)</f>
+        <v/>
+      </c>
+      <c r="V13" s="39" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!BP34:'_tag_day_hour'!CQ34)=28,"",AVERAGE(_tag_day_hour!BP34:'_tag_day_hour'!CQ34))</f>
+        <v/>
+      </c>
+      <c r="W13" s="15" t="str">
+        <f>IF(_fanchui7_day_hour!B10="","",_fanchui7_day_hour!B10)</f>
+        <v/>
+      </c>
+      <c r="X13" s="39" t="str">
+        <f>IFERROR(AVERAGE(_fanchui7_day_hour!C10:'_fanchui7_day_hour'!F10)-_fanchui7_day_hour!G10,"")</f>
+        <v/>
+      </c>
+      <c r="Y13" s="39" t="str">
+        <f>IFERROR(AVERAGE(_fanchui7_day_hour!H10:'_fanchui7_day_hour'!K10)-_fanchui7_day_hour!L10,"")</f>
+        <v/>
+      </c>
+      <c r="Z13" s="28" t="str">
+        <f>IF(_maxmin_day_hour!A10="","",_maxmin_day_hour!A10)</f>
+        <v/>
+      </c>
+      <c r="AA13" s="28" t="str">
+        <f>IF(_maxmin_day_hour!B10="","",_maxmin_day_hour!B10)</f>
+        <v/>
+      </c>
+      <c r="AB13" s="43" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A14" s="13">
+        <v>10</v>
+      </c>
+      <c r="B14" s="22" t="str">
+        <f>IF(COUNTA(_tag_day_hour!A11:'_tag_day_hour'!AB11)=0,"",COUNTIF(_tag_day_hour!A11:'_tag_day_hour'!AB11,"=0"))</f>
+        <v/>
+      </c>
+      <c r="C14" s="28" t="str">
+        <f>IF(_tag_day_hour!AC11="","",_tag_day_hour!AC11)</f>
+        <v/>
+      </c>
+      <c r="D14" s="28" t="str">
+        <f>IF(_tag_day_hour!AD11="","",_tag_day_hour!AD11)</f>
+        <v/>
+      </c>
+      <c r="E14" s="28" t="str">
+        <f>IF(_tag_day_hour!AE11="","",_tag_day_hour!AE11)</f>
+        <v/>
+      </c>
+      <c r="F14" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G14" s="28" t="str">
+        <f>IF(_tag_day_hour!AF11="","",_tag_day_hour!AF11)</f>
+        <v/>
+      </c>
+      <c r="H14" s="28" t="str">
+        <f>IF(_tag_day_hour!AG11="","",_tag_day_hour!AG11)</f>
+        <v/>
+      </c>
+      <c r="I14" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J14" s="28" t="str">
+        <f>IF(_tag_day_hour!AH11="","",_tag_day_hour!AH11)</f>
+        <v/>
+      </c>
+      <c r="K14" s="28" t="str">
+        <f>IF(_tag_day_hour!AI11="","",_tag_day_hour!AI11)</f>
+        <v/>
+      </c>
+      <c r="L14" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M14" s="28" t="str">
+        <f>IF(_tag_day_hour!AJ11="","",_tag_day_hour!AJ11)</f>
+        <v/>
+      </c>
+      <c r="N14" s="28" t="str">
+        <f>IF(_tag_day_hour!AK11="","",_tag_day_hour!AK11)</f>
+        <v/>
+      </c>
+      <c r="O14" s="28" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="P14" s="22" t="str">
+        <f>IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$AL$1:'_tag_day_hour'!$BM$1,MATCH(MAX(_tag_day_hour!AL35:'_tag_day_hour'!BM35),_tag_day_hour!AL35:'_tag_day_hour'!BM35,0)),LEN(INDEX(_tag_day_hour!$AL$1:'_tag_day_hour'!$BM$1,MATCH(MAX(_tag_day_hour!AL35:'_tag_day_hour'!BM35),_tag_day_hour!AL35:'_tag_day_hour'!BM35,0)))-13,4),"_",""),"")</f>
+        <v/>
+      </c>
+      <c r="Q14" s="28" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!AL35:'_tag_day_hour'!BM35)=28,"",MAX(_tag_day_hour!AL35:'_tag_day_hour'!BM35))</f>
+        <v/>
+      </c>
+      <c r="R14" s="22" t="str">
+        <f>IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$AL$1:'_tag_day_hour'!$BM$1,MATCH(MIN(_tag_day_hour!AL35:'_tag_day_hour'!BM35),_tag_day_hour!AL35:'_tag_day_hour'!BM35,0)),LEN(INDEX(_tag_day_hour!$AL$1:'_tag_day_hour'!$BM$1,MATCH(MIN(_tag_day_hour!AL35:'_tag_day_hour'!BM35),_tag_day_hour!AL35:'_tag_day_hour'!BM35,0)))-13,4),"_",""),"")</f>
+        <v/>
+      </c>
+      <c r="S14" s="28" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!AL35:'_tag_day_hour'!BM35)=28,"",MIN(_tag_day_hour!AL35:'_tag_day_hour'!BM35))</f>
+        <v/>
+      </c>
+      <c r="T14" s="34" t="str">
+        <f>IF(_tag_day_hour!BN11="","",_tag_day_hour!BN11)</f>
+        <v/>
+      </c>
+      <c r="U14" s="39" t="str">
+        <f>IF(_tag_day_hour!BO11="","",_tag_day_hour!BO11)</f>
+        <v/>
+      </c>
+      <c r="V14" s="39" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!BP35:'_tag_day_hour'!CQ35)=28,"",AVERAGE(_tag_day_hour!BP35:'_tag_day_hour'!CQ35))</f>
+        <v/>
+      </c>
+      <c r="W14" s="15" t="str">
+        <f>IF(_fanchui7_day_hour!B11="","",_fanchui7_day_hour!B11)</f>
+        <v/>
+      </c>
+      <c r="X14" s="39" t="str">
+        <f>IFERROR(AVERAGE(_fanchui7_day_hour!C11:'_fanchui7_day_hour'!F11)-_fanchui7_day_hour!G11,"")</f>
+        <v/>
+      </c>
+      <c r="Y14" s="39" t="str">
+        <f>IFERROR(AVERAGE(_fanchui7_day_hour!H11:'_fanchui7_day_hour'!K11)-_fanchui7_day_hour!L11,"")</f>
+        <v/>
+      </c>
+      <c r="Z14" s="28" t="str">
+        <f>IF(_maxmin_day_hour!A11="","",_maxmin_day_hour!A11)</f>
+        <v/>
+      </c>
+      <c r="AA14" s="28" t="str">
+        <f>IF(_maxmin_day_hour!B11="","",_maxmin_day_hour!B11)</f>
+        <v/>
+      </c>
+      <c r="AB14" s="44"/>
+    </row>
+    <row r="15" spans="1:28" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A15" s="11">
+        <v>11</v>
+      </c>
+      <c r="B15" s="22" t="str">
+        <f>IF(COUNTA(_tag_day_hour!A12:'_tag_day_hour'!AB12)=0,"",COUNTIF(_tag_day_hour!A12:'_tag_day_hour'!AB12,"=0"))</f>
+        <v/>
+      </c>
+      <c r="C15" s="28" t="str">
+        <f>IF(_tag_day_hour!AC12="","",_tag_day_hour!AC12)</f>
+        <v/>
+      </c>
+      <c r="D15" s="28" t="str">
+        <f>IF(_tag_day_hour!AD12="","",_tag_day_hour!AD12)</f>
+        <v/>
+      </c>
+      <c r="E15" s="28" t="str">
+        <f>IF(_tag_day_hour!AE12="","",_tag_day_hour!AE12)</f>
+        <v/>
+      </c>
+      <c r="F15" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G15" s="28" t="str">
+        <f>IF(_tag_day_hour!AF12="","",_tag_day_hour!AF12)</f>
+        <v/>
+      </c>
+      <c r="H15" s="28" t="str">
+        <f>IF(_tag_day_hour!AG12="","",_tag_day_hour!AG12)</f>
+        <v/>
+      </c>
+      <c r="I15" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J15" s="28" t="str">
+        <f>IF(_tag_day_hour!AH12="","",_tag_day_hour!AH12)</f>
+        <v/>
+      </c>
+      <c r="K15" s="28" t="str">
+        <f>IF(_tag_day_hour!AI12="","",_tag_day_hour!AI12)</f>
+        <v/>
+      </c>
+      <c r="L15" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M15" s="28" t="str">
+        <f>IF(_tag_day_hour!AJ12="","",_tag_day_hour!AJ12)</f>
+        <v/>
+      </c>
+      <c r="N15" s="28" t="str">
+        <f>IF(_tag_day_hour!AK12="","",_tag_day_hour!AK12)</f>
+        <v/>
+      </c>
+      <c r="O15" s="28" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="P15" s="22" t="str">
+        <f>IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$AL$1:'_tag_day_hour'!$BM$1,MATCH(MAX(_tag_day_hour!AL36:'_tag_day_hour'!BM36),_tag_day_hour!AL36:'_tag_day_hour'!BM36,0)),LEN(INDEX(_tag_day_hour!$AL$1:'_tag_day_hour'!$BM$1,MATCH(MAX(_tag_day_hour!AL36:'_tag_day_hour'!BM36),_tag_day_hour!AL36:'_tag_day_hour'!BM36,0)))-13,4),"_",""),"")</f>
+        <v/>
+      </c>
+      <c r="Q15" s="28" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!AL36:'_tag_day_hour'!BM36)=28,"",MAX(_tag_day_hour!AL36:'_tag_day_hour'!BM36))</f>
+        <v/>
+      </c>
+      <c r="R15" s="22" t="str">
+        <f>IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$AL$1:'_tag_day_hour'!$BM$1,MATCH(MIN(_tag_day_hour!AL36:'_tag_day_hour'!BM36),_tag_day_hour!AL36:'_tag_day_hour'!BM36,0)),LEN(INDEX(_tag_day_hour!$AL$1:'_tag_day_hour'!$BM$1,MATCH(MIN(_tag_day_hour!AL36:'_tag_day_hour'!BM36),_tag_day_hour!AL36:'_tag_day_hour'!BM36,0)))-13,4),"_",""),"")</f>
+        <v/>
+      </c>
+      <c r="S15" s="28" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!AL36:'_tag_day_hour'!BM36)=28,"",MIN(_tag_day_hour!AL36:'_tag_day_hour'!BM36))</f>
+        <v/>
+      </c>
+      <c r="T15" s="34" t="str">
+        <f>IF(_tag_day_hour!BN12="","",_tag_day_hour!BN12)</f>
+        <v/>
+      </c>
+      <c r="U15" s="39" t="str">
+        <f>IF(_tag_day_hour!BO12="","",_tag_day_hour!BO12)</f>
+        <v/>
+      </c>
+      <c r="V15" s="39" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!BP36:'_tag_day_hour'!CQ36)=28,"",AVERAGE(_tag_day_hour!BP36:'_tag_day_hour'!CQ36))</f>
+        <v/>
+      </c>
+      <c r="W15" s="15" t="str">
+        <f>IF(_fanchui7_day_hour!B12="","",_fanchui7_day_hour!B12)</f>
+        <v/>
+      </c>
+      <c r="X15" s="39" t="str">
+        <f>IFERROR(AVERAGE(_fanchui7_day_hour!C12:'_fanchui7_day_hour'!F12)-_fanchui7_day_hour!G12,"")</f>
+        <v/>
+      </c>
+      <c r="Y15" s="39" t="str">
+        <f>IFERROR(AVERAGE(_fanchui7_day_hour!H12:'_fanchui7_day_hour'!K12)-_fanchui7_day_hour!L12,"")</f>
+        <v/>
+      </c>
+      <c r="Z15" s="28" t="str">
+        <f>IF(_maxmin_day_hour!A12="","",_maxmin_day_hour!A12)</f>
+        <v/>
+      </c>
+      <c r="AA15" s="28" t="str">
+        <f>IF(_maxmin_day_hour!B12="","",_maxmin_day_hour!B12)</f>
+        <v/>
+      </c>
+      <c r="AB15" s="44"/>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A16" s="13">
+        <v>12</v>
+      </c>
+      <c r="B16" s="22" t="str">
+        <f>IF(COUNTA(_tag_day_hour!A13:'_tag_day_hour'!AB13)=0,"",COUNTIF(_tag_day_hour!A13:'_tag_day_hour'!AB13,"=0"))</f>
+        <v/>
+      </c>
+      <c r="C16" s="28" t="str">
+        <f>IF(_tag_day_hour!AC13="","",_tag_day_hour!AC13)</f>
+        <v/>
+      </c>
+      <c r="D16" s="28" t="str">
+        <f>IF(_tag_day_hour!AD13="","",_tag_day_hour!AD13)</f>
+        <v/>
+      </c>
+      <c r="E16" s="28" t="str">
+        <f>IF(_tag_day_hour!AE13="","",_tag_day_hour!AE13)</f>
+        <v/>
+      </c>
+      <c r="F16" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G16" s="28" t="str">
+        <f>IF(_tag_day_hour!AF13="","",_tag_day_hour!AF13)</f>
+        <v/>
+      </c>
+      <c r="H16" s="28" t="str">
+        <f>IF(_tag_day_hour!AG13="","",_tag_day_hour!AG13)</f>
+        <v/>
+      </c>
+      <c r="I16" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J16" s="28" t="str">
+        <f>IF(_tag_day_hour!AH13="","",_tag_day_hour!AH13)</f>
+        <v/>
+      </c>
+      <c r="K16" s="28" t="str">
+        <f>IF(_tag_day_hour!AI13="","",_tag_day_hour!AI13)</f>
+        <v/>
+      </c>
+      <c r="L16" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M16" s="28" t="str">
+        <f>IF(_tag_day_hour!AJ13="","",_tag_day_hour!AJ13)</f>
+        <v/>
+      </c>
+      <c r="N16" s="28" t="str">
+        <f>IF(_tag_day_hour!AK13="","",_tag_day_hour!AK13)</f>
+        <v/>
+      </c>
+      <c r="O16" s="28" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="P16" s="22" t="str">
+        <f>IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$AL$1:'_tag_day_hour'!$BM$1,MATCH(MAX(_tag_day_hour!AL37:'_tag_day_hour'!BM37),_tag_day_hour!AL37:'_tag_day_hour'!BM37,0)),LEN(INDEX(_tag_day_hour!$AL$1:'_tag_day_hour'!$BM$1,MATCH(MAX(_tag_day_hour!AL37:'_tag_day_hour'!BM37),_tag_day_hour!AL37:'_tag_day_hour'!BM37,0)))-13,4),"_",""),"")</f>
+        <v/>
+      </c>
+      <c r="Q16" s="28" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!AL37:'_tag_day_hour'!BM37)=28,"",MAX(_tag_day_hour!AL37:'_tag_day_hour'!BM37))</f>
+        <v/>
+      </c>
+      <c r="R16" s="22" t="str">
+        <f>IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$AL$1:'_tag_day_hour'!$BM$1,MATCH(MIN(_tag_day_hour!AL37:'_tag_day_hour'!BM37),_tag_day_hour!AL37:'_tag_day_hour'!BM37,0)),LEN(INDEX(_tag_day_hour!$AL$1:'_tag_day_hour'!$BM$1,MATCH(MIN(_tag_day_hour!AL37:'_tag_day_hour'!BM37),_tag_day_hour!AL37:'_tag_day_hour'!BM37,0)))-13,4),"_",""),"")</f>
+        <v/>
+      </c>
+      <c r="S16" s="28" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!AL37:'_tag_day_hour'!BM37)=28,"",MIN(_tag_day_hour!AL37:'_tag_day_hour'!BM37))</f>
+        <v/>
+      </c>
+      <c r="T16" s="34" t="str">
+        <f>IF(_tag_day_hour!BN13="","",_tag_day_hour!BN13)</f>
+        <v/>
+      </c>
+      <c r="U16" s="39" t="str">
+        <f>IF(_tag_day_hour!BO13="","",_tag_day_hour!BO13)</f>
+        <v/>
+      </c>
+      <c r="V16" s="39" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!BP37:'_tag_day_hour'!CQ37)=28,"",AVERAGE(_tag_day_hour!BP37:'_tag_day_hour'!CQ37))</f>
+        <v/>
+      </c>
+      <c r="W16" s="15" t="str">
+        <f>IF(_fanchui7_day_hour!B13="","",_fanchui7_day_hour!B13)</f>
+        <v/>
+      </c>
+      <c r="X16" s="39" t="str">
+        <f>IFERROR(AVERAGE(_fanchui7_day_hour!C13:'_fanchui7_day_hour'!F13)-_fanchui7_day_hour!G13,"")</f>
+        <v/>
+      </c>
+      <c r="Y16" s="39" t="str">
+        <f>IFERROR(AVERAGE(_fanchui7_day_hour!H13:'_fanchui7_day_hour'!K13)-_fanchui7_day_hour!L13,"")</f>
+        <v/>
+      </c>
+      <c r="Z16" s="28" t="str">
+        <f>IF(_maxmin_day_hour!A13="","",_maxmin_day_hour!A13)</f>
+        <v/>
+      </c>
+      <c r="AA16" s="28" t="str">
+        <f>IF(_maxmin_day_hour!B13="","",_maxmin_day_hour!B13)</f>
+        <v/>
+      </c>
+      <c r="AB16" s="44"/>
+    </row>
+    <row r="17" spans="1:28" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A17" s="11">
+        <v>13</v>
+      </c>
+      <c r="B17" s="22" t="str">
+        <f>IF(COUNTA(_tag_day_hour!A14:'_tag_day_hour'!AB14)=0,"",COUNTIF(_tag_day_hour!A14:'_tag_day_hour'!AB14,"=0"))</f>
+        <v/>
+      </c>
+      <c r="C17" s="28" t="str">
+        <f>IF(_tag_day_hour!AC14="","",_tag_day_hour!AC14)</f>
+        <v/>
+      </c>
+      <c r="D17" s="28" t="str">
+        <f>IF(_tag_day_hour!AD14="","",_tag_day_hour!AD14)</f>
+        <v/>
+      </c>
+      <c r="E17" s="28" t="str">
+        <f>IF(_tag_day_hour!AE14="","",_tag_day_hour!AE14)</f>
+        <v/>
+      </c>
+      <c r="F17" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G17" s="28" t="str">
+        <f>IF(_tag_day_hour!AF14="","",_tag_day_hour!AF14)</f>
+        <v/>
+      </c>
+      <c r="H17" s="28" t="str">
+        <f>IF(_tag_day_hour!AG14="","",_tag_day_hour!AG14)</f>
+        <v/>
+      </c>
+      <c r="I17" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J17" s="28" t="str">
+        <f>IF(_tag_day_hour!AH14="","",_tag_day_hour!AH14)</f>
+        <v/>
+      </c>
+      <c r="K17" s="28" t="str">
+        <f>IF(_tag_day_hour!AI14="","",_tag_day_hour!AI14)</f>
+        <v/>
+      </c>
+      <c r="L17" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M17" s="28" t="str">
+        <f>IF(_tag_day_hour!AJ14="","",_tag_day_hour!AJ14)</f>
+        <v/>
+      </c>
+      <c r="N17" s="28" t="str">
+        <f>IF(_tag_day_hour!AK14="","",_tag_day_hour!AK14)</f>
+        <v/>
+      </c>
+      <c r="O17" s="28" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="P17" s="22" t="str">
+        <f>IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$AL$1:'_tag_day_hour'!$BM$1,MATCH(MAX(_tag_day_hour!AL38:'_tag_day_hour'!BM38),_tag_day_hour!AL38:'_tag_day_hour'!BM38,0)),LEN(INDEX(_tag_day_hour!$AL$1:'_tag_day_hour'!$BM$1,MATCH(MAX(_tag_day_hour!AL38:'_tag_day_hour'!BM38),_tag_day_hour!AL38:'_tag_day_hour'!BM38,0)))-13,4),"_",""),"")</f>
+        <v/>
+      </c>
+      <c r="Q17" s="28" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!AL38:'_tag_day_hour'!BM38)=28,"",MAX(_tag_day_hour!AL38:'_tag_day_hour'!BM38))</f>
+        <v/>
+      </c>
+      <c r="R17" s="22" t="str">
+        <f>IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$AL$1:'_tag_day_hour'!$BM$1,MATCH(MIN(_tag_day_hour!AL38:'_tag_day_hour'!BM38),_tag_day_hour!AL38:'_tag_day_hour'!BM38,0)),LEN(INDEX(_tag_day_hour!$AL$1:'_tag_day_hour'!$BM$1,MATCH(MIN(_tag_day_hour!AL38:'_tag_day_hour'!BM38),_tag_day_hour!AL38:'_tag_day_hour'!BM38,0)))-13,4),"_",""),"")</f>
+        <v/>
+      </c>
+      <c r="S17" s="28" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!AL38:'_tag_day_hour'!BM38)=28,"",MIN(_tag_day_hour!AL38:'_tag_day_hour'!BM38))</f>
+        <v/>
+      </c>
+      <c r="T17" s="34" t="str">
+        <f>IF(_tag_day_hour!BN14="","",_tag_day_hour!BN14)</f>
+        <v/>
+      </c>
+      <c r="U17" s="39" t="str">
+        <f>IF(_tag_day_hour!BO14="","",_tag_day_hour!BO14)</f>
+        <v/>
+      </c>
+      <c r="V17" s="39" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!BP38:'_tag_day_hour'!CQ38)=28,"",AVERAGE(_tag_day_hour!BP38:'_tag_day_hour'!CQ38))</f>
+        <v/>
+      </c>
+      <c r="W17" s="15" t="str">
+        <f>IF(_fanchui7_day_hour!B14="","",_fanchui7_day_hour!B14)</f>
+        <v/>
+      </c>
+      <c r="X17" s="39" t="str">
+        <f>IFERROR(AVERAGE(_fanchui7_day_hour!C14:'_fanchui7_day_hour'!F14)-_fanchui7_day_hour!G14,"")</f>
+        <v/>
+      </c>
+      <c r="Y17" s="39" t="str">
+        <f>IFERROR(AVERAGE(_fanchui7_day_hour!H14:'_fanchui7_day_hour'!K14)-_fanchui7_day_hour!L14,"")</f>
+        <v/>
+      </c>
+      <c r="Z17" s="28" t="str">
+        <f>IF(_maxmin_day_hour!A14="","",_maxmin_day_hour!A14)</f>
+        <v/>
+      </c>
+      <c r="AA17" s="28" t="str">
+        <f>IF(_maxmin_day_hour!B14="","",_maxmin_day_hour!B14)</f>
+        <v/>
+      </c>
+      <c r="AB17" s="44"/>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A18" s="13">
+        <v>14</v>
+      </c>
+      <c r="B18" s="22" t="str">
+        <f>IF(COUNTA(_tag_day_hour!A15:'_tag_day_hour'!AB15)=0,"",COUNTIF(_tag_day_hour!A15:'_tag_day_hour'!AB15,"=0"))</f>
+        <v/>
+      </c>
+      <c r="C18" s="28" t="str">
+        <f>IF(_tag_day_hour!AC15="","",_tag_day_hour!AC15)</f>
+        <v/>
+      </c>
+      <c r="D18" s="28" t="str">
+        <f>IF(_tag_day_hour!AD15="","",_tag_day_hour!AD15)</f>
+        <v/>
+      </c>
+      <c r="E18" s="28" t="str">
+        <f>IF(_tag_day_hour!AE15="","",_tag_day_hour!AE15)</f>
+        <v/>
+      </c>
+      <c r="F18" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G18" s="28" t="str">
+        <f>IF(_tag_day_hour!AF15="","",_tag_day_hour!AF15)</f>
+        <v/>
+      </c>
+      <c r="H18" s="28" t="str">
+        <f>IF(_tag_day_hour!AG15="","",_tag_day_hour!AG15)</f>
+        <v/>
+      </c>
+      <c r="I18" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J18" s="28" t="str">
+        <f>IF(_tag_day_hour!AH15="","",_tag_day_hour!AH15)</f>
+        <v/>
+      </c>
+      <c r="K18" s="28" t="str">
+        <f>IF(_tag_day_hour!AI15="","",_tag_day_hour!AI15)</f>
+        <v/>
+      </c>
+      <c r="L18" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M18" s="28" t="str">
+        <f>IF(_tag_day_hour!AJ15="","",_tag_day_hour!AJ15)</f>
+        <v/>
+      </c>
+      <c r="N18" s="28" t="str">
+        <f>IF(_tag_day_hour!AK15="","",_tag_day_hour!AK15)</f>
+        <v/>
+      </c>
+      <c r="O18" s="28" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="P18" s="22" t="str">
+        <f>IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$AL$1:'_tag_day_hour'!$BM$1,MATCH(MAX(_tag_day_hour!AL39:'_tag_day_hour'!BM39),_tag_day_hour!AL39:'_tag_day_hour'!BM39,0)),LEN(INDEX(_tag_day_hour!$AL$1:'_tag_day_hour'!$BM$1,MATCH(MAX(_tag_day_hour!AL39:'_tag_day_hour'!BM39),_tag_day_hour!AL39:'_tag_day_hour'!BM39,0)))-13,4),"_",""),"")</f>
+        <v/>
+      </c>
+      <c r="Q18" s="28" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!AL39:'_tag_day_hour'!BM39)=28,"",MAX(_tag_day_hour!AL39:'_tag_day_hour'!BM39))</f>
+        <v/>
+      </c>
+      <c r="R18" s="22" t="str">
+        <f>IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$AL$1:'_tag_day_hour'!$BM$1,MATCH(MIN(_tag_day_hour!AL39:'_tag_day_hour'!BM39),_tag_day_hour!AL39:'_tag_day_hour'!BM39,0)),LEN(INDEX(_tag_day_hour!$AL$1:'_tag_day_hour'!$BM$1,MATCH(MIN(_tag_day_hour!AL39:'_tag_day_hour'!BM39),_tag_day_hour!AL39:'_tag_day_hour'!BM39,0)))-13,4),"_",""),"")</f>
+        <v/>
+      </c>
+      <c r="S18" s="28" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!AL39:'_tag_day_hour'!BM39)=28,"",MIN(_tag_day_hour!AL39:'_tag_day_hour'!BM39))</f>
+        <v/>
+      </c>
+      <c r="T18" s="34" t="str">
+        <f>IF(_tag_day_hour!BN15="","",_tag_day_hour!BN15)</f>
+        <v/>
+      </c>
+      <c r="U18" s="39" t="str">
+        <f>IF(_tag_day_hour!BO15="","",_tag_day_hour!BO15)</f>
+        <v/>
+      </c>
+      <c r="V18" s="39" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!BP39:'_tag_day_hour'!CQ39)=28,"",AVERAGE(_tag_day_hour!BP39:'_tag_day_hour'!CQ39))</f>
+        <v/>
+      </c>
+      <c r="W18" s="15" t="str">
+        <f>IF(_fanchui7_day_hour!B15="","",_fanchui7_day_hour!B15)</f>
+        <v/>
+      </c>
+      <c r="X18" s="39" t="str">
+        <f>IFERROR(AVERAGE(_fanchui7_day_hour!C15:'_fanchui7_day_hour'!F15)-_fanchui7_day_hour!G15,"")</f>
+        <v/>
+      </c>
+      <c r="Y18" s="39" t="str">
+        <f>IFERROR(AVERAGE(_fanchui7_day_hour!H15:'_fanchui7_day_hour'!K15)-_fanchui7_day_hour!L15,"")</f>
+        <v/>
+      </c>
+      <c r="Z18" s="28" t="str">
+        <f>IF(_maxmin_day_hour!A15="","",_maxmin_day_hour!A15)</f>
+        <v/>
+      </c>
+      <c r="AA18" s="28" t="str">
+        <f>IF(_maxmin_day_hour!B15="","",_maxmin_day_hour!B15)</f>
+        <v/>
+      </c>
+      <c r="AB18" s="44"/>
+    </row>
+    <row r="19" spans="1:28" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A19" s="11">
         <v>15</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="B19" s="22" t="str">
+        <f>IF(COUNTA(_tag_day_hour!A16:'_tag_day_hour'!AB16)=0,"",COUNTIF(_tag_day_hour!A16:'_tag_day_hour'!AB16,"=0"))</f>
+        <v/>
+      </c>
+      <c r="C19" s="28" t="str">
+        <f>IF(_tag_day_hour!AC16="","",_tag_day_hour!AC16)</f>
+        <v/>
+      </c>
+      <c r="D19" s="28" t="str">
+        <f>IF(_tag_day_hour!AD16="","",_tag_day_hour!AD16)</f>
+        <v/>
+      </c>
+      <c r="E19" s="28" t="str">
+        <f>IF(_tag_day_hour!AE16="","",_tag_day_hour!AE16)</f>
+        <v/>
+      </c>
+      <c r="F19" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G19" s="28" t="str">
+        <f>IF(_tag_day_hour!AF16="","",_tag_day_hour!AF16)</f>
+        <v/>
+      </c>
+      <c r="H19" s="28" t="str">
+        <f>IF(_tag_day_hour!AG16="","",_tag_day_hour!AG16)</f>
+        <v/>
+      </c>
+      <c r="I19" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J19" s="28" t="str">
+        <f>IF(_tag_day_hour!AH16="","",_tag_day_hour!AH16)</f>
+        <v/>
+      </c>
+      <c r="K19" s="28" t="str">
+        <f>IF(_tag_day_hour!AI16="","",_tag_day_hour!AI16)</f>
+        <v/>
+      </c>
+      <c r="L19" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M19" s="28" t="str">
+        <f>IF(_tag_day_hour!AJ16="","",_tag_day_hour!AJ16)</f>
+        <v/>
+      </c>
+      <c r="N19" s="28" t="str">
+        <f>IF(_tag_day_hour!AK16="","",_tag_day_hour!AK16)</f>
+        <v/>
+      </c>
+      <c r="O19" s="28" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="P19" s="22" t="str">
+        <f>IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$AL$1:'_tag_day_hour'!$BM$1,MATCH(MAX(_tag_day_hour!AL40:'_tag_day_hour'!BM40),_tag_day_hour!AL40:'_tag_day_hour'!BM40,0)),LEN(INDEX(_tag_day_hour!$AL$1:'_tag_day_hour'!$BM$1,MATCH(MAX(_tag_day_hour!AL40:'_tag_day_hour'!BM40),_tag_day_hour!AL40:'_tag_day_hour'!BM40,0)))-13,4),"_",""),"")</f>
+        <v/>
+      </c>
+      <c r="Q19" s="28" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!AL40:'_tag_day_hour'!BM40)=28,"",MAX(_tag_day_hour!AL40:'_tag_day_hour'!BM40))</f>
+        <v/>
+      </c>
+      <c r="R19" s="22" t="str">
+        <f>IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$AL$1:'_tag_day_hour'!$BM$1,MATCH(MIN(_tag_day_hour!AL40:'_tag_day_hour'!BM40),_tag_day_hour!AL40:'_tag_day_hour'!BM40,0)),LEN(INDEX(_tag_day_hour!$AL$1:'_tag_day_hour'!$BM$1,MATCH(MIN(_tag_day_hour!AL40:'_tag_day_hour'!BM40),_tag_day_hour!AL40:'_tag_day_hour'!BM40,0)))-13,4),"_",""),"")</f>
+        <v/>
+      </c>
+      <c r="S19" s="28" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!AL40:'_tag_day_hour'!BM40)=28,"",MIN(_tag_day_hour!AL40:'_tag_day_hour'!BM40))</f>
+        <v/>
+      </c>
+      <c r="T19" s="34" t="str">
+        <f>IF(_tag_day_hour!BN16="","",_tag_day_hour!BN16)</f>
+        <v/>
+      </c>
+      <c r="U19" s="39" t="str">
+        <f>IF(_tag_day_hour!BO16="","",_tag_day_hour!BO16)</f>
+        <v/>
+      </c>
+      <c r="V19" s="39" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!BP40:'_tag_day_hour'!CQ40)=28,"",AVERAGE(_tag_day_hour!BP40:'_tag_day_hour'!CQ40))</f>
+        <v/>
+      </c>
+      <c r="W19" s="15" t="str">
+        <f>IF(_fanchui7_day_hour!B16="","",_fanchui7_day_hour!B16)</f>
+        <v/>
+      </c>
+      <c r="X19" s="39" t="str">
+        <f>IFERROR(AVERAGE(_fanchui7_day_hour!C16:'_fanchui7_day_hour'!F16)-_fanchui7_day_hour!G16,"")</f>
+        <v/>
+      </c>
+      <c r="Y19" s="39" t="str">
+        <f>IFERROR(AVERAGE(_fanchui7_day_hour!H16:'_fanchui7_day_hour'!K16)-_fanchui7_day_hour!L16,"")</f>
+        <v/>
+      </c>
+      <c r="Z19" s="28" t="str">
+        <f>IF(_maxmin_day_hour!A16="","",_maxmin_day_hour!A16)</f>
+        <v/>
+      </c>
+      <c r="AA19" s="28" t="str">
+        <f>IF(_maxmin_day_hour!B16="","",_maxmin_day_hour!B16)</f>
+        <v/>
+      </c>
+      <c r="AB19" s="44"/>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A20" s="13">
         <v>16</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="B20" s="22" t="str">
+        <f>IF(COUNTA(_tag_day_hour!A17:'_tag_day_hour'!AB17)=0,"",COUNTIF(_tag_day_hour!A17:'_tag_day_hour'!AB17,"=0"))</f>
+        <v/>
+      </c>
+      <c r="C20" s="28" t="str">
+        <f>IF(_tag_day_hour!AC17="","",_tag_day_hour!AC17)</f>
+        <v/>
+      </c>
+      <c r="D20" s="28" t="str">
+        <f>IF(_tag_day_hour!AD17="","",_tag_day_hour!AD17)</f>
+        <v/>
+      </c>
+      <c r="E20" s="28" t="str">
+        <f>IF(_tag_day_hour!AE17="","",_tag_day_hour!AE17)</f>
+        <v/>
+      </c>
+      <c r="F20" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G20" s="28" t="str">
+        <f>IF(_tag_day_hour!AF17="","",_tag_day_hour!AF17)</f>
+        <v/>
+      </c>
+      <c r="H20" s="28" t="str">
+        <f>IF(_tag_day_hour!AG17="","",_tag_day_hour!AG17)</f>
+        <v/>
+      </c>
+      <c r="I20" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J20" s="28" t="str">
+        <f>IF(_tag_day_hour!AH17="","",_tag_day_hour!AH17)</f>
+        <v/>
+      </c>
+      <c r="K20" s="28" t="str">
+        <f>IF(_tag_day_hour!AI17="","",_tag_day_hour!AI17)</f>
+        <v/>
+      </c>
+      <c r="L20" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M20" s="28" t="str">
+        <f>IF(_tag_day_hour!AJ17="","",_tag_day_hour!AJ17)</f>
+        <v/>
+      </c>
+      <c r="N20" s="28" t="str">
+        <f>IF(_tag_day_hour!AK17="","",_tag_day_hour!AK17)</f>
+        <v/>
+      </c>
+      <c r="O20" s="28" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="P20" s="22" t="str">
+        <f>IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$AL$1:'_tag_day_hour'!$BM$1,MATCH(MAX(_tag_day_hour!AL41:'_tag_day_hour'!BM41),_tag_day_hour!AL41:'_tag_day_hour'!BM41,0)),LEN(INDEX(_tag_day_hour!$AL$1:'_tag_day_hour'!$BM$1,MATCH(MAX(_tag_day_hour!AL41:'_tag_day_hour'!BM41),_tag_day_hour!AL41:'_tag_day_hour'!BM41,0)))-13,4),"_",""),"")</f>
+        <v/>
+      </c>
+      <c r="Q20" s="28" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!AL41:'_tag_day_hour'!BM41)=28,"",MAX(_tag_day_hour!AL41:'_tag_day_hour'!BM41))</f>
+        <v/>
+      </c>
+      <c r="R20" s="22" t="str">
+        <f>IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$AL$1:'_tag_day_hour'!$BM$1,MATCH(MIN(_tag_day_hour!AL41:'_tag_day_hour'!BM41),_tag_day_hour!AL41:'_tag_day_hour'!BM41,0)),LEN(INDEX(_tag_day_hour!$AL$1:'_tag_day_hour'!$BM$1,MATCH(MIN(_tag_day_hour!AL41:'_tag_day_hour'!BM41),_tag_day_hour!AL41:'_tag_day_hour'!BM41,0)))-13,4),"_",""),"")</f>
+        <v/>
+      </c>
+      <c r="S20" s="28" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!AL41:'_tag_day_hour'!BM41)=28,"",MIN(_tag_day_hour!AL41:'_tag_day_hour'!BM41))</f>
+        <v/>
+      </c>
+      <c r="T20" s="34" t="str">
+        <f>IF(_tag_day_hour!BN17="","",_tag_day_hour!BN17)</f>
+        <v/>
+      </c>
+      <c r="U20" s="39" t="str">
+        <f>IF(_tag_day_hour!BO17="","",_tag_day_hour!BO17)</f>
+        <v/>
+      </c>
+      <c r="V20" s="39" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!BP41:'_tag_day_hour'!CQ41)=28,"",AVERAGE(_tag_day_hour!BP41:'_tag_day_hour'!CQ41))</f>
+        <v/>
+      </c>
+      <c r="W20" s="15" t="str">
+        <f>IF(_fanchui7_day_hour!B17="","",_fanchui7_day_hour!B17)</f>
+        <v/>
+      </c>
+      <c r="X20" s="39" t="str">
+        <f>IFERROR(AVERAGE(_fanchui7_day_hour!C17:'_fanchui7_day_hour'!F17)-_fanchui7_day_hour!G17,"")</f>
+        <v/>
+      </c>
+      <c r="Y20" s="39" t="str">
+        <f>IFERROR(AVERAGE(_fanchui7_day_hour!H17:'_fanchui7_day_hour'!K17)-_fanchui7_day_hour!L17,"")</f>
+        <v/>
+      </c>
+      <c r="Z20" s="28" t="str">
+        <f>IF(_maxmin_day_hour!A17="","",_maxmin_day_hour!A17)</f>
+        <v/>
+      </c>
+      <c r="AA20" s="28" t="str">
+        <f>IF(_maxmin_day_hour!B17="","",_maxmin_day_hour!B17)</f>
+        <v/>
+      </c>
+      <c r="AB20" s="44"/>
+    </row>
+    <row r="21" spans="1:28" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A21" s="11">
         <v>17</v>
       </c>
-      <c r="G4" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="21" t="s">
+      <c r="B21" s="22" t="str">
+        <f>IF(COUNTA(_tag_day_hour!A18:'_tag_day_hour'!AB18)=0,"",COUNTIF(_tag_day_hour!A18:'_tag_day_hour'!AB18,"=0"))</f>
+        <v/>
+      </c>
+      <c r="C21" s="28" t="str">
+        <f>IF(_tag_day_hour!AC18="","",_tag_day_hour!AC18)</f>
+        <v/>
+      </c>
+      <c r="D21" s="28" t="str">
+        <f>IF(_tag_day_hour!AD18="","",_tag_day_hour!AD18)</f>
+        <v/>
+      </c>
+      <c r="E21" s="28" t="str">
+        <f>IF(_tag_day_hour!AE18="","",_tag_day_hour!AE18)</f>
+        <v/>
+      </c>
+      <c r="F21" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G21" s="28" t="str">
+        <f>IF(_tag_day_hour!AF18="","",_tag_day_hour!AF18)</f>
+        <v/>
+      </c>
+      <c r="H21" s="28" t="str">
+        <f>IF(_tag_day_hour!AG18="","",_tag_day_hour!AG18)</f>
+        <v/>
+      </c>
+      <c r="I21" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J21" s="28" t="str">
+        <f>IF(_tag_day_hour!AH18="","",_tag_day_hour!AH18)</f>
+        <v/>
+      </c>
+      <c r="K21" s="28" t="str">
+        <f>IF(_tag_day_hour!AI18="","",_tag_day_hour!AI18)</f>
+        <v/>
+      </c>
+      <c r="L21" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M21" s="28" t="str">
+        <f>IF(_tag_day_hour!AJ18="","",_tag_day_hour!AJ18)</f>
+        <v/>
+      </c>
+      <c r="N21" s="28" t="str">
+        <f>IF(_tag_day_hour!AK18="","",_tag_day_hour!AK18)</f>
+        <v/>
+      </c>
+      <c r="O21" s="28" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="P21" s="22" t="str">
+        <f>IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$AL$1:'_tag_day_hour'!$BM$1,MATCH(MAX(_tag_day_hour!AL42:'_tag_day_hour'!BM42),_tag_day_hour!AL42:'_tag_day_hour'!BM42,0)),LEN(INDEX(_tag_day_hour!$AL$1:'_tag_day_hour'!$BM$1,MATCH(MAX(_tag_day_hour!AL42:'_tag_day_hour'!BM42),_tag_day_hour!AL42:'_tag_day_hour'!BM42,0)))-13,4),"_",""),"")</f>
+        <v/>
+      </c>
+      <c r="Q21" s="28" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!AL42:'_tag_day_hour'!BM42)=28,"",MAX(_tag_day_hour!AL42:'_tag_day_hour'!BM42))</f>
+        <v/>
+      </c>
+      <c r="R21" s="22" t="str">
+        <f>IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$AL$1:'_tag_day_hour'!$BM$1,MATCH(MIN(_tag_day_hour!AL42:'_tag_day_hour'!BM42),_tag_day_hour!AL42:'_tag_day_hour'!BM42,0)),LEN(INDEX(_tag_day_hour!$AL$1:'_tag_day_hour'!$BM$1,MATCH(MIN(_tag_day_hour!AL42:'_tag_day_hour'!BM42),_tag_day_hour!AL42:'_tag_day_hour'!BM42,0)))-13,4),"_",""),"")</f>
+        <v/>
+      </c>
+      <c r="S21" s="28" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!AL42:'_tag_day_hour'!BM42)=28,"",MIN(_tag_day_hour!AL42:'_tag_day_hour'!BM42))</f>
+        <v/>
+      </c>
+      <c r="T21" s="34" t="str">
+        <f>IF(_tag_day_hour!BN18="","",_tag_day_hour!BN18)</f>
+        <v/>
+      </c>
+      <c r="U21" s="39" t="str">
+        <f>IF(_tag_day_hour!BO18="","",_tag_day_hour!BO18)</f>
+        <v/>
+      </c>
+      <c r="V21" s="39" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!BP42:'_tag_day_hour'!CQ42)=28,"",AVERAGE(_tag_day_hour!BP42:'_tag_day_hour'!CQ42))</f>
+        <v/>
+      </c>
+      <c r="W21" s="15" t="str">
+        <f>IF(_fanchui7_day_hour!B18="","",_fanchui7_day_hour!B18)</f>
+        <v/>
+      </c>
+      <c r="X21" s="39" t="str">
+        <f>IFERROR(AVERAGE(_fanchui7_day_hour!C18:'_fanchui7_day_hour'!F18)-_fanchui7_day_hour!G18,"")</f>
+        <v/>
+      </c>
+      <c r="Y21" s="39" t="str">
+        <f>IFERROR(AVERAGE(_fanchui7_day_hour!H18:'_fanchui7_day_hour'!K18)-_fanchui7_day_hour!L18,"")</f>
+        <v/>
+      </c>
+      <c r="Z21" s="28" t="str">
+        <f>IF(_maxmin_day_hour!A18="","",_maxmin_day_hour!A18)</f>
+        <v/>
+      </c>
+      <c r="AA21" s="28" t="str">
+        <f>IF(_maxmin_day_hour!B18="","",_maxmin_day_hour!B18)</f>
+        <v/>
+      </c>
+      <c r="AB21" s="43" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A22" s="13">
         <v>18</v>
       </c>
-      <c r="I4" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="M4" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="N4" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="O4" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="P4" s="21" t="s">
+      <c r="B22" s="22" t="str">
+        <f>IF(COUNTA(_tag_day_hour!A19:'_tag_day_hour'!AB19)=0,"",COUNTIF(_tag_day_hour!A19:'_tag_day_hour'!AB19,"=0"))</f>
+        <v/>
+      </c>
+      <c r="C22" s="28" t="str">
+        <f>IF(_tag_day_hour!AC19="","",_tag_day_hour!AC19)</f>
+        <v/>
+      </c>
+      <c r="D22" s="28" t="str">
+        <f>IF(_tag_day_hour!AD19="","",_tag_day_hour!AD19)</f>
+        <v/>
+      </c>
+      <c r="E22" s="28" t="str">
+        <f>IF(_tag_day_hour!AE19="","",_tag_day_hour!AE19)</f>
+        <v/>
+      </c>
+      <c r="F22" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G22" s="28" t="str">
+        <f>IF(_tag_day_hour!AF19="","",_tag_day_hour!AF19)</f>
+        <v/>
+      </c>
+      <c r="H22" s="28" t="str">
+        <f>IF(_tag_day_hour!AG19="","",_tag_day_hour!AG19)</f>
+        <v/>
+      </c>
+      <c r="I22" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J22" s="28" t="str">
+        <f>IF(_tag_day_hour!AH19="","",_tag_day_hour!AH19)</f>
+        <v/>
+      </c>
+      <c r="K22" s="28" t="str">
+        <f>IF(_tag_day_hour!AI19="","",_tag_day_hour!AI19)</f>
+        <v/>
+      </c>
+      <c r="L22" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M22" s="28" t="str">
+        <f>IF(_tag_day_hour!AJ19="","",_tag_day_hour!AJ19)</f>
+        <v/>
+      </c>
+      <c r="N22" s="28" t="str">
+        <f>IF(_tag_day_hour!AK19="","",_tag_day_hour!AK19)</f>
+        <v/>
+      </c>
+      <c r="O22" s="28" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="P22" s="22" t="str">
+        <f>IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$AL$1:'_tag_day_hour'!$BM$1,MATCH(MAX(_tag_day_hour!AL43:'_tag_day_hour'!BM43),_tag_day_hour!AL43:'_tag_day_hour'!BM43,0)),LEN(INDEX(_tag_day_hour!$AL$1:'_tag_day_hour'!$BM$1,MATCH(MAX(_tag_day_hour!AL43:'_tag_day_hour'!BM43),_tag_day_hour!AL43:'_tag_day_hour'!BM43,0)))-13,4),"_",""),"")</f>
+        <v/>
+      </c>
+      <c r="Q22" s="28" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!AL43:'_tag_day_hour'!BM43)=28,"",MAX(_tag_day_hour!AL43:'_tag_day_hour'!BM43))</f>
+        <v/>
+      </c>
+      <c r="R22" s="22" t="str">
+        <f>IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$AL$1:'_tag_day_hour'!$BM$1,MATCH(MIN(_tag_day_hour!AL43:'_tag_day_hour'!BM43),_tag_day_hour!AL43:'_tag_day_hour'!BM43,0)),LEN(INDEX(_tag_day_hour!$AL$1:'_tag_day_hour'!$BM$1,MATCH(MIN(_tag_day_hour!AL43:'_tag_day_hour'!BM43),_tag_day_hour!AL43:'_tag_day_hour'!BM43,0)))-13,4),"_",""),"")</f>
+        <v/>
+      </c>
+      <c r="S22" s="28" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!AL43:'_tag_day_hour'!BM43)=28,"",MIN(_tag_day_hour!AL43:'_tag_day_hour'!BM43))</f>
+        <v/>
+      </c>
+      <c r="T22" s="34" t="str">
+        <f>IF(_tag_day_hour!BN19="","",_tag_day_hour!BN19)</f>
+        <v/>
+      </c>
+      <c r="U22" s="39" t="str">
+        <f>IF(_tag_day_hour!BO19="","",_tag_day_hour!BO19)</f>
+        <v/>
+      </c>
+      <c r="V22" s="39" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!BP43:'_tag_day_hour'!CQ43)=28,"",AVERAGE(_tag_day_hour!BP43:'_tag_day_hour'!CQ43))</f>
+        <v/>
+      </c>
+      <c r="W22" s="15" t="str">
+        <f>IF(_fanchui7_day_hour!B19="","",_fanchui7_day_hour!B19)</f>
+        <v/>
+      </c>
+      <c r="X22" s="39" t="str">
+        <f>IFERROR(AVERAGE(_fanchui7_day_hour!C19:'_fanchui7_day_hour'!F19)-_fanchui7_day_hour!G19,"")</f>
+        <v/>
+      </c>
+      <c r="Y22" s="39" t="str">
+        <f>IFERROR(AVERAGE(_fanchui7_day_hour!H19:'_fanchui7_day_hour'!K19)-_fanchui7_day_hour!L19,"")</f>
+        <v/>
+      </c>
+      <c r="Z22" s="28" t="str">
+        <f>IF(_maxmin_day_hour!A19="","",_maxmin_day_hour!A19)</f>
+        <v/>
+      </c>
+      <c r="AA22" s="28" t="str">
+        <f>IF(_maxmin_day_hour!B19="","",_maxmin_day_hour!B19)</f>
+        <v/>
+      </c>
+      <c r="AB22" s="44"/>
+    </row>
+    <row r="23" spans="1:28" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A23" s="11">
         <v>19</v>
       </c>
-      <c r="Q4" s="21" t="s">
+      <c r="B23" s="22" t="str">
+        <f>IF(COUNTA(_tag_day_hour!A20:'_tag_day_hour'!AB20)=0,"",COUNTIF(_tag_day_hour!A20:'_tag_day_hour'!AB20,"=0"))</f>
+        <v/>
+      </c>
+      <c r="C23" s="28" t="str">
+        <f>IF(_tag_day_hour!AC20="","",_tag_day_hour!AC20)</f>
+        <v/>
+      </c>
+      <c r="D23" s="28" t="str">
+        <f>IF(_tag_day_hour!AD20="","",_tag_day_hour!AD20)</f>
+        <v/>
+      </c>
+      <c r="E23" s="28" t="str">
+        <f>IF(_tag_day_hour!AE20="","",_tag_day_hour!AE20)</f>
+        <v/>
+      </c>
+      <c r="F23" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G23" s="28" t="str">
+        <f>IF(_tag_day_hour!AF20="","",_tag_day_hour!AF20)</f>
+        <v/>
+      </c>
+      <c r="H23" s="28" t="str">
+        <f>IF(_tag_day_hour!AG20="","",_tag_day_hour!AG20)</f>
+        <v/>
+      </c>
+      <c r="I23" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J23" s="28" t="str">
+        <f>IF(_tag_day_hour!AH20="","",_tag_day_hour!AH20)</f>
+        <v/>
+      </c>
+      <c r="K23" s="28" t="str">
+        <f>IF(_tag_day_hour!AI20="","",_tag_day_hour!AI20)</f>
+        <v/>
+      </c>
+      <c r="L23" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M23" s="28" t="str">
+        <f>IF(_tag_day_hour!AJ20="","",_tag_day_hour!AJ20)</f>
+        <v/>
+      </c>
+      <c r="N23" s="28" t="str">
+        <f>IF(_tag_day_hour!AK20="","",_tag_day_hour!AK20)</f>
+        <v/>
+      </c>
+      <c r="O23" s="28" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="P23" s="22" t="str">
+        <f>IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$AL$1:'_tag_day_hour'!$BM$1,MATCH(MAX(_tag_day_hour!AL44:'_tag_day_hour'!BM44),_tag_day_hour!AL44:'_tag_day_hour'!BM44,0)),LEN(INDEX(_tag_day_hour!$AL$1:'_tag_day_hour'!$BM$1,MATCH(MAX(_tag_day_hour!AL44:'_tag_day_hour'!BM44),_tag_day_hour!AL44:'_tag_day_hour'!BM44,0)))-13,4),"_",""),"")</f>
+        <v/>
+      </c>
+      <c r="Q23" s="28" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!AL44:'_tag_day_hour'!BM44)=28,"",MAX(_tag_day_hour!AL44:'_tag_day_hour'!BM44))</f>
+        <v/>
+      </c>
+      <c r="R23" s="22" t="str">
+        <f>IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$AL$1:'_tag_day_hour'!$BM$1,MATCH(MIN(_tag_day_hour!AL44:'_tag_day_hour'!BM44),_tag_day_hour!AL44:'_tag_day_hour'!BM44,0)),LEN(INDEX(_tag_day_hour!$AL$1:'_tag_day_hour'!$BM$1,MATCH(MIN(_tag_day_hour!AL44:'_tag_day_hour'!BM44),_tag_day_hour!AL44:'_tag_day_hour'!BM44,0)))-13,4),"_",""),"")</f>
+        <v/>
+      </c>
+      <c r="S23" s="28" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!AL44:'_tag_day_hour'!BM44)=28,"",MIN(_tag_day_hour!AL44:'_tag_day_hour'!BM44))</f>
+        <v/>
+      </c>
+      <c r="T23" s="34" t="str">
+        <f>IF(_tag_day_hour!BN20="","",_tag_day_hour!BN20)</f>
+        <v/>
+      </c>
+      <c r="U23" s="39" t="str">
+        <f>IF(_tag_day_hour!BO20="","",_tag_day_hour!BO20)</f>
+        <v/>
+      </c>
+      <c r="V23" s="39" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!BP44:'_tag_day_hour'!CQ44)=28,"",AVERAGE(_tag_day_hour!BP44:'_tag_day_hour'!CQ44))</f>
+        <v/>
+      </c>
+      <c r="W23" s="15" t="str">
+        <f>IF(_fanchui7_day_hour!B20="","",_fanchui7_day_hour!B20)</f>
+        <v/>
+      </c>
+      <c r="X23" s="39" t="str">
+        <f>IFERROR(AVERAGE(_fanchui7_day_hour!C20:'_fanchui7_day_hour'!F20)-_fanchui7_day_hour!G20,"")</f>
+        <v/>
+      </c>
+      <c r="Y23" s="39" t="str">
+        <f>IFERROR(AVERAGE(_fanchui7_day_hour!H20:'_fanchui7_day_hour'!K20)-_fanchui7_day_hour!L20,"")</f>
+        <v/>
+      </c>
+      <c r="Z23" s="28" t="str">
+        <f>IF(_maxmin_day_hour!A20="","",_maxmin_day_hour!A20)</f>
+        <v/>
+      </c>
+      <c r="AA23" s="28" t="str">
+        <f>IF(_maxmin_day_hour!B20="","",_maxmin_day_hour!B20)</f>
+        <v/>
+      </c>
+      <c r="AB23" s="44"/>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A24" s="13">
         <v>20</v>
       </c>
-      <c r="R4" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="S4" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="T4" s="21" t="s">
+      <c r="B24" s="22" t="str">
+        <f>IF(COUNTA(_tag_day_hour!A21:'_tag_day_hour'!AB21)=0,"",COUNTIF(_tag_day_hour!A21:'_tag_day_hour'!AB21,"=0"))</f>
+        <v/>
+      </c>
+      <c r="C24" s="28" t="str">
+        <f>IF(_tag_day_hour!AC21="","",_tag_day_hour!AC21)</f>
+        <v/>
+      </c>
+      <c r="D24" s="28" t="str">
+        <f>IF(_tag_day_hour!AD21="","",_tag_day_hour!AD21)</f>
+        <v/>
+      </c>
+      <c r="E24" s="28" t="str">
+        <f>IF(_tag_day_hour!AE21="","",_tag_day_hour!AE21)</f>
+        <v/>
+      </c>
+      <c r="F24" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G24" s="28" t="str">
+        <f>IF(_tag_day_hour!AF21="","",_tag_day_hour!AF21)</f>
+        <v/>
+      </c>
+      <c r="H24" s="28" t="str">
+        <f>IF(_tag_day_hour!AG21="","",_tag_day_hour!AG21)</f>
+        <v/>
+      </c>
+      <c r="I24" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J24" s="28" t="str">
+        <f>IF(_tag_day_hour!AH21="","",_tag_day_hour!AH21)</f>
+        <v/>
+      </c>
+      <c r="K24" s="28" t="str">
+        <f>IF(_tag_day_hour!AI21="","",_tag_day_hour!AI21)</f>
+        <v/>
+      </c>
+      <c r="L24" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M24" s="28" t="str">
+        <f>IF(_tag_day_hour!AJ21="","",_tag_day_hour!AJ21)</f>
+        <v/>
+      </c>
+      <c r="N24" s="28" t="str">
+        <f>IF(_tag_day_hour!AK21="","",_tag_day_hour!AK21)</f>
+        <v/>
+      </c>
+      <c r="O24" s="28" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="P24" s="22" t="str">
+        <f>IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$AL$1:'_tag_day_hour'!$BM$1,MATCH(MAX(_tag_day_hour!AL45:'_tag_day_hour'!BM45),_tag_day_hour!AL45:'_tag_day_hour'!BM45,0)),LEN(INDEX(_tag_day_hour!$AL$1:'_tag_day_hour'!$BM$1,MATCH(MAX(_tag_day_hour!AL45:'_tag_day_hour'!BM45),_tag_day_hour!AL45:'_tag_day_hour'!BM45,0)))-13,4),"_",""),"")</f>
+        <v/>
+      </c>
+      <c r="Q24" s="28" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!AL45:'_tag_day_hour'!BM45)=28,"",MAX(_tag_day_hour!AL45:'_tag_day_hour'!BM45))</f>
+        <v/>
+      </c>
+      <c r="R24" s="22" t="str">
+        <f>IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$AL$1:'_tag_day_hour'!$BM$1,MATCH(MIN(_tag_day_hour!AL45:'_tag_day_hour'!BM45),_tag_day_hour!AL45:'_tag_day_hour'!BM45,0)),LEN(INDEX(_tag_day_hour!$AL$1:'_tag_day_hour'!$BM$1,MATCH(MIN(_tag_day_hour!AL45:'_tag_day_hour'!BM45),_tag_day_hour!AL45:'_tag_day_hour'!BM45,0)))-13,4),"_",""),"")</f>
+        <v/>
+      </c>
+      <c r="S24" s="28" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!AL45:'_tag_day_hour'!BM45)=28,"",MIN(_tag_day_hour!AL45:'_tag_day_hour'!BM45))</f>
+        <v/>
+      </c>
+      <c r="T24" s="34" t="str">
+        <f>IF(_tag_day_hour!BN21="","",_tag_day_hour!BN21)</f>
+        <v/>
+      </c>
+      <c r="U24" s="39" t="str">
+        <f>IF(_tag_day_hour!BO21="","",_tag_day_hour!BO21)</f>
+        <v/>
+      </c>
+      <c r="V24" s="39" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!BP45:'_tag_day_hour'!CQ45)=28,"",AVERAGE(_tag_day_hour!BP45:'_tag_day_hour'!CQ45))</f>
+        <v/>
+      </c>
+      <c r="W24" s="15" t="str">
+        <f>IF(_fanchui7_day_hour!B21="","",_fanchui7_day_hour!B21)</f>
+        <v/>
+      </c>
+      <c r="X24" s="39" t="str">
+        <f>IFERROR(AVERAGE(_fanchui7_day_hour!C21:'_fanchui7_day_hour'!F21)-_fanchui7_day_hour!G21,"")</f>
+        <v/>
+      </c>
+      <c r="Y24" s="39" t="str">
+        <f>IFERROR(AVERAGE(_fanchui7_day_hour!H21:'_fanchui7_day_hour'!K21)-_fanchui7_day_hour!L21,"")</f>
+        <v/>
+      </c>
+      <c r="Z24" s="28" t="str">
+        <f>IF(_maxmin_day_hour!A21="","",_maxmin_day_hour!A21)</f>
+        <v/>
+      </c>
+      <c r="AA24" s="28" t="str">
+        <f>IF(_maxmin_day_hour!B21="","",_maxmin_day_hour!B21)</f>
+        <v/>
+      </c>
+      <c r="AB24" s="44"/>
+    </row>
+    <row r="25" spans="1:28" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A25" s="11">
         <v>21</v>
       </c>
-      <c r="U4" s="21" t="s">
+      <c r="B25" s="22" t="str">
+        <f>IF(COUNTA(_tag_day_hour!A22:'_tag_day_hour'!AB22)=0,"",COUNTIF(_tag_day_hour!A22:'_tag_day_hour'!AB22,"=0"))</f>
+        <v/>
+      </c>
+      <c r="C25" s="28" t="str">
+        <f>IF(_tag_day_hour!AC22="","",_tag_day_hour!AC22)</f>
+        <v/>
+      </c>
+      <c r="D25" s="28" t="str">
+        <f>IF(_tag_day_hour!AD22="","",_tag_day_hour!AD22)</f>
+        <v/>
+      </c>
+      <c r="E25" s="28" t="str">
+        <f>IF(_tag_day_hour!AE22="","",_tag_day_hour!AE22)</f>
+        <v/>
+      </c>
+      <c r="F25" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G25" s="28" t="str">
+        <f>IF(_tag_day_hour!AF22="","",_tag_day_hour!AF22)</f>
+        <v/>
+      </c>
+      <c r="H25" s="28" t="str">
+        <f>IF(_tag_day_hour!AG22="","",_tag_day_hour!AG22)</f>
+        <v/>
+      </c>
+      <c r="I25" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J25" s="28" t="str">
+        <f>IF(_tag_day_hour!AH22="","",_tag_day_hour!AH22)</f>
+        <v/>
+      </c>
+      <c r="K25" s="28" t="str">
+        <f>IF(_tag_day_hour!AI22="","",_tag_day_hour!AI22)</f>
+        <v/>
+      </c>
+      <c r="L25" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M25" s="28" t="str">
+        <f>IF(_tag_day_hour!AJ22="","",_tag_day_hour!AJ22)</f>
+        <v/>
+      </c>
+      <c r="N25" s="28" t="str">
+        <f>IF(_tag_day_hour!AK22="","",_tag_day_hour!AK22)</f>
+        <v/>
+      </c>
+      <c r="O25" s="28" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="P25" s="22" t="str">
+        <f>IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$AL$1:'_tag_day_hour'!$BM$1,MATCH(MAX(_tag_day_hour!AL46:'_tag_day_hour'!BM46),_tag_day_hour!AL46:'_tag_day_hour'!BM46,0)),LEN(INDEX(_tag_day_hour!$AL$1:'_tag_day_hour'!$BM$1,MATCH(MAX(_tag_day_hour!AL46:'_tag_day_hour'!BM46),_tag_day_hour!AL46:'_tag_day_hour'!BM46,0)))-13,4),"_",""),"")</f>
+        <v/>
+      </c>
+      <c r="Q25" s="28" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!AL46:'_tag_day_hour'!BM46)=28,"",MAX(_tag_day_hour!AL46:'_tag_day_hour'!BM46))</f>
+        <v/>
+      </c>
+      <c r="R25" s="22" t="str">
+        <f>IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$AL$1:'_tag_day_hour'!$BM$1,MATCH(MIN(_tag_day_hour!AL46:'_tag_day_hour'!BM46),_tag_day_hour!AL46:'_tag_day_hour'!BM46,0)),LEN(INDEX(_tag_day_hour!$AL$1:'_tag_day_hour'!$BM$1,MATCH(MIN(_tag_day_hour!AL46:'_tag_day_hour'!BM46),_tag_day_hour!AL46:'_tag_day_hour'!BM46,0)))-13,4),"_",""),"")</f>
+        <v/>
+      </c>
+      <c r="S25" s="28" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!AL46:'_tag_day_hour'!BM46)=28,"",MIN(_tag_day_hour!AL46:'_tag_day_hour'!BM46))</f>
+        <v/>
+      </c>
+      <c r="T25" s="34" t="str">
+        <f>IF(_tag_day_hour!BN22="","",_tag_day_hour!BN22)</f>
+        <v/>
+      </c>
+      <c r="U25" s="39" t="str">
+        <f>IF(_tag_day_hour!BO22="","",_tag_day_hour!BO22)</f>
+        <v/>
+      </c>
+      <c r="V25" s="39" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!BP46:'_tag_day_hour'!CQ46)=28,"",AVERAGE(_tag_day_hour!BP46:'_tag_day_hour'!CQ46))</f>
+        <v/>
+      </c>
+      <c r="W25" s="15" t="str">
+        <f>IF(_fanchui7_day_hour!B22="","",_fanchui7_day_hour!B22)</f>
+        <v/>
+      </c>
+      <c r="X25" s="39" t="str">
+        <f>IFERROR(AVERAGE(_fanchui7_day_hour!C22:'_fanchui7_day_hour'!F22)-_fanchui7_day_hour!G22,"")</f>
+        <v/>
+      </c>
+      <c r="Y25" s="39" t="str">
+        <f>IFERROR(AVERAGE(_fanchui7_day_hour!H22:'_fanchui7_day_hour'!K22)-_fanchui7_day_hour!L22,"")</f>
+        <v/>
+      </c>
+      <c r="Z25" s="28" t="str">
+        <f>IF(_maxmin_day_hour!A22="","",_maxmin_day_hour!A22)</f>
+        <v/>
+      </c>
+      <c r="AA25" s="28" t="str">
+        <f>IF(_maxmin_day_hour!B22="","",_maxmin_day_hour!B22)</f>
+        <v/>
+      </c>
+      <c r="AB25" s="44"/>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A26" s="13">
         <v>22</v>
       </c>
-      <c r="V4" s="21" t="s">
+      <c r="B26" s="22" t="str">
+        <f>IF(COUNTA(_tag_day_hour!A23:'_tag_day_hour'!AB23)=0,"",COUNTIF(_tag_day_hour!A23:'_tag_day_hour'!AB23,"=0"))</f>
+        <v/>
+      </c>
+      <c r="C26" s="28" t="str">
+        <f>IF(_tag_day_hour!AC23="","",_tag_day_hour!AC23)</f>
+        <v/>
+      </c>
+      <c r="D26" s="28" t="str">
+        <f>IF(_tag_day_hour!AD23="","",_tag_day_hour!AD23)</f>
+        <v/>
+      </c>
+      <c r="E26" s="28" t="str">
+        <f>IF(_tag_day_hour!AE23="","",_tag_day_hour!AE23)</f>
+        <v/>
+      </c>
+      <c r="F26" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G26" s="28" t="str">
+        <f>IF(_tag_day_hour!AF23="","",_tag_day_hour!AF23)</f>
+        <v/>
+      </c>
+      <c r="H26" s="28" t="str">
+        <f>IF(_tag_day_hour!AG23="","",_tag_day_hour!AG23)</f>
+        <v/>
+      </c>
+      <c r="I26" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J26" s="28" t="str">
+        <f>IF(_tag_day_hour!AH23="","",_tag_day_hour!AH23)</f>
+        <v/>
+      </c>
+      <c r="K26" s="28" t="str">
+        <f>IF(_tag_day_hour!AI23="","",_tag_day_hour!AI23)</f>
+        <v/>
+      </c>
+      <c r="L26" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M26" s="28" t="str">
+        <f>IF(_tag_day_hour!AJ23="","",_tag_day_hour!AJ23)</f>
+        <v/>
+      </c>
+      <c r="N26" s="28" t="str">
+        <f>IF(_tag_day_hour!AK23="","",_tag_day_hour!AK23)</f>
+        <v/>
+      </c>
+      <c r="O26" s="28" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="P26" s="22" t="str">
+        <f>IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$AL$1:'_tag_day_hour'!$BM$1,MATCH(MAX(_tag_day_hour!AL47:'_tag_day_hour'!BM47),_tag_day_hour!AL47:'_tag_day_hour'!BM47,0)),LEN(INDEX(_tag_day_hour!$AL$1:'_tag_day_hour'!$BM$1,MATCH(MAX(_tag_day_hour!AL47:'_tag_day_hour'!BM47),_tag_day_hour!AL47:'_tag_day_hour'!BM47,0)))-13,4),"_",""),"")</f>
+        <v/>
+      </c>
+      <c r="Q26" s="28" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!AL47:'_tag_day_hour'!BM47)=28,"",MAX(_tag_day_hour!AL47:'_tag_day_hour'!BM47))</f>
+        <v/>
+      </c>
+      <c r="R26" s="22" t="str">
+        <f>IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$AL$1:'_tag_day_hour'!$BM$1,MATCH(MIN(_tag_day_hour!AL47:'_tag_day_hour'!BM47),_tag_day_hour!AL47:'_tag_day_hour'!BM47,0)),LEN(INDEX(_tag_day_hour!$AL$1:'_tag_day_hour'!$BM$1,MATCH(MIN(_tag_day_hour!AL47:'_tag_day_hour'!BM47),_tag_day_hour!AL47:'_tag_day_hour'!BM47,0)))-13,4),"_",""),"")</f>
+        <v/>
+      </c>
+      <c r="S26" s="28" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!AL47:'_tag_day_hour'!BM47)=28,"",MIN(_tag_day_hour!AL47:'_tag_day_hour'!BM47))</f>
+        <v/>
+      </c>
+      <c r="T26" s="34" t="str">
+        <f>IF(_tag_day_hour!BN23="","",_tag_day_hour!BN23)</f>
+        <v/>
+      </c>
+      <c r="U26" s="39" t="str">
+        <f>IF(_tag_day_hour!BO23="","",_tag_day_hour!BO23)</f>
+        <v/>
+      </c>
+      <c r="V26" s="39" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!BP47:'_tag_day_hour'!CQ47)=28,"",AVERAGE(_tag_day_hour!BP47:'_tag_day_hour'!CQ47))</f>
+        <v/>
+      </c>
+      <c r="W26" s="15" t="str">
+        <f>IF(_fanchui7_day_hour!B23="","",_fanchui7_day_hour!B23)</f>
+        <v/>
+      </c>
+      <c r="X26" s="39" t="str">
+        <f>IFERROR(AVERAGE(_fanchui7_day_hour!C23:'_fanchui7_day_hour'!F23)-_fanchui7_day_hour!G23,"")</f>
+        <v/>
+      </c>
+      <c r="Y26" s="39" t="str">
+        <f>IFERROR(AVERAGE(_fanchui7_day_hour!H23:'_fanchui7_day_hour'!K23)-_fanchui7_day_hour!L23,"")</f>
+        <v/>
+      </c>
+      <c r="Z26" s="28" t="str">
+        <f>IF(_maxmin_day_hour!A23="","",_maxmin_day_hour!A23)</f>
+        <v/>
+      </c>
+      <c r="AA26" s="28" t="str">
+        <f>IF(_maxmin_day_hour!B23="","",_maxmin_day_hour!B23)</f>
+        <v/>
+      </c>
+      <c r="AB26" s="44"/>
+    </row>
+    <row r="27" spans="1:28" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A27" s="11">
         <v>23</v>
       </c>
-      <c r="W4" s="21" t="s">
+      <c r="B27" s="22" t="str">
+        <f>IF(COUNTA(_tag_day_hour!A24:'_tag_day_hour'!AB24)=0,"",COUNTIF(_tag_day_hour!A24:'_tag_day_hour'!AB24,"=0"))</f>
+        <v/>
+      </c>
+      <c r="C27" s="28" t="str">
+        <f>IF(_tag_day_hour!AC24="","",_tag_day_hour!AC24)</f>
+        <v/>
+      </c>
+      <c r="D27" s="28" t="str">
+        <f>IF(_tag_day_hour!AD24="","",_tag_day_hour!AD24)</f>
+        <v/>
+      </c>
+      <c r="E27" s="28" t="str">
+        <f>IF(_tag_day_hour!AE24="","",_tag_day_hour!AE24)</f>
+        <v/>
+      </c>
+      <c r="F27" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G27" s="28" t="str">
+        <f>IF(_tag_day_hour!AF24="","",_tag_day_hour!AF24)</f>
+        <v/>
+      </c>
+      <c r="H27" s="28" t="str">
+        <f>IF(_tag_day_hour!AG24="","",_tag_day_hour!AG24)</f>
+        <v/>
+      </c>
+      <c r="I27" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J27" s="28" t="str">
+        <f>IF(_tag_day_hour!AH24="","",_tag_day_hour!AH24)</f>
+        <v/>
+      </c>
+      <c r="K27" s="28" t="str">
+        <f>IF(_tag_day_hour!AI24="","",_tag_day_hour!AI24)</f>
+        <v/>
+      </c>
+      <c r="L27" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M27" s="28" t="str">
+        <f>IF(_tag_day_hour!AJ24="","",_tag_day_hour!AJ24)</f>
+        <v/>
+      </c>
+      <c r="N27" s="28" t="str">
+        <f>IF(_tag_day_hour!AK24="","",_tag_day_hour!AK24)</f>
+        <v/>
+      </c>
+      <c r="O27" s="28" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="P27" s="22" t="str">
+        <f>IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$AL$1:'_tag_day_hour'!$BM$1,MATCH(MAX(_tag_day_hour!AL48:'_tag_day_hour'!BM48),_tag_day_hour!AL48:'_tag_day_hour'!BM48,0)),LEN(INDEX(_tag_day_hour!$AL$1:'_tag_day_hour'!$BM$1,MATCH(MAX(_tag_day_hour!AL48:'_tag_day_hour'!BM48),_tag_day_hour!AL48:'_tag_day_hour'!BM48,0)))-13,4),"_",""),"")</f>
+        <v/>
+      </c>
+      <c r="Q27" s="28" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!AL48:'_tag_day_hour'!BM48)=28,"",MAX(_tag_day_hour!AL48:'_tag_day_hour'!BM48))</f>
+        <v/>
+      </c>
+      <c r="R27" s="22" t="str">
+        <f>IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$AL$1:'_tag_day_hour'!$BM$1,MATCH(MIN(_tag_day_hour!AL48:'_tag_day_hour'!BM48),_tag_day_hour!AL48:'_tag_day_hour'!BM48,0)),LEN(INDEX(_tag_day_hour!$AL$1:'_tag_day_hour'!$BM$1,MATCH(MIN(_tag_day_hour!AL48:'_tag_day_hour'!BM48),_tag_day_hour!AL48:'_tag_day_hour'!BM48,0)))-13,4),"_",""),"")</f>
+        <v/>
+      </c>
+      <c r="S27" s="28" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!AL48:'_tag_day_hour'!BM48)=28,"",MIN(_tag_day_hour!AL48:'_tag_day_hour'!BM48))</f>
+        <v/>
+      </c>
+      <c r="T27" s="34" t="str">
+        <f>IF(_tag_day_hour!BN24="","",_tag_day_hour!BN24)</f>
+        <v/>
+      </c>
+      <c r="U27" s="39" t="str">
+        <f>IF(_tag_day_hour!BO24="","",_tag_day_hour!BO24)</f>
+        <v/>
+      </c>
+      <c r="V27" s="39" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!BP48:'_tag_day_hour'!CQ48)=28,"",AVERAGE(_tag_day_hour!BP48:'_tag_day_hour'!CQ48))</f>
+        <v/>
+      </c>
+      <c r="W27" s="15" t="str">
+        <f>IF(_fanchui7_day_hour!B24="","",_fanchui7_day_hour!B24)</f>
+        <v/>
+      </c>
+      <c r="X27" s="39" t="str">
+        <f>IFERROR(AVERAGE(_fanchui7_day_hour!C24:'_fanchui7_day_hour'!F24)-_fanchui7_day_hour!G24,"")</f>
+        <v/>
+      </c>
+      <c r="Y27" s="39" t="str">
+        <f>IFERROR(AVERAGE(_fanchui7_day_hour!H24:'_fanchui7_day_hour'!K24)-_fanchui7_day_hour!L24,"")</f>
+        <v/>
+      </c>
+      <c r="Z27" s="28" t="str">
+        <f>IF(_maxmin_day_hour!A24="","",_maxmin_day_hour!A24)</f>
+        <v/>
+      </c>
+      <c r="AA27" s="28" t="str">
+        <f>IF(_maxmin_day_hour!B24="","",_maxmin_day_hour!B24)</f>
+        <v/>
+      </c>
+      <c r="AB27" s="44"/>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A28" s="14">
         <v>24</v>
       </c>
-      <c r="X4" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y4" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z4" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA4" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB4" s="41"/>
-    </row>
-    <row r="5" s="11" customFormat="1" ht="14.25" spans="1:28">
-      <c r="A5" s="22">
-        <v>1</v>
-      </c>
-      <c r="B5" s="23" t="str">
-        <f ca="1">IF(COUNTA(_tag_day_hour!A2:_tag_day_hour!AB2)=0,"",COUNTIF(_tag_day_hour!A2:_tag_day_hour!AB2,"=0"))</f>
-        <v/>
-      </c>
-      <c r="C5" s="24" t="str">
-        <f>IF(_tag_day_hour!AC2="","",_tag_day_hour!AC2)</f>
-        <v/>
-      </c>
-      <c r="D5" s="24" t="str">
-        <f>IF(_tag_day_hour!AD2="","",_tag_day_hour!AD2)</f>
-        <v/>
-      </c>
-      <c r="E5" s="24" t="str">
-        <f>IF(_tag_day_hour!AE2="","",_tag_day_hour!AE2)</f>
-        <v/>
-      </c>
-      <c r="F5" s="24" t="str">
-        <f t="shared" ref="F5:F28" si="0">IFERROR(D5-E5,"")</f>
-        <v/>
-      </c>
-      <c r="G5" s="24" t="str">
-        <f>IF(_tag_day_hour!AF2="","",_tag_day_hour!AF2)</f>
-        <v/>
-      </c>
-      <c r="H5" s="24" t="str">
-        <f>IF(_tag_day_hour!AG2="","",_tag_day_hour!AG2)</f>
-        <v/>
-      </c>
-      <c r="I5" s="24" t="str">
-        <f t="shared" ref="I5:I28" si="1">IFERROR(G5-H5,"")</f>
-        <v/>
-      </c>
-      <c r="J5" s="24" t="str">
-        <f>IF(_tag_day_hour!AH2="","",_tag_day_hour!AH2)</f>
-        <v/>
-      </c>
-      <c r="K5" s="24" t="str">
-        <f>IF(_tag_day_hour!AI2="","",_tag_day_hour!AI2)</f>
-        <v/>
-      </c>
-      <c r="L5" s="24" t="str">
-        <f t="shared" ref="L5:L28" si="2">IFERROR(J5-K5,"")</f>
-        <v/>
-      </c>
-      <c r="M5" s="24" t="str">
-        <f>IF(_tag_day_hour!AJ2="","",_tag_day_hour!AJ2)</f>
-        <v/>
-      </c>
-      <c r="N5" s="24" t="str">
-        <f>IF(_tag_day_hour!AK2="","",_tag_day_hour!AK2)</f>
-        <v/>
-      </c>
-      <c r="O5" s="24" t="str">
-        <f t="shared" ref="O5:O28" si="3">IFERROR(M5-N5,"")</f>
-        <v/>
-      </c>
-      <c r="P5" s="32" t="str">
-        <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$AL$1:_tag_day_hour!$BM$1,MATCH(MAX(_tag_day_hour!AL26:_tag_day_hour!BM26),_tag_day_hour!AL26:_tag_day_hour!BM26,0)),LEN(INDEX(_tag_day_hour!$AL$1:_tag_day_hour!$BM$1,MATCH(MAX(_tag_day_hour!AL26:_tag_day_hour!BM26),_tag_day_hour!AL26:_tag_day_hour!BM26,0)))-13,4),"_",""),"")</f>
-        <v/>
-      </c>
-      <c r="Q5" s="24" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!AL26:_tag_day_hour!BM26)=28,"",MAX(_tag_day_hour!AL26:_tag_day_hour!BM26))</f>
-        <v/>
-      </c>
-      <c r="R5" s="32" t="str">
-        <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$AL$1:_tag_day_hour!$BM$1,MATCH(MIN(_tag_day_hour!AL26:_tag_day_hour!BM26),_tag_day_hour!AL26:_tag_day_hour!BM26,0)),LEN(INDEX(_tag_day_hour!$AL$1:_tag_day_hour!$BM$1,MATCH(MIN(_tag_day_hour!AL26:_tag_day_hour!BM26),_tag_day_hour!AL26:_tag_day_hour!BM26,0)))-13,4),"_",""),"")</f>
-        <v/>
-      </c>
-      <c r="S5" s="24" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!AL26:_tag_day_hour!BM26)=28,"",MIN(_tag_day_hour!AL26:_tag_day_hour!BM26))</f>
-        <v/>
-      </c>
-      <c r="T5" s="24" t="str">
-        <f>IF(_tag_day_hour!BN2="","",_tag_day_hour!BN2)</f>
-        <v/>
-      </c>
-      <c r="U5" s="24" t="str">
-        <f>IF(_tag_day_hour!BO2="","",_tag_day_hour!BO2)</f>
-        <v/>
-      </c>
-      <c r="V5" s="33" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!BP26:_tag_day_hour!CQ26)=28,"",AVERAGE(_tag_day_hour!BP26:_tag_day_hour!CQ26))</f>
-        <v/>
-      </c>
-      <c r="W5" s="34" t="str">
-        <f>IF(_fanchui7_day_hour!B2="","",_fanchui7_day_hour!B2)</f>
-        <v/>
-      </c>
-      <c r="X5" s="33" t="str">
-        <f ca="1">IFERROR(AVERAGE(_fanchui7_day_hour!C2:_fanchui7_day_hour!F2)-_fanchui7_day_hour!G2,"")</f>
-        <v/>
-      </c>
-      <c r="Y5" s="33" t="str">
-        <f ca="1">IFERROR(AVERAGE(_fanchui7_day_hour!H2:_fanchui7_day_hour!K2)-_fanchui7_day_hour!L2,"")</f>
-        <v/>
-      </c>
-      <c r="Z5" s="27" t="str">
-        <f>IF(_maxmin_day_hour!A2="","",_maxmin_day_hour!A2)</f>
-        <v/>
-      </c>
-      <c r="AA5" s="27" t="str">
-        <f>IF(_maxmin_day_hour!B2="","",_maxmin_day_hour!B2)</f>
-        <v/>
-      </c>
-      <c r="AB5" s="42" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" s="11" customFormat="1" spans="1:28">
-      <c r="A6" s="25">
-        <v>2</v>
-      </c>
-      <c r="B6" s="26" t="str">
-        <f ca="1">IF(COUNTA(_tag_day_hour!A3:_tag_day_hour!AB3)=0,"",COUNTIF(_tag_day_hour!A3:_tag_day_hour!AB3,"=0"))</f>
-        <v/>
-      </c>
-      <c r="C6" s="27" t="str">
-        <f>IF(_tag_day_hour!AC3="","",_tag_day_hour!AC3)</f>
-        <v/>
-      </c>
-      <c r="D6" s="27" t="str">
-        <f>IF(_tag_day_hour!AD3="","",_tag_day_hour!AD3)</f>
-        <v/>
-      </c>
-      <c r="E6" s="27" t="str">
-        <f>IF(_tag_day_hour!AE3="","",_tag_day_hour!AE3)</f>
-        <v/>
-      </c>
-      <c r="F6" s="27" t="str">
+      <c r="B28" s="23" t="str">
+        <f>IF(COUNTA(_tag_day_hour!A25:'_tag_day_hour'!AB25)=0,"",COUNTIF(_tag_day_hour!A25:'_tag_day_hour'!AB25,"=0"))</f>
+        <v/>
+      </c>
+      <c r="C28" s="29" t="str">
+        <f>IF(_tag_day_hour!AC25="","",_tag_day_hour!AC25)</f>
+        <v/>
+      </c>
+      <c r="D28" s="29" t="str">
+        <f>IF(_tag_day_hour!AD25="","",_tag_day_hour!AD25)</f>
+        <v/>
+      </c>
+      <c r="E28" s="29" t="str">
+        <f>IF(_tag_day_hour!AE25="","",_tag_day_hour!AE25)</f>
+        <v/>
+      </c>
+      <c r="F28" s="29" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G6" s="27" t="str">
-        <f>IF(_tag_day_hour!AF3="","",_tag_day_hour!AF3)</f>
-        <v/>
-      </c>
-      <c r="H6" s="27" t="str">
-        <f>IF(_tag_day_hour!AG3="","",_tag_day_hour!AG3)</f>
-        <v/>
-      </c>
-      <c r="I6" s="27" t="str">
+      <c r="G28" s="29" t="str">
+        <f>IF(_tag_day_hour!AF25="","",_tag_day_hour!AF25)</f>
+        <v/>
+      </c>
+      <c r="H28" s="29" t="str">
+        <f>IF(_tag_day_hour!AG25="","",_tag_day_hour!AG25)</f>
+        <v/>
+      </c>
+      <c r="I28" s="29" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J6" s="27" t="str">
-        <f>IF(_tag_day_hour!AH3="","",_tag_day_hour!AH3)</f>
-        <v/>
-      </c>
-      <c r="K6" s="27" t="str">
-        <f>IF(_tag_day_hour!AI3="","",_tag_day_hour!AI3)</f>
-        <v/>
-      </c>
-      <c r="L6" s="27" t="str">
+      <c r="J28" s="29" t="str">
+        <f>IF(_tag_day_hour!AH25="","",_tag_day_hour!AH25)</f>
+        <v/>
+      </c>
+      <c r="K28" s="29" t="str">
+        <f>IF(_tag_day_hour!AI25="","",_tag_day_hour!AI25)</f>
+        <v/>
+      </c>
+      <c r="L28" s="29" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M6" s="27" t="str">
-        <f>IF(_tag_day_hour!AJ3="","",_tag_day_hour!AJ3)</f>
-        <v/>
-      </c>
-      <c r="N6" s="27" t="str">
-        <f>IF(_tag_day_hour!AK3="","",_tag_day_hour!AK3)</f>
-        <v/>
-      </c>
-      <c r="O6" s="27" t="str">
+      <c r="M28" s="29" t="str">
+        <f>IF(_tag_day_hour!AJ25="","",_tag_day_hour!AJ25)</f>
+        <v/>
+      </c>
+      <c r="N28" s="29" t="str">
+        <f>IF(_tag_day_hour!AK25="","",_tag_day_hour!AK25)</f>
+        <v/>
+      </c>
+      <c r="O28" s="29" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="P6" s="26" t="str">
-        <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$AL$1:_tag_day_hour!$BM$1,MATCH(MAX(_tag_day_hour!AL27:_tag_day_hour!BM27),_tag_day_hour!AL27:_tag_day_hour!BM27,0)),LEN(INDEX(_tag_day_hour!$AL$1:_tag_day_hour!$BM$1,MATCH(MAX(_tag_day_hour!AL27:_tag_day_hour!BM27),_tag_day_hour!AL27:_tag_day_hour!BM27,0)))-13,4),"_",""),"")</f>
-        <v/>
-      </c>
-      <c r="Q6" s="27" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!AL27:_tag_day_hour!BM27)=28,"",MAX(_tag_day_hour!AL27:_tag_day_hour!BM27))</f>
-        <v/>
-      </c>
-      <c r="R6" s="26" t="str">
-        <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$AL$1:_tag_day_hour!$BM$1,MATCH(MIN(_tag_day_hour!AL27:_tag_day_hour!BM27),_tag_day_hour!AL27:_tag_day_hour!BM27,0)),LEN(INDEX(_tag_day_hour!$AL$1:_tag_day_hour!$BM$1,MATCH(MIN(_tag_day_hour!AL27:_tag_day_hour!BM27),_tag_day_hour!AL27:_tag_day_hour!BM27,0)))-13,4),"_",""),"")</f>
-        <v/>
-      </c>
-      <c r="S6" s="27" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!AL27:_tag_day_hour!BM27)=28,"",MIN(_tag_day_hour!AL27:_tag_day_hour!BM27))</f>
-        <v/>
-      </c>
-      <c r="T6" s="27" t="str">
-        <f>IF(_tag_day_hour!BN3="","",_tag_day_hour!BN3)</f>
-        <v/>
-      </c>
-      <c r="U6" s="27" t="str">
-        <f>IF(_tag_day_hour!BO3="","",_tag_day_hour!BO3)</f>
-        <v/>
-      </c>
-      <c r="V6" s="33" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!BP27:_tag_day_hour!CQ27)=28,"",AVERAGE(_tag_day_hour!BP27:_tag_day_hour!CQ27))</f>
-        <v/>
-      </c>
-      <c r="W6" s="34" t="str">
-        <f>IF(_fanchui7_day_hour!B3="","",_fanchui7_day_hour!B3)</f>
-        <v/>
-      </c>
-      <c r="X6" s="33" t="str">
-        <f ca="1">IFERROR(AVERAGE(_fanchui7_day_hour!C3:_fanchui7_day_hour!F3)-_fanchui7_day_hour!G3,"")</f>
-        <v/>
-      </c>
-      <c r="Y6" s="33" t="str">
-        <f ca="1">IFERROR(AVERAGE(_fanchui7_day_hour!H3:_fanchui7_day_hour!K3)-_fanchui7_day_hour!L3,"")</f>
-        <v/>
-      </c>
-      <c r="Z6" s="27" t="str">
-        <f>IF(_maxmin_day_hour!A3="","",_maxmin_day_hour!A3)</f>
-        <v/>
-      </c>
-      <c r="AA6" s="27" t="str">
-        <f>IF(_maxmin_day_hour!B3="","",_maxmin_day_hour!B3)</f>
-        <v/>
-      </c>
-      <c r="AB6" s="43"/>
-    </row>
-    <row r="7" s="11" customFormat="1" ht="14.25" spans="1:28">
-      <c r="A7" s="22">
-        <v>3</v>
-      </c>
-      <c r="B7" s="26" t="str">
-        <f ca="1">IF(COUNTA(_tag_day_hour!A4:_tag_day_hour!AB4)=0,"",COUNTIF(_tag_day_hour!A4:_tag_day_hour!AB4,"=0"))</f>
-        <v/>
-      </c>
-      <c r="C7" s="27" t="str">
-        <f>IF(_tag_day_hour!AC4="","",_tag_day_hour!AC4)</f>
-        <v/>
-      </c>
-      <c r="D7" s="27" t="str">
-        <f>IF(_tag_day_hour!AD4="","",_tag_day_hour!AD4)</f>
-        <v/>
-      </c>
-      <c r="E7" s="27" t="str">
-        <f>IF(_tag_day_hour!AE4="","",_tag_day_hour!AE4)</f>
-        <v/>
-      </c>
-      <c r="F7" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G7" s="27" t="str">
-        <f>IF(_tag_day_hour!AF4="","",_tag_day_hour!AF4)</f>
-        <v/>
-      </c>
-      <c r="H7" s="27" t="str">
-        <f>IF(_tag_day_hour!AG4="","",_tag_day_hour!AG4)</f>
-        <v/>
-      </c>
-      <c r="I7" s="27" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J7" s="27" t="str">
-        <f>IF(_tag_day_hour!AH4="","",_tag_day_hour!AH4)</f>
-        <v/>
-      </c>
-      <c r="K7" s="27" t="str">
-        <f>IF(_tag_day_hour!AI4="","",_tag_day_hour!AI4)</f>
-        <v/>
-      </c>
-      <c r="L7" s="27" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M7" s="27" t="str">
-        <f>IF(_tag_day_hour!AJ4="","",_tag_day_hour!AJ4)</f>
-        <v/>
-      </c>
-      <c r="N7" s="27" t="str">
-        <f>IF(_tag_day_hour!AK4="","",_tag_day_hour!AK4)</f>
-        <v/>
-      </c>
-      <c r="O7" s="27" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="P7" s="26" t="str">
-        <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$AL$1:_tag_day_hour!$BM$1,MATCH(MAX(_tag_day_hour!AL28:_tag_day_hour!BM28),_tag_day_hour!AL28:_tag_day_hour!BM28,0)),LEN(INDEX(_tag_day_hour!$AL$1:_tag_day_hour!$BM$1,MATCH(MAX(_tag_day_hour!AL28:_tag_day_hour!BM28),_tag_day_hour!AL28:_tag_day_hour!BM28,0)))-13,4),"_",""),"")</f>
-        <v/>
-      </c>
-      <c r="Q7" s="27" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!AL28:_tag_day_hour!BM28)=28,"",MAX(_tag_day_hour!AL28:_tag_day_hour!BM28))</f>
-        <v/>
-      </c>
-      <c r="R7" s="26" t="str">
-        <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$AL$1:_tag_day_hour!$BM$1,MATCH(MIN(_tag_day_hour!AL28:_tag_day_hour!BM28),_tag_day_hour!AL28:_tag_day_hour!BM28,0)),LEN(INDEX(_tag_day_hour!$AL$1:_tag_day_hour!$BM$1,MATCH(MIN(_tag_day_hour!AL28:_tag_day_hour!BM28),_tag_day_hour!AL28:_tag_day_hour!BM28,0)))-13,4),"_",""),"")</f>
-        <v/>
-      </c>
-      <c r="S7" s="27" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!AL28:_tag_day_hour!BM28)=28,"",MIN(_tag_day_hour!AL28:_tag_day_hour!BM28))</f>
-        <v/>
-      </c>
-      <c r="T7" s="27" t="str">
-        <f>IF(_tag_day_hour!BN4="","",_tag_day_hour!BN4)</f>
-        <v/>
-      </c>
-      <c r="U7" s="27" t="str">
-        <f>IF(_tag_day_hour!BO4="","",_tag_day_hour!BO4)</f>
-        <v/>
-      </c>
-      <c r="V7" s="33" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!BP28:_tag_day_hour!CQ28)=28,"",AVERAGE(_tag_day_hour!BP28:_tag_day_hour!CQ28))</f>
-        <v/>
-      </c>
-      <c r="W7" s="34" t="str">
-        <f>IF(_fanchui7_day_hour!B4="","",_fanchui7_day_hour!B4)</f>
-        <v/>
-      </c>
-      <c r="X7" s="33" t="str">
-        <f ca="1">IFERROR(AVERAGE(_fanchui7_day_hour!C4:_fanchui7_day_hour!F4)-_fanchui7_day_hour!G4,"")</f>
-        <v/>
-      </c>
-      <c r="Y7" s="33" t="str">
-        <f ca="1">IFERROR(AVERAGE(_fanchui7_day_hour!H4:_fanchui7_day_hour!K4)-_fanchui7_day_hour!L4,"")</f>
-        <v/>
-      </c>
-      <c r="Z7" s="44" t="str">
-        <f>IF(_maxmin_day_hour!A4="","",_maxmin_day_hour!A4)</f>
-        <v/>
-      </c>
-      <c r="AA7" s="44" t="str">
-        <f>IF(_maxmin_day_hour!B4="","",_maxmin_day_hour!B4)</f>
-        <v/>
-      </c>
-      <c r="AB7" s="43"/>
-    </row>
-    <row r="8" s="11" customFormat="1" spans="1:28">
-      <c r="A8" s="25">
-        <v>4</v>
-      </c>
-      <c r="B8" s="26" t="str">
-        <f ca="1">IF(COUNTA(_tag_day_hour!A5:_tag_day_hour!AB5)=0,"",COUNTIF(_tag_day_hour!A5:_tag_day_hour!AB5,"=0"))</f>
-        <v/>
-      </c>
-      <c r="C8" s="27" t="str">
-        <f>IF(_tag_day_hour!AC5="","",_tag_day_hour!AC5)</f>
-        <v/>
-      </c>
-      <c r="D8" s="27" t="str">
-        <f>IF(_tag_day_hour!AD5="","",_tag_day_hour!AD5)</f>
-        <v/>
-      </c>
-      <c r="E8" s="27" t="str">
-        <f>IF(_tag_day_hour!AE5="","",_tag_day_hour!AE5)</f>
-        <v/>
-      </c>
-      <c r="F8" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G8" s="27" t="str">
-        <f>IF(_tag_day_hour!AF5="","",_tag_day_hour!AF5)</f>
-        <v/>
-      </c>
-      <c r="H8" s="27" t="str">
-        <f>IF(_tag_day_hour!AG5="","",_tag_day_hour!AG5)</f>
-        <v/>
-      </c>
-      <c r="I8" s="27" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J8" s="27" t="str">
-        <f>IF(_tag_day_hour!AH5="","",_tag_day_hour!AH5)</f>
-        <v/>
-      </c>
-      <c r="K8" s="27" t="str">
-        <f>IF(_tag_day_hour!AI5="","",_tag_day_hour!AI5)</f>
-        <v/>
-      </c>
-      <c r="L8" s="27" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M8" s="27" t="str">
-        <f>IF(_tag_day_hour!AJ5="","",_tag_day_hour!AJ5)</f>
-        <v/>
-      </c>
-      <c r="N8" s="27" t="str">
-        <f>IF(_tag_day_hour!AK5="","",_tag_day_hour!AK5)</f>
-        <v/>
-      </c>
-      <c r="O8" s="27" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="P8" s="26" t="str">
-        <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$AL$1:_tag_day_hour!$BM$1,MATCH(MAX(_tag_day_hour!AL29:_tag_day_hour!BM29),_tag_day_hour!AL29:_tag_day_hour!BM29,0)),LEN(INDEX(_tag_day_hour!$AL$1:_tag_day_hour!$BM$1,MATCH(MAX(_tag_day_hour!AL29:_tag_day_hour!BM29),_tag_day_hour!AL29:_tag_day_hour!BM29,0)))-13,4),"_",""),"")</f>
-        <v/>
-      </c>
-      <c r="Q8" s="27" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!AL29:_tag_day_hour!BM29)=28,"",MAX(_tag_day_hour!AL29:_tag_day_hour!BM29))</f>
-        <v/>
-      </c>
-      <c r="R8" s="26" t="str">
-        <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$AL$1:_tag_day_hour!$BM$1,MATCH(MIN(_tag_day_hour!AL29:_tag_day_hour!BM29),_tag_day_hour!AL29:_tag_day_hour!BM29,0)),LEN(INDEX(_tag_day_hour!$AL$1:_tag_day_hour!$BM$1,MATCH(MIN(_tag_day_hour!AL29:_tag_day_hour!BM29),_tag_day_hour!AL29:_tag_day_hour!BM29,0)))-13,4),"_",""),"")</f>
-        <v/>
-      </c>
-      <c r="S8" s="27" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!AL29:_tag_day_hour!BM29)=28,"",MIN(_tag_day_hour!AL29:_tag_day_hour!BM29))</f>
-        <v/>
-      </c>
-      <c r="T8" s="27" t="str">
-        <f>IF(_tag_day_hour!BN5="","",_tag_day_hour!BN5)</f>
-        <v/>
-      </c>
-      <c r="U8" s="27" t="str">
-        <f>IF(_tag_day_hour!BO5="","",_tag_day_hour!BO5)</f>
-        <v/>
-      </c>
-      <c r="V8" s="33" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!BP29:_tag_day_hour!CQ29)=28,"",AVERAGE(_tag_day_hour!BP29:_tag_day_hour!CQ29))</f>
-        <v/>
-      </c>
-      <c r="W8" s="34" t="str">
-        <f>IF(_fanchui7_day_hour!B5="","",_fanchui7_day_hour!B5)</f>
-        <v/>
-      </c>
-      <c r="X8" s="33" t="str">
-        <f ca="1">IFERROR(AVERAGE(_fanchui7_day_hour!C5:_fanchui7_day_hour!F5)-_fanchui7_day_hour!G5,"")</f>
-        <v/>
-      </c>
-      <c r="Y8" s="33" t="str">
-        <f ca="1">IFERROR(AVERAGE(_fanchui7_day_hour!H5:_fanchui7_day_hour!K5)-_fanchui7_day_hour!L5,"")</f>
-        <v/>
-      </c>
-      <c r="Z8" s="27" t="str">
-        <f>IF(_maxmin_day_hour!A5="","",_maxmin_day_hour!A5)</f>
-        <v/>
-      </c>
-      <c r="AA8" s="27" t="str">
-        <f>IF(_maxmin_day_hour!B5="","",_maxmin_day_hour!B5)</f>
-        <v/>
-      </c>
-      <c r="AB8" s="43"/>
-    </row>
-    <row r="9" s="11" customFormat="1" ht="14.25" spans="1:28">
-      <c r="A9" s="22">
-        <v>5</v>
-      </c>
-      <c r="B9" s="26" t="str">
-        <f ca="1">IF(COUNTA(_tag_day_hour!A6:_tag_day_hour!AB6)=0,"",COUNTIF(_tag_day_hour!A6:_tag_day_hour!AB6,"=0"))</f>
-        <v/>
-      </c>
-      <c r="C9" s="27" t="str">
-        <f>IF(_tag_day_hour!AC6="","",_tag_day_hour!AC6)</f>
-        <v/>
-      </c>
-      <c r="D9" s="27" t="str">
-        <f>IF(_tag_day_hour!AD6="","",_tag_day_hour!AD6)</f>
-        <v/>
-      </c>
-      <c r="E9" s="27" t="str">
-        <f>IF(_tag_day_hour!AE6="","",_tag_day_hour!AE6)</f>
-        <v/>
-      </c>
-      <c r="F9" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G9" s="27" t="str">
-        <f>IF(_tag_day_hour!AF6="","",_tag_day_hour!AF6)</f>
-        <v/>
-      </c>
-      <c r="H9" s="27" t="str">
-        <f>IF(_tag_day_hour!AG6="","",_tag_day_hour!AG6)</f>
-        <v/>
-      </c>
-      <c r="I9" s="27" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J9" s="27" t="str">
-        <f>IF(_tag_day_hour!AH6="","",_tag_day_hour!AH6)</f>
-        <v/>
-      </c>
-      <c r="K9" s="27" t="str">
-        <f>IF(_tag_day_hour!AI6="","",_tag_day_hour!AI6)</f>
-        <v/>
-      </c>
-      <c r="L9" s="27" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M9" s="27" t="str">
-        <f>IF(_tag_day_hour!AJ6="","",_tag_day_hour!AJ6)</f>
-        <v/>
-      </c>
-      <c r="N9" s="27" t="str">
-        <f>IF(_tag_day_hour!AK6="","",_tag_day_hour!AK6)</f>
-        <v/>
-      </c>
-      <c r="O9" s="27" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="P9" s="26" t="str">
-        <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$AL$1:_tag_day_hour!$BM$1,MATCH(MAX(_tag_day_hour!AL30:_tag_day_hour!BM30),_tag_day_hour!AL30:_tag_day_hour!BM30,0)),LEN(INDEX(_tag_day_hour!$AL$1:_tag_day_hour!$BM$1,MATCH(MAX(_tag_day_hour!AL30:_tag_day_hour!BM30),_tag_day_hour!AL30:_tag_day_hour!BM30,0)))-13,4),"_",""),"")</f>
-        <v/>
-      </c>
-      <c r="Q9" s="27" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!AL30:_tag_day_hour!BM30)=28,"",MAX(_tag_day_hour!AL30:_tag_day_hour!BM30))</f>
-        <v/>
-      </c>
-      <c r="R9" s="26" t="str">
-        <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$AL$1:_tag_day_hour!$BM$1,MATCH(MIN(_tag_day_hour!AL30:_tag_day_hour!BM30),_tag_day_hour!AL30:_tag_day_hour!BM30,0)),LEN(INDEX(_tag_day_hour!$AL$1:_tag_day_hour!$BM$1,MATCH(MIN(_tag_day_hour!AL30:_tag_day_hour!BM30),_tag_day_hour!AL30:_tag_day_hour!BM30,0)))-13,4),"_",""),"")</f>
-        <v/>
-      </c>
-      <c r="S9" s="27" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!AL30:_tag_day_hour!BM30)=28,"",MIN(_tag_day_hour!AL30:_tag_day_hour!BM30))</f>
-        <v/>
-      </c>
-      <c r="T9" s="27" t="str">
-        <f>IF(_tag_day_hour!BN6="","",_tag_day_hour!BN6)</f>
-        <v/>
-      </c>
-      <c r="U9" s="27" t="str">
-        <f>IF(_tag_day_hour!BO6="","",_tag_day_hour!BO6)</f>
-        <v/>
-      </c>
-      <c r="V9" s="33" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!BP30:_tag_day_hour!CQ30)=28,"",AVERAGE(_tag_day_hour!BP30:_tag_day_hour!CQ30))</f>
-        <v/>
-      </c>
-      <c r="W9" s="34" t="str">
-        <f>IF(_fanchui7_day_hour!B6="","",_fanchui7_day_hour!B6)</f>
-        <v/>
-      </c>
-      <c r="X9" s="33" t="str">
-        <f ca="1">IFERROR(AVERAGE(_fanchui7_day_hour!C6:_fanchui7_day_hour!F6)-_fanchui7_day_hour!G6,"")</f>
-        <v/>
-      </c>
-      <c r="Y9" s="33" t="str">
-        <f ca="1">IFERROR(AVERAGE(_fanchui7_day_hour!H6:_fanchui7_day_hour!K6)-_fanchui7_day_hour!L6,"")</f>
-        <v/>
-      </c>
-      <c r="Z9" s="27" t="str">
-        <f>IF(_maxmin_day_hour!A6="","",_maxmin_day_hour!A6)</f>
-        <v/>
-      </c>
-      <c r="AA9" s="27" t="str">
-        <f>IF(_maxmin_day_hour!B6="","",_maxmin_day_hour!B6)</f>
-        <v/>
-      </c>
-      <c r="AB9" s="43"/>
-    </row>
-    <row r="10" s="11" customFormat="1" spans="1:28">
-      <c r="A10" s="25">
-        <v>6</v>
-      </c>
-      <c r="B10" s="26" t="str">
-        <f ca="1">IF(COUNTA(_tag_day_hour!A7:_tag_day_hour!AB7)=0,"",COUNTIF(_tag_day_hour!A7:_tag_day_hour!AB7,"=0"))</f>
-        <v/>
-      </c>
-      <c r="C10" s="27" t="str">
-        <f>IF(_tag_day_hour!AC7="","",_tag_day_hour!AC7)</f>
-        <v/>
-      </c>
-      <c r="D10" s="27" t="str">
-        <f>IF(_tag_day_hour!AD7="","",_tag_day_hour!AD7)</f>
-        <v/>
-      </c>
-      <c r="E10" s="27" t="str">
-        <f>IF(_tag_day_hour!AE7="","",_tag_day_hour!AE7)</f>
-        <v/>
-      </c>
-      <c r="F10" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G10" s="27" t="str">
-        <f>IF(_tag_day_hour!AF7="","",_tag_day_hour!AF7)</f>
-        <v/>
-      </c>
-      <c r="H10" s="27" t="str">
-        <f>IF(_tag_day_hour!AG7="","",_tag_day_hour!AG7)</f>
-        <v/>
-      </c>
-      <c r="I10" s="27" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J10" s="27" t="str">
-        <f>IF(_tag_day_hour!AH7="","",_tag_day_hour!AH7)</f>
-        <v/>
-      </c>
-      <c r="K10" s="27" t="str">
-        <f>IF(_tag_day_hour!AI7="","",_tag_day_hour!AI7)</f>
-        <v/>
-      </c>
-      <c r="L10" s="27" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M10" s="27" t="str">
-        <f>IF(_tag_day_hour!AJ7="","",_tag_day_hour!AJ7)</f>
-        <v/>
-      </c>
-      <c r="N10" s="27" t="str">
-        <f>IF(_tag_day_hour!AK7="","",_tag_day_hour!AK7)</f>
-        <v/>
-      </c>
-      <c r="O10" s="27" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="P10" s="26" t="str">
-        <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$AL$1:_tag_day_hour!$BM$1,MATCH(MAX(_tag_day_hour!AL31:_tag_day_hour!BM31),_tag_day_hour!AL31:_tag_day_hour!BM31,0)),LEN(INDEX(_tag_day_hour!$AL$1:_tag_day_hour!$BM$1,MATCH(MAX(_tag_day_hour!AL31:_tag_day_hour!BM31),_tag_day_hour!AL31:_tag_day_hour!BM31,0)))-13,4),"_",""),"")</f>
-        <v/>
-      </c>
-      <c r="Q10" s="27" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!AL31:_tag_day_hour!BM31)=28,"",MAX(_tag_day_hour!AL31:_tag_day_hour!BM31))</f>
-        <v/>
-      </c>
-      <c r="R10" s="26" t="str">
-        <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$AL$1:_tag_day_hour!$BM$1,MATCH(MIN(_tag_day_hour!AL31:_tag_day_hour!BM31),_tag_day_hour!AL31:_tag_day_hour!BM31,0)),LEN(INDEX(_tag_day_hour!$AL$1:_tag_day_hour!$BM$1,MATCH(MIN(_tag_day_hour!AL31:_tag_day_hour!BM31),_tag_day_hour!AL31:_tag_day_hour!BM31,0)))-13,4),"_",""),"")</f>
-        <v/>
-      </c>
-      <c r="S10" s="27" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!AL31:_tag_day_hour!BM31)=28,"",MIN(_tag_day_hour!AL31:_tag_day_hour!BM31))</f>
-        <v/>
-      </c>
-      <c r="T10" s="27" t="str">
-        <f>IF(_tag_day_hour!BN7="","",_tag_day_hour!BN7)</f>
-        <v/>
-      </c>
-      <c r="U10" s="27" t="str">
-        <f>IF(_tag_day_hour!BO7="","",_tag_day_hour!BO7)</f>
-        <v/>
-      </c>
-      <c r="V10" s="33" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!BP31:_tag_day_hour!CQ31)=28,"",AVERAGE(_tag_day_hour!BP31:_tag_day_hour!CQ31))</f>
-        <v/>
-      </c>
-      <c r="W10" s="34" t="str">
-        <f>IF(_fanchui7_day_hour!B7="","",_fanchui7_day_hour!B7)</f>
-        <v/>
-      </c>
-      <c r="X10" s="33" t="str">
-        <f ca="1">IFERROR(AVERAGE(_fanchui7_day_hour!C7:_fanchui7_day_hour!F7)-_fanchui7_day_hour!G7,"")</f>
-        <v/>
-      </c>
-      <c r="Y10" s="33" t="str">
-        <f ca="1">IFERROR(AVERAGE(_fanchui7_day_hour!H7:_fanchui7_day_hour!K7)-_fanchui7_day_hour!L7,"")</f>
-        <v/>
-      </c>
-      <c r="Z10" s="27" t="str">
-        <f>IF(_maxmin_day_hour!A7="","",_maxmin_day_hour!A7)</f>
-        <v/>
-      </c>
-      <c r="AA10" s="27" t="str">
-        <f>IF(_maxmin_day_hour!B7="","",_maxmin_day_hour!B7)</f>
-        <v/>
-      </c>
-      <c r="AB10" s="43"/>
-    </row>
-    <row r="11" s="11" customFormat="1" ht="14.25" spans="1:28">
-      <c r="A11" s="22">
-        <v>7</v>
-      </c>
-      <c r="B11" s="26" t="str">
-        <f ca="1">IF(COUNTA(_tag_day_hour!A8:_tag_day_hour!AB8)=0,"",COUNTIF(_tag_day_hour!A8:_tag_day_hour!AB8,"=0"))</f>
-        <v/>
-      </c>
-      <c r="C11" s="27" t="str">
-        <f>IF(_tag_day_hour!AC8="","",_tag_day_hour!AC8)</f>
-        <v/>
-      </c>
-      <c r="D11" s="27" t="str">
-        <f>IF(_tag_day_hour!AD8="","",_tag_day_hour!AD8)</f>
-        <v/>
-      </c>
-      <c r="E11" s="27" t="str">
-        <f>IF(_tag_day_hour!AE8="","",_tag_day_hour!AE8)</f>
-        <v/>
-      </c>
-      <c r="F11" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G11" s="27" t="str">
-        <f>IF(_tag_day_hour!AF8="","",_tag_day_hour!AF8)</f>
-        <v/>
-      </c>
-      <c r="H11" s="27" t="str">
-        <f>IF(_tag_day_hour!AG8="","",_tag_day_hour!AG8)</f>
-        <v/>
-      </c>
-      <c r="I11" s="27" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J11" s="27" t="str">
-        <f>IF(_tag_day_hour!AH8="","",_tag_day_hour!AH8)</f>
-        <v/>
-      </c>
-      <c r="K11" s="27" t="str">
-        <f>IF(_tag_day_hour!AI8="","",_tag_day_hour!AI8)</f>
-        <v/>
-      </c>
-      <c r="L11" s="27" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M11" s="27" t="str">
-        <f>IF(_tag_day_hour!AJ8="","",_tag_day_hour!AJ8)</f>
-        <v/>
-      </c>
-      <c r="N11" s="27" t="str">
-        <f>IF(_tag_day_hour!AK8="","",_tag_day_hour!AK8)</f>
-        <v/>
-      </c>
-      <c r="O11" s="27" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="P11" s="26" t="str">
-        <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$AL$1:_tag_day_hour!$BM$1,MATCH(MAX(_tag_day_hour!AL32:_tag_day_hour!BM32),_tag_day_hour!AL32:_tag_day_hour!BM32,0)),LEN(INDEX(_tag_day_hour!$AL$1:_tag_day_hour!$BM$1,MATCH(MAX(_tag_day_hour!AL32:_tag_day_hour!BM32),_tag_day_hour!AL32:_tag_day_hour!BM32,0)))-13,4),"_",""),"")</f>
-        <v/>
-      </c>
-      <c r="Q11" s="27" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!AL32:_tag_day_hour!BM32)=28,"",MAX(_tag_day_hour!AL32:_tag_day_hour!BM32))</f>
-        <v/>
-      </c>
-      <c r="R11" s="26" t="str">
-        <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$AL$1:_tag_day_hour!$BM$1,MATCH(MIN(_tag_day_hour!AL32:_tag_day_hour!BM32),_tag_day_hour!AL32:_tag_day_hour!BM32,0)),LEN(INDEX(_tag_day_hour!$AL$1:_tag_day_hour!$BM$1,MATCH(MIN(_tag_day_hour!AL32:_tag_day_hour!BM32),_tag_day_hour!AL32:_tag_day_hour!BM32,0)))-13,4),"_",""),"")</f>
-        <v/>
-      </c>
-      <c r="S11" s="27" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!AL32:_tag_day_hour!BM32)=28,"",MIN(_tag_day_hour!AL32:_tag_day_hour!BM32))</f>
-        <v/>
-      </c>
-      <c r="T11" s="27" t="str">
-        <f>IF(_tag_day_hour!BN8="","",_tag_day_hour!BN8)</f>
-        <v/>
-      </c>
-      <c r="U11" s="27" t="str">
-        <f>IF(_tag_day_hour!BO8="","",_tag_day_hour!BO8)</f>
-        <v/>
-      </c>
-      <c r="V11" s="33" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!BP32:_tag_day_hour!CQ32)=28,"",AVERAGE(_tag_day_hour!BP32:_tag_day_hour!CQ32))</f>
-        <v/>
-      </c>
-      <c r="W11" s="34" t="str">
-        <f>IF(_fanchui7_day_hour!B8="","",_fanchui7_day_hour!B8)</f>
-        <v/>
-      </c>
-      <c r="X11" s="33" t="str">
-        <f ca="1">IFERROR(AVERAGE(_fanchui7_day_hour!C8:_fanchui7_day_hour!F8)-_fanchui7_day_hour!G8,"")</f>
-        <v/>
-      </c>
-      <c r="Y11" s="33" t="str">
-        <f ca="1">IFERROR(AVERAGE(_fanchui7_day_hour!H8:_fanchui7_day_hour!K8)-_fanchui7_day_hour!L8,"")</f>
-        <v/>
-      </c>
-      <c r="Z11" s="27" t="str">
-        <f>IF(_maxmin_day_hour!A8="","",_maxmin_day_hour!A8)</f>
-        <v/>
-      </c>
-      <c r="AA11" s="27" t="str">
-        <f>IF(_maxmin_day_hour!B8="","",_maxmin_day_hour!B8)</f>
-        <v/>
-      </c>
-      <c r="AB11" s="43"/>
-    </row>
-    <row r="12" s="11" customFormat="1" spans="1:28">
-      <c r="A12" s="25">
-        <v>8</v>
-      </c>
-      <c r="B12" s="26" t="str">
-        <f ca="1">IF(COUNTA(_tag_day_hour!A9:_tag_day_hour!AB9)=0,"",COUNTIF(_tag_day_hour!A9:_tag_day_hour!AB9,"=0"))</f>
-        <v/>
-      </c>
-      <c r="C12" s="27" t="str">
-        <f>IF(_tag_day_hour!AC9="","",_tag_day_hour!AC9)</f>
-        <v/>
-      </c>
-      <c r="D12" s="27" t="str">
-        <f>IF(_tag_day_hour!AD9="","",_tag_day_hour!AD9)</f>
-        <v/>
-      </c>
-      <c r="E12" s="27" t="str">
-        <f>IF(_tag_day_hour!AE9="","",_tag_day_hour!AE9)</f>
-        <v/>
-      </c>
-      <c r="F12" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G12" s="27" t="str">
-        <f>IF(_tag_day_hour!AF9="","",_tag_day_hour!AF9)</f>
-        <v/>
-      </c>
-      <c r="H12" s="27" t="str">
-        <f>IF(_tag_day_hour!AG9="","",_tag_day_hour!AG9)</f>
-        <v/>
-      </c>
-      <c r="I12" s="27" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J12" s="27" t="str">
-        <f>IF(_tag_day_hour!AH9="","",_tag_day_hour!AH9)</f>
-        <v/>
-      </c>
-      <c r="K12" s="27" t="str">
-        <f>IF(_tag_day_hour!AI9="","",_tag_day_hour!AI9)</f>
-        <v/>
-      </c>
-      <c r="L12" s="27" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M12" s="27" t="str">
-        <f>IF(_tag_day_hour!AJ9="","",_tag_day_hour!AJ9)</f>
-        <v/>
-      </c>
-      <c r="N12" s="27" t="str">
-        <f>IF(_tag_day_hour!AK9="","",_tag_day_hour!AK9)</f>
-        <v/>
-      </c>
-      <c r="O12" s="27" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="P12" s="26" t="str">
-        <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$AL$1:_tag_day_hour!$BM$1,MATCH(MAX(_tag_day_hour!AL33:_tag_day_hour!BM33),_tag_day_hour!AL33:_tag_day_hour!BM33,0)),LEN(INDEX(_tag_day_hour!$AL$1:_tag_day_hour!$BM$1,MATCH(MAX(_tag_day_hour!AL33:_tag_day_hour!BM33),_tag_day_hour!AL33:_tag_day_hour!BM33,0)))-13,4),"_",""),"")</f>
-        <v/>
-      </c>
-      <c r="Q12" s="27" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!AL33:_tag_day_hour!BM33)=28,"",MAX(_tag_day_hour!AL33:_tag_day_hour!BM33))</f>
-        <v/>
-      </c>
-      <c r="R12" s="26" t="str">
-        <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$AL$1:_tag_day_hour!$BM$1,MATCH(MIN(_tag_day_hour!AL33:_tag_day_hour!BM33),_tag_day_hour!AL33:_tag_day_hour!BM33,0)),LEN(INDEX(_tag_day_hour!$AL$1:_tag_day_hour!$BM$1,MATCH(MIN(_tag_day_hour!AL33:_tag_day_hour!BM33),_tag_day_hour!AL33:_tag_day_hour!BM33,0)))-13,4),"_",""),"")</f>
-        <v/>
-      </c>
-      <c r="S12" s="27" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!AL33:_tag_day_hour!BM33)=28,"",MIN(_tag_day_hour!AL33:_tag_day_hour!BM33))</f>
-        <v/>
-      </c>
-      <c r="T12" s="27" t="str">
-        <f>IF(_tag_day_hour!BN9="","",_tag_day_hour!BN9)</f>
-        <v/>
-      </c>
-      <c r="U12" s="27" t="str">
-        <f>IF(_tag_day_hour!BO9="","",_tag_day_hour!BO9)</f>
-        <v/>
-      </c>
-      <c r="V12" s="33" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!BP33:_tag_day_hour!CQ33)=28,"",AVERAGE(_tag_day_hour!BP33:_tag_day_hour!CQ33))</f>
-        <v/>
-      </c>
-      <c r="W12" s="34" t="str">
-        <f>IF(_fanchui7_day_hour!B9="","",_fanchui7_day_hour!B9)</f>
-        <v/>
-      </c>
-      <c r="X12" s="33" t="str">
-        <f ca="1">IFERROR(AVERAGE(_fanchui7_day_hour!C9:_fanchui7_day_hour!F9)-_fanchui7_day_hour!G9,"")</f>
-        <v/>
-      </c>
-      <c r="Y12" s="33" t="str">
-        <f ca="1">IFERROR(AVERAGE(_fanchui7_day_hour!H9:_fanchui7_day_hour!K9)-_fanchui7_day_hour!L9,"")</f>
-        <v/>
-      </c>
-      <c r="Z12" s="27" t="str">
-        <f>IF(_maxmin_day_hour!A9="","",_maxmin_day_hour!A9)</f>
-        <v/>
-      </c>
-      <c r="AA12" s="27" t="str">
-        <f>IF(_maxmin_day_hour!B9="","",_maxmin_day_hour!B9)</f>
-        <v/>
-      </c>
-      <c r="AB12" s="43"/>
-    </row>
-    <row r="13" s="11" customFormat="1" ht="14.25" spans="1:28">
-      <c r="A13" s="22">
-        <v>9</v>
-      </c>
-      <c r="B13" s="26" t="str">
-        <f ca="1">IF(COUNTA(_tag_day_hour!A10:_tag_day_hour!AB10)=0,"",COUNTIF(_tag_day_hour!A10:_tag_day_hour!AB10,"=0"))</f>
-        <v/>
-      </c>
-      <c r="C13" s="27" t="str">
-        <f>IF(_tag_day_hour!AC10="","",_tag_day_hour!AC10)</f>
-        <v/>
-      </c>
-      <c r="D13" s="27" t="str">
-        <f>IF(_tag_day_hour!AD10="","",_tag_day_hour!AD10)</f>
-        <v/>
-      </c>
-      <c r="E13" s="27" t="str">
-        <f>IF(_tag_day_hour!AE10="","",_tag_day_hour!AE10)</f>
-        <v/>
-      </c>
-      <c r="F13" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G13" s="27" t="str">
-        <f>IF(_tag_day_hour!AF10="","",_tag_day_hour!AF10)</f>
-        <v/>
-      </c>
-      <c r="H13" s="27" t="str">
-        <f>IF(_tag_day_hour!AG10="","",_tag_day_hour!AG10)</f>
-        <v/>
-      </c>
-      <c r="I13" s="27" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J13" s="27" t="str">
-        <f>IF(_tag_day_hour!AH10="","",_tag_day_hour!AH10)</f>
-        <v/>
-      </c>
-      <c r="K13" s="27" t="str">
-        <f>IF(_tag_day_hour!AI10="","",_tag_day_hour!AI10)</f>
-        <v/>
-      </c>
-      <c r="L13" s="27" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M13" s="27" t="str">
-        <f>IF(_tag_day_hour!AJ10="","",_tag_day_hour!AJ10)</f>
-        <v/>
-      </c>
-      <c r="N13" s="27" t="str">
-        <f>IF(_tag_day_hour!AK10="","",_tag_day_hour!AK10)</f>
-        <v/>
-      </c>
-      <c r="O13" s="27" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="P13" s="26" t="str">
-        <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$AL$1:_tag_day_hour!$BM$1,MATCH(MAX(_tag_day_hour!AL34:_tag_day_hour!BM34),_tag_day_hour!AL34:_tag_day_hour!BM34,0)),LEN(INDEX(_tag_day_hour!$AL$1:_tag_day_hour!$BM$1,MATCH(MAX(_tag_day_hour!AL34:_tag_day_hour!BM34),_tag_day_hour!AL34:_tag_day_hour!BM34,0)))-13,4),"_",""),"")</f>
-        <v/>
-      </c>
-      <c r="Q13" s="27" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!AL34:_tag_day_hour!BM34)=28,"",MAX(_tag_day_hour!AL34:_tag_day_hour!BM34))</f>
-        <v/>
-      </c>
-      <c r="R13" s="26" t="str">
-        <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$AL$1:_tag_day_hour!$BM$1,MATCH(MIN(_tag_day_hour!AL34:_tag_day_hour!BM34),_tag_day_hour!AL34:_tag_day_hour!BM34,0)),LEN(INDEX(_tag_day_hour!$AL$1:_tag_day_hour!$BM$1,MATCH(MIN(_tag_day_hour!AL34:_tag_day_hour!BM34),_tag_day_hour!AL34:_tag_day_hour!BM34,0)))-13,4),"_",""),"")</f>
-        <v/>
-      </c>
-      <c r="S13" s="27" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!AL34:_tag_day_hour!BM34)=28,"",MIN(_tag_day_hour!AL34:_tag_day_hour!BM34))</f>
-        <v/>
-      </c>
-      <c r="T13" s="27" t="str">
-        <f>IF(_tag_day_hour!BN10="","",_tag_day_hour!BN10)</f>
-        <v/>
-      </c>
-      <c r="U13" s="27" t="str">
-        <f>IF(_tag_day_hour!BO10="","",_tag_day_hour!BO10)</f>
-        <v/>
-      </c>
-      <c r="V13" s="33" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!BP34:_tag_day_hour!CQ34)=28,"",AVERAGE(_tag_day_hour!BP34:_tag_day_hour!CQ34))</f>
-        <v/>
-      </c>
-      <c r="W13" s="34" t="str">
-        <f>IF(_fanchui7_day_hour!B10="","",_fanchui7_day_hour!B10)</f>
-        <v/>
-      </c>
-      <c r="X13" s="33" t="str">
-        <f ca="1">IFERROR(AVERAGE(_fanchui7_day_hour!C10:_fanchui7_day_hour!F10)-_fanchui7_day_hour!G10,"")</f>
-        <v/>
-      </c>
-      <c r="Y13" s="33" t="str">
-        <f ca="1">IFERROR(AVERAGE(_fanchui7_day_hour!H10:_fanchui7_day_hour!K10)-_fanchui7_day_hour!L10,"")</f>
-        <v/>
-      </c>
-      <c r="Z13" s="27" t="str">
-        <f>IF(_maxmin_day_hour!A10="","",_maxmin_day_hour!A10)</f>
-        <v/>
-      </c>
-      <c r="AA13" s="27" t="str">
-        <f>IF(_maxmin_day_hour!B10="","",_maxmin_day_hour!B10)</f>
-        <v/>
-      </c>
-      <c r="AB13" s="42" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" s="11" customFormat="1" spans="1:28">
-      <c r="A14" s="25">
-        <v>10</v>
-      </c>
-      <c r="B14" s="26" t="str">
-        <f ca="1">IF(COUNTA(_tag_day_hour!A11:_tag_day_hour!AB11)=0,"",COUNTIF(_tag_day_hour!A11:_tag_day_hour!AB11,"=0"))</f>
-        <v/>
-      </c>
-      <c r="C14" s="27" t="str">
-        <f>IF(_tag_day_hour!AC11="","",_tag_day_hour!AC11)</f>
-        <v/>
-      </c>
-      <c r="D14" s="27" t="str">
-        <f>IF(_tag_day_hour!AD11="","",_tag_day_hour!AD11)</f>
-        <v/>
-      </c>
-      <c r="E14" s="27" t="str">
-        <f>IF(_tag_day_hour!AE11="","",_tag_day_hour!AE11)</f>
-        <v/>
-      </c>
-      <c r="F14" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G14" s="27" t="str">
-        <f>IF(_tag_day_hour!AF11="","",_tag_day_hour!AF11)</f>
-        <v/>
-      </c>
-      <c r="H14" s="27" t="str">
-        <f>IF(_tag_day_hour!AG11="","",_tag_day_hour!AG11)</f>
-        <v/>
-      </c>
-      <c r="I14" s="27" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J14" s="27" t="str">
-        <f>IF(_tag_day_hour!AH11="","",_tag_day_hour!AH11)</f>
-        <v/>
-      </c>
-      <c r="K14" s="27" t="str">
-        <f>IF(_tag_day_hour!AI11="","",_tag_day_hour!AI11)</f>
-        <v/>
-      </c>
-      <c r="L14" s="27" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M14" s="27" t="str">
-        <f>IF(_tag_day_hour!AJ11="","",_tag_day_hour!AJ11)</f>
-        <v/>
-      </c>
-      <c r="N14" s="27" t="str">
-        <f>IF(_tag_day_hour!AK11="","",_tag_day_hour!AK11)</f>
-        <v/>
-      </c>
-      <c r="O14" s="27" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="P14" s="26" t="str">
-        <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$AL$1:_tag_day_hour!$BM$1,MATCH(MAX(_tag_day_hour!AL35:_tag_day_hour!BM35),_tag_day_hour!AL35:_tag_day_hour!BM35,0)),LEN(INDEX(_tag_day_hour!$AL$1:_tag_day_hour!$BM$1,MATCH(MAX(_tag_day_hour!AL35:_tag_day_hour!BM35),_tag_day_hour!AL35:_tag_day_hour!BM35,0)))-13,4),"_",""),"")</f>
-        <v/>
-      </c>
-      <c r="Q14" s="27" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!AL35:_tag_day_hour!BM35)=28,"",MAX(_tag_day_hour!AL35:_tag_day_hour!BM35))</f>
-        <v/>
-      </c>
-      <c r="R14" s="26" t="str">
-        <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$AL$1:_tag_day_hour!$BM$1,MATCH(MIN(_tag_day_hour!AL35:_tag_day_hour!BM35),_tag_day_hour!AL35:_tag_day_hour!BM35,0)),LEN(INDEX(_tag_day_hour!$AL$1:_tag_day_hour!$BM$1,MATCH(MIN(_tag_day_hour!AL35:_tag_day_hour!BM35),_tag_day_hour!AL35:_tag_day_hour!BM35,0)))-13,4),"_",""),"")</f>
-        <v/>
-      </c>
-      <c r="S14" s="27" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!AL35:_tag_day_hour!BM35)=28,"",MIN(_tag_day_hour!AL35:_tag_day_hour!BM35))</f>
-        <v/>
-      </c>
-      <c r="T14" s="27" t="str">
-        <f>IF(_tag_day_hour!BN11="","",_tag_day_hour!BN11)</f>
-        <v/>
-      </c>
-      <c r="U14" s="27" t="str">
-        <f>IF(_tag_day_hour!BO11="","",_tag_day_hour!BO11)</f>
-        <v/>
-      </c>
-      <c r="V14" s="33" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!BP35:_tag_day_hour!CQ35)=28,"",AVERAGE(_tag_day_hour!BP35:_tag_day_hour!CQ35))</f>
-        <v/>
-      </c>
-      <c r="W14" s="34" t="str">
-        <f>IF(_fanchui7_day_hour!B11="","",_fanchui7_day_hour!B11)</f>
-        <v/>
-      </c>
-      <c r="X14" s="33" t="str">
-        <f ca="1">IFERROR(AVERAGE(_fanchui7_day_hour!C11:_fanchui7_day_hour!F11)-_fanchui7_day_hour!G11,"")</f>
-        <v/>
-      </c>
-      <c r="Y14" s="33" t="str">
-        <f ca="1">IFERROR(AVERAGE(_fanchui7_day_hour!H11:_fanchui7_day_hour!K11)-_fanchui7_day_hour!L11,"")</f>
-        <v/>
-      </c>
-      <c r="Z14" s="27" t="str">
-        <f>IF(_maxmin_day_hour!A11="","",_maxmin_day_hour!A11)</f>
-        <v/>
-      </c>
-      <c r="AA14" s="27" t="str">
-        <f>IF(_maxmin_day_hour!B11="","",_maxmin_day_hour!B11)</f>
-        <v/>
-      </c>
-      <c r="AB14" s="43"/>
-    </row>
-    <row r="15" s="11" customFormat="1" ht="14.25" spans="1:28">
-      <c r="A15" s="22">
-        <v>11</v>
-      </c>
-      <c r="B15" s="26" t="str">
-        <f ca="1">IF(COUNTA(_tag_day_hour!A12:_tag_day_hour!AB12)=0,"",COUNTIF(_tag_day_hour!A12:_tag_day_hour!AB12,"=0"))</f>
-        <v/>
-      </c>
-      <c r="C15" s="27" t="str">
-        <f>IF(_tag_day_hour!AC12="","",_tag_day_hour!AC12)</f>
-        <v/>
-      </c>
-      <c r="D15" s="27" t="str">
-        <f>IF(_tag_day_hour!AD12="","",_tag_day_hour!AD12)</f>
-        <v/>
-      </c>
-      <c r="E15" s="27" t="str">
-        <f>IF(_tag_day_hour!AE12="","",_tag_day_hour!AE12)</f>
-        <v/>
-      </c>
-      <c r="F15" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G15" s="27" t="str">
-        <f>IF(_tag_day_hour!AF12="","",_tag_day_hour!AF12)</f>
-        <v/>
-      </c>
-      <c r="H15" s="27" t="str">
-        <f>IF(_tag_day_hour!AG12="","",_tag_day_hour!AG12)</f>
-        <v/>
-      </c>
-      <c r="I15" s="27" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J15" s="27" t="str">
-        <f>IF(_tag_day_hour!AH12="","",_tag_day_hour!AH12)</f>
-        <v/>
-      </c>
-      <c r="K15" s="27" t="str">
-        <f>IF(_tag_day_hour!AI12="","",_tag_day_hour!AI12)</f>
-        <v/>
-      </c>
-      <c r="L15" s="27" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M15" s="27" t="str">
-        <f>IF(_tag_day_hour!AJ12="","",_tag_day_hour!AJ12)</f>
-        <v/>
-      </c>
-      <c r="N15" s="27" t="str">
-        <f>IF(_tag_day_hour!AK12="","",_tag_day_hour!AK12)</f>
-        <v/>
-      </c>
-      <c r="O15" s="27" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="P15" s="26" t="str">
-        <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$AL$1:_tag_day_hour!$BM$1,MATCH(MAX(_tag_day_hour!AL36:_tag_day_hour!BM36),_tag_day_hour!AL36:_tag_day_hour!BM36,0)),LEN(INDEX(_tag_day_hour!$AL$1:_tag_day_hour!$BM$1,MATCH(MAX(_tag_day_hour!AL36:_tag_day_hour!BM36),_tag_day_hour!AL36:_tag_day_hour!BM36,0)))-13,4),"_",""),"")</f>
-        <v/>
-      </c>
-      <c r="Q15" s="27" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!AL36:_tag_day_hour!BM36)=28,"",MAX(_tag_day_hour!AL36:_tag_day_hour!BM36))</f>
-        <v/>
-      </c>
-      <c r="R15" s="26" t="str">
-        <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$AL$1:_tag_day_hour!$BM$1,MATCH(MIN(_tag_day_hour!AL36:_tag_day_hour!BM36),_tag_day_hour!AL36:_tag_day_hour!BM36,0)),LEN(INDEX(_tag_day_hour!$AL$1:_tag_day_hour!$BM$1,MATCH(MIN(_tag_day_hour!AL36:_tag_day_hour!BM36),_tag_day_hour!AL36:_tag_day_hour!BM36,0)))-13,4),"_",""),"")</f>
-        <v/>
-      </c>
-      <c r="S15" s="27" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!AL36:_tag_day_hour!BM36)=28,"",MIN(_tag_day_hour!AL36:_tag_day_hour!BM36))</f>
-        <v/>
-      </c>
-      <c r="T15" s="27" t="str">
-        <f>IF(_tag_day_hour!BN12="","",_tag_day_hour!BN12)</f>
-        <v/>
-      </c>
-      <c r="U15" s="27" t="str">
-        <f>IF(_tag_day_hour!BO12="","",_tag_day_hour!BO12)</f>
-        <v/>
-      </c>
-      <c r="V15" s="33" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!BP36:_tag_day_hour!CQ36)=28,"",AVERAGE(_tag_day_hour!BP36:_tag_day_hour!CQ36))</f>
-        <v/>
-      </c>
-      <c r="W15" s="34" t="str">
-        <f>IF(_fanchui7_day_hour!B12="","",_fanchui7_day_hour!B12)</f>
-        <v/>
-      </c>
-      <c r="X15" s="33" t="str">
-        <f ca="1">IFERROR(AVERAGE(_fanchui7_day_hour!C12:_fanchui7_day_hour!F12)-_fanchui7_day_hour!G12,"")</f>
-        <v/>
-      </c>
-      <c r="Y15" s="33" t="str">
-        <f ca="1">IFERROR(AVERAGE(_fanchui7_day_hour!H12:_fanchui7_day_hour!K12)-_fanchui7_day_hour!L12,"")</f>
-        <v/>
-      </c>
-      <c r="Z15" s="27" t="str">
-        <f>IF(_maxmin_day_hour!A12="","",_maxmin_day_hour!A12)</f>
-        <v/>
-      </c>
-      <c r="AA15" s="27" t="str">
-        <f>IF(_maxmin_day_hour!B12="","",_maxmin_day_hour!B12)</f>
-        <v/>
-      </c>
-      <c r="AB15" s="43"/>
-    </row>
-    <row r="16" s="11" customFormat="1" spans="1:28">
-      <c r="A16" s="25">
-        <v>12</v>
-      </c>
-      <c r="B16" s="26" t="str">
-        <f ca="1">IF(COUNTA(_tag_day_hour!A13:_tag_day_hour!AB13)=0,"",COUNTIF(_tag_day_hour!A13:_tag_day_hour!AB13,"=0"))</f>
-        <v/>
-      </c>
-      <c r="C16" s="27" t="str">
-        <f>IF(_tag_day_hour!AC13="","",_tag_day_hour!AC13)</f>
-        <v/>
-      </c>
-      <c r="D16" s="27" t="str">
-        <f>IF(_tag_day_hour!AD13="","",_tag_day_hour!AD13)</f>
-        <v/>
-      </c>
-      <c r="E16" s="27" t="str">
-        <f>IF(_tag_day_hour!AE13="","",_tag_day_hour!AE13)</f>
-        <v/>
-      </c>
-      <c r="F16" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G16" s="27" t="str">
-        <f>IF(_tag_day_hour!AF13="","",_tag_day_hour!AF13)</f>
-        <v/>
-      </c>
-      <c r="H16" s="27" t="str">
-        <f>IF(_tag_day_hour!AG13="","",_tag_day_hour!AG13)</f>
-        <v/>
-      </c>
-      <c r="I16" s="27" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J16" s="27" t="str">
-        <f>IF(_tag_day_hour!AH13="","",_tag_day_hour!AH13)</f>
-        <v/>
-      </c>
-      <c r="K16" s="27" t="str">
-        <f>IF(_tag_day_hour!AI13="","",_tag_day_hour!AI13)</f>
-        <v/>
-      </c>
-      <c r="L16" s="27" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M16" s="27" t="str">
-        <f>IF(_tag_day_hour!AJ13="","",_tag_day_hour!AJ13)</f>
-        <v/>
-      </c>
-      <c r="N16" s="27" t="str">
-        <f>IF(_tag_day_hour!AK13="","",_tag_day_hour!AK13)</f>
-        <v/>
-      </c>
-      <c r="O16" s="27" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="P16" s="26" t="str">
-        <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$AL$1:_tag_day_hour!$BM$1,MATCH(MAX(_tag_day_hour!AL37:_tag_day_hour!BM37),_tag_day_hour!AL37:_tag_day_hour!BM37,0)),LEN(INDEX(_tag_day_hour!$AL$1:_tag_day_hour!$BM$1,MATCH(MAX(_tag_day_hour!AL37:_tag_day_hour!BM37),_tag_day_hour!AL37:_tag_day_hour!BM37,0)))-13,4),"_",""),"")</f>
-        <v/>
-      </c>
-      <c r="Q16" s="27" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!AL37:_tag_day_hour!BM37)=28,"",MAX(_tag_day_hour!AL37:_tag_day_hour!BM37))</f>
-        <v/>
-      </c>
-      <c r="R16" s="26" t="str">
-        <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$AL$1:_tag_day_hour!$BM$1,MATCH(MIN(_tag_day_hour!AL37:_tag_day_hour!BM37),_tag_day_hour!AL37:_tag_day_hour!BM37,0)),LEN(INDEX(_tag_day_hour!$AL$1:_tag_day_hour!$BM$1,MATCH(MIN(_tag_day_hour!AL37:_tag_day_hour!BM37),_tag_day_hour!AL37:_tag_day_hour!BM37,0)))-13,4),"_",""),"")</f>
-        <v/>
-      </c>
-      <c r="S16" s="27" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!AL37:_tag_day_hour!BM37)=28,"",MIN(_tag_day_hour!AL37:_tag_day_hour!BM37))</f>
-        <v/>
-      </c>
-      <c r="T16" s="27" t="str">
-        <f>IF(_tag_day_hour!BN13="","",_tag_day_hour!BN13)</f>
-        <v/>
-      </c>
-      <c r="U16" s="27" t="str">
-        <f>IF(_tag_day_hour!BO13="","",_tag_day_hour!BO13)</f>
-        <v/>
-      </c>
-      <c r="V16" s="33" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!BP37:_tag_day_hour!CQ37)=28,"",AVERAGE(_tag_day_hour!BP37:_tag_day_hour!CQ37))</f>
-        <v/>
-      </c>
-      <c r="W16" s="34" t="str">
-        <f>IF(_fanchui7_day_hour!B13="","",_fanchui7_day_hour!B13)</f>
-        <v/>
-      </c>
-      <c r="X16" s="33" t="str">
-        <f ca="1">IFERROR(AVERAGE(_fanchui7_day_hour!C13:_fanchui7_day_hour!F13)-_fanchui7_day_hour!G13,"")</f>
-        <v/>
-      </c>
-      <c r="Y16" s="33" t="str">
-        <f ca="1">IFERROR(AVERAGE(_fanchui7_day_hour!H13:_fanchui7_day_hour!K13)-_fanchui7_day_hour!L13,"")</f>
-        <v/>
-      </c>
-      <c r="Z16" s="27" t="str">
-        <f>IF(_maxmin_day_hour!A13="","",_maxmin_day_hour!A13)</f>
-        <v/>
-      </c>
-      <c r="AA16" s="27" t="str">
-        <f>IF(_maxmin_day_hour!B13="","",_maxmin_day_hour!B13)</f>
-        <v/>
-      </c>
-      <c r="AB16" s="43"/>
-    </row>
-    <row r="17" s="11" customFormat="1" ht="14.25" spans="1:28">
-      <c r="A17" s="22">
-        <v>13</v>
-      </c>
-      <c r="B17" s="26" t="str">
-        <f ca="1">IF(COUNTA(_tag_day_hour!A14:_tag_day_hour!AB14)=0,"",COUNTIF(_tag_day_hour!A14:_tag_day_hour!AB14,"=0"))</f>
-        <v/>
-      </c>
-      <c r="C17" s="27" t="str">
-        <f>IF(_tag_day_hour!AC14="","",_tag_day_hour!AC14)</f>
-        <v/>
-      </c>
-      <c r="D17" s="27" t="str">
-        <f>IF(_tag_day_hour!AD14="","",_tag_day_hour!AD14)</f>
-        <v/>
-      </c>
-      <c r="E17" s="27" t="str">
-        <f>IF(_tag_day_hour!AE14="","",_tag_day_hour!AE14)</f>
-        <v/>
-      </c>
-      <c r="F17" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G17" s="27" t="str">
-        <f>IF(_tag_day_hour!AF14="","",_tag_day_hour!AF14)</f>
-        <v/>
-      </c>
-      <c r="H17" s="27" t="str">
-        <f>IF(_tag_day_hour!AG14="","",_tag_day_hour!AG14)</f>
-        <v/>
-      </c>
-      <c r="I17" s="27" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J17" s="27" t="str">
-        <f>IF(_tag_day_hour!AH14="","",_tag_day_hour!AH14)</f>
-        <v/>
-      </c>
-      <c r="K17" s="27" t="str">
-        <f>IF(_tag_day_hour!AI14="","",_tag_day_hour!AI14)</f>
-        <v/>
-      </c>
-      <c r="L17" s="27" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M17" s="27" t="str">
-        <f>IF(_tag_day_hour!AJ14="","",_tag_day_hour!AJ14)</f>
-        <v/>
-      </c>
-      <c r="N17" s="27" t="str">
-        <f>IF(_tag_day_hour!AK14="","",_tag_day_hour!AK14)</f>
-        <v/>
-      </c>
-      <c r="O17" s="27" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="P17" s="26" t="str">
-        <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$AL$1:_tag_day_hour!$BM$1,MATCH(MAX(_tag_day_hour!AL38:_tag_day_hour!BM38),_tag_day_hour!AL38:_tag_day_hour!BM38,0)),LEN(INDEX(_tag_day_hour!$AL$1:_tag_day_hour!$BM$1,MATCH(MAX(_tag_day_hour!AL38:_tag_day_hour!BM38),_tag_day_hour!AL38:_tag_day_hour!BM38,0)))-13,4),"_",""),"")</f>
-        <v/>
-      </c>
-      <c r="Q17" s="27" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!AL38:_tag_day_hour!BM38)=28,"",MAX(_tag_day_hour!AL38:_tag_day_hour!BM38))</f>
-        <v/>
-      </c>
-      <c r="R17" s="26" t="str">
-        <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$AL$1:_tag_day_hour!$BM$1,MATCH(MIN(_tag_day_hour!AL38:_tag_day_hour!BM38),_tag_day_hour!AL38:_tag_day_hour!BM38,0)),LEN(INDEX(_tag_day_hour!$AL$1:_tag_day_hour!$BM$1,MATCH(MIN(_tag_day_hour!AL38:_tag_day_hour!BM38),_tag_day_hour!AL38:_tag_day_hour!BM38,0)))-13,4),"_",""),"")</f>
-        <v/>
-      </c>
-      <c r="S17" s="27" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!AL38:_tag_day_hour!BM38)=28,"",MIN(_tag_day_hour!AL38:_tag_day_hour!BM38))</f>
-        <v/>
-      </c>
-      <c r="T17" s="27" t="str">
-        <f>IF(_tag_day_hour!BN14="","",_tag_day_hour!BN14)</f>
-        <v/>
-      </c>
-      <c r="U17" s="27" t="str">
-        <f>IF(_tag_day_hour!BO14="","",_tag_day_hour!BO14)</f>
-        <v/>
-      </c>
-      <c r="V17" s="33" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!BP38:_tag_day_hour!CQ38)=28,"",AVERAGE(_tag_day_hour!BP38:_tag_day_hour!CQ38))</f>
-        <v/>
-      </c>
-      <c r="W17" s="34" t="str">
-        <f>IF(_fanchui7_day_hour!B14="","",_fanchui7_day_hour!B14)</f>
-        <v/>
-      </c>
-      <c r="X17" s="33" t="str">
-        <f ca="1">IFERROR(AVERAGE(_fanchui7_day_hour!C14:_fanchui7_day_hour!F14)-_fanchui7_day_hour!G14,"")</f>
-        <v/>
-      </c>
-      <c r="Y17" s="33" t="str">
-        <f ca="1">IFERROR(AVERAGE(_fanchui7_day_hour!H14:_fanchui7_day_hour!K14)-_fanchui7_day_hour!L14,"")</f>
-        <v/>
-      </c>
-      <c r="Z17" s="27" t="str">
-        <f>IF(_maxmin_day_hour!A14="","",_maxmin_day_hour!A14)</f>
-        <v/>
-      </c>
-      <c r="AA17" s="27" t="str">
-        <f>IF(_maxmin_day_hour!B14="","",_maxmin_day_hour!B14)</f>
-        <v/>
-      </c>
-      <c r="AB17" s="43"/>
-    </row>
-    <row r="18" s="11" customFormat="1" spans="1:28">
-      <c r="A18" s="25">
-        <v>14</v>
-      </c>
-      <c r="B18" s="26" t="str">
-        <f ca="1">IF(COUNTA(_tag_day_hour!A15:_tag_day_hour!AB15)=0,"",COUNTIF(_tag_day_hour!A15:_tag_day_hour!AB15,"=0"))</f>
-        <v/>
-      </c>
-      <c r="C18" s="27" t="str">
-        <f>IF(_tag_day_hour!AC15="","",_tag_day_hour!AC15)</f>
-        <v/>
-      </c>
-      <c r="D18" s="27" t="str">
-        <f>IF(_tag_day_hour!AD15="","",_tag_day_hour!AD15)</f>
-        <v/>
-      </c>
-      <c r="E18" s="27" t="str">
-        <f>IF(_tag_day_hour!AE15="","",_tag_day_hour!AE15)</f>
-        <v/>
-      </c>
-      <c r="F18" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G18" s="27" t="str">
-        <f>IF(_tag_day_hour!AF15="","",_tag_day_hour!AF15)</f>
-        <v/>
-      </c>
-      <c r="H18" s="27" t="str">
-        <f>IF(_tag_day_hour!AG15="","",_tag_day_hour!AG15)</f>
-        <v/>
-      </c>
-      <c r="I18" s="27" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J18" s="27" t="str">
-        <f>IF(_tag_day_hour!AH15="","",_tag_day_hour!AH15)</f>
-        <v/>
-      </c>
-      <c r="K18" s="27" t="str">
-        <f>IF(_tag_day_hour!AI15="","",_tag_day_hour!AI15)</f>
-        <v/>
-      </c>
-      <c r="L18" s="27" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M18" s="27" t="str">
-        <f>IF(_tag_day_hour!AJ15="","",_tag_day_hour!AJ15)</f>
-        <v/>
-      </c>
-      <c r="N18" s="27" t="str">
-        <f>IF(_tag_day_hour!AK15="","",_tag_day_hour!AK15)</f>
-        <v/>
-      </c>
-      <c r="O18" s="27" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="P18" s="26" t="str">
-        <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$AL$1:_tag_day_hour!$BM$1,MATCH(MAX(_tag_day_hour!AL39:_tag_day_hour!BM39),_tag_day_hour!AL39:_tag_day_hour!BM39,0)),LEN(INDEX(_tag_day_hour!$AL$1:_tag_day_hour!$BM$1,MATCH(MAX(_tag_day_hour!AL39:_tag_day_hour!BM39),_tag_day_hour!AL39:_tag_day_hour!BM39,0)))-13,4),"_",""),"")</f>
-        <v/>
-      </c>
-      <c r="Q18" s="27" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!AL39:_tag_day_hour!BM39)=28,"",MAX(_tag_day_hour!AL39:_tag_day_hour!BM39))</f>
-        <v/>
-      </c>
-      <c r="R18" s="26" t="str">
-        <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$AL$1:_tag_day_hour!$BM$1,MATCH(MIN(_tag_day_hour!AL39:_tag_day_hour!BM39),_tag_day_hour!AL39:_tag_day_hour!BM39,0)),LEN(INDEX(_tag_day_hour!$AL$1:_tag_day_hour!$BM$1,MATCH(MIN(_tag_day_hour!AL39:_tag_day_hour!BM39),_tag_day_hour!AL39:_tag_day_hour!BM39,0)))-13,4),"_",""),"")</f>
-        <v/>
-      </c>
-      <c r="S18" s="27" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!AL39:_tag_day_hour!BM39)=28,"",MIN(_tag_day_hour!AL39:_tag_day_hour!BM39))</f>
-        <v/>
-      </c>
-      <c r="T18" s="27" t="str">
-        <f>IF(_tag_day_hour!BN15="","",_tag_day_hour!BN15)</f>
-        <v/>
-      </c>
-      <c r="U18" s="27" t="str">
-        <f>IF(_tag_day_hour!BO15="","",_tag_day_hour!BO15)</f>
-        <v/>
-      </c>
-      <c r="V18" s="33" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!BP39:_tag_day_hour!CQ39)=28,"",AVERAGE(_tag_day_hour!BP39:_tag_day_hour!CQ39))</f>
-        <v/>
-      </c>
-      <c r="W18" s="34" t="str">
-        <f>IF(_fanchui7_day_hour!B15="","",_fanchui7_day_hour!B15)</f>
-        <v/>
-      </c>
-      <c r="X18" s="33" t="str">
-        <f ca="1">IFERROR(AVERAGE(_fanchui7_day_hour!C15:_fanchui7_day_hour!F15)-_fanchui7_day_hour!G15,"")</f>
-        <v/>
-      </c>
-      <c r="Y18" s="33" t="str">
-        <f ca="1">IFERROR(AVERAGE(_fanchui7_day_hour!H15:_fanchui7_day_hour!K15)-_fanchui7_day_hour!L15,"")</f>
-        <v/>
-      </c>
-      <c r="Z18" s="27" t="str">
-        <f>IF(_maxmin_day_hour!A15="","",_maxmin_day_hour!A15)</f>
-        <v/>
-      </c>
-      <c r="AA18" s="27" t="str">
-        <f>IF(_maxmin_day_hour!B15="","",_maxmin_day_hour!B15)</f>
-        <v/>
-      </c>
-      <c r="AB18" s="43"/>
-    </row>
-    <row r="19" s="11" customFormat="1" ht="14.25" spans="1:28">
-      <c r="A19" s="22">
-        <v>15</v>
-      </c>
-      <c r="B19" s="26" t="str">
-        <f ca="1">IF(COUNTA(_tag_day_hour!A16:_tag_day_hour!AB16)=0,"",COUNTIF(_tag_day_hour!A16:_tag_day_hour!AB16,"=0"))</f>
-        <v/>
-      </c>
-      <c r="C19" s="27" t="str">
-        <f>IF(_tag_day_hour!AC16="","",_tag_day_hour!AC16)</f>
-        <v/>
-      </c>
-      <c r="D19" s="27" t="str">
-        <f>IF(_tag_day_hour!AD16="","",_tag_day_hour!AD16)</f>
-        <v/>
-      </c>
-      <c r="E19" s="27" t="str">
-        <f>IF(_tag_day_hour!AE16="","",_tag_day_hour!AE16)</f>
-        <v/>
-      </c>
-      <c r="F19" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G19" s="27" t="str">
-        <f>IF(_tag_day_hour!AF16="","",_tag_day_hour!AF16)</f>
-        <v/>
-      </c>
-      <c r="H19" s="27" t="str">
-        <f>IF(_tag_day_hour!AG16="","",_tag_day_hour!AG16)</f>
-        <v/>
-      </c>
-      <c r="I19" s="27" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J19" s="27" t="str">
-        <f>IF(_tag_day_hour!AH16="","",_tag_day_hour!AH16)</f>
-        <v/>
-      </c>
-      <c r="K19" s="27" t="str">
-        <f>IF(_tag_day_hour!AI16="","",_tag_day_hour!AI16)</f>
-        <v/>
-      </c>
-      <c r="L19" s="27" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M19" s="27" t="str">
-        <f>IF(_tag_day_hour!AJ16="","",_tag_day_hour!AJ16)</f>
-        <v/>
-      </c>
-      <c r="N19" s="27" t="str">
-        <f>IF(_tag_day_hour!AK16="","",_tag_day_hour!AK16)</f>
-        <v/>
-      </c>
-      <c r="O19" s="27" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="P19" s="26" t="str">
-        <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$AL$1:_tag_day_hour!$BM$1,MATCH(MAX(_tag_day_hour!AL40:_tag_day_hour!BM40),_tag_day_hour!AL40:_tag_day_hour!BM40,0)),LEN(INDEX(_tag_day_hour!$AL$1:_tag_day_hour!$BM$1,MATCH(MAX(_tag_day_hour!AL40:_tag_day_hour!BM40),_tag_day_hour!AL40:_tag_day_hour!BM40,0)))-13,4),"_",""),"")</f>
-        <v/>
-      </c>
-      <c r="Q19" s="27" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!AL40:_tag_day_hour!BM40)=28,"",MAX(_tag_day_hour!AL40:_tag_day_hour!BM40))</f>
-        <v/>
-      </c>
-      <c r="R19" s="26" t="str">
-        <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$AL$1:_tag_day_hour!$BM$1,MATCH(MIN(_tag_day_hour!AL40:_tag_day_hour!BM40),_tag_day_hour!AL40:_tag_day_hour!BM40,0)),LEN(INDEX(_tag_day_hour!$AL$1:_tag_day_hour!$BM$1,MATCH(MIN(_tag_day_hour!AL40:_tag_day_hour!BM40),_tag_day_hour!AL40:_tag_day_hour!BM40,0)))-13,4),"_",""),"")</f>
-        <v/>
-      </c>
-      <c r="S19" s="27" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!AL40:_tag_day_hour!BM40)=28,"",MIN(_tag_day_hour!AL40:_tag_day_hour!BM40))</f>
-        <v/>
-      </c>
-      <c r="T19" s="27" t="str">
-        <f>IF(_tag_day_hour!BN16="","",_tag_day_hour!BN16)</f>
-        <v/>
-      </c>
-      <c r="U19" s="27" t="str">
-        <f>IF(_tag_day_hour!BO16="","",_tag_day_hour!BO16)</f>
-        <v/>
-      </c>
-      <c r="V19" s="33" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!BP40:_tag_day_hour!CQ40)=28,"",AVERAGE(_tag_day_hour!BP40:_tag_day_hour!CQ40))</f>
-        <v/>
-      </c>
-      <c r="W19" s="34" t="str">
-        <f>IF(_fanchui7_day_hour!B16="","",_fanchui7_day_hour!B16)</f>
-        <v/>
-      </c>
-      <c r="X19" s="33" t="str">
-        <f ca="1">IFERROR(AVERAGE(_fanchui7_day_hour!C16:_fanchui7_day_hour!F16)-_fanchui7_day_hour!G16,"")</f>
-        <v/>
-      </c>
-      <c r="Y19" s="33" t="str">
-        <f ca="1">IFERROR(AVERAGE(_fanchui7_day_hour!H16:_fanchui7_day_hour!K16)-_fanchui7_day_hour!L16,"")</f>
-        <v/>
-      </c>
-      <c r="Z19" s="27" t="str">
-        <f>IF(_maxmin_day_hour!A16="","",_maxmin_day_hour!A16)</f>
-        <v/>
-      </c>
-      <c r="AA19" s="27" t="str">
-        <f>IF(_maxmin_day_hour!B16="","",_maxmin_day_hour!B16)</f>
-        <v/>
-      </c>
-      <c r="AB19" s="43"/>
-    </row>
-    <row r="20" s="11" customFormat="1" spans="1:28">
-      <c r="A20" s="25">
-        <v>16</v>
-      </c>
-      <c r="B20" s="26" t="str">
-        <f ca="1">IF(COUNTA(_tag_day_hour!A17:_tag_day_hour!AB17)=0,"",COUNTIF(_tag_day_hour!A17:_tag_day_hour!AB17,"=0"))</f>
-        <v/>
-      </c>
-      <c r="C20" s="27" t="str">
-        <f>IF(_tag_day_hour!AC17="","",_tag_day_hour!AC17)</f>
-        <v/>
-      </c>
-      <c r="D20" s="27" t="str">
-        <f>IF(_tag_day_hour!AD17="","",_tag_day_hour!AD17)</f>
-        <v/>
-      </c>
-      <c r="E20" s="27" t="str">
-        <f>IF(_tag_day_hour!AE17="","",_tag_day_hour!AE17)</f>
-        <v/>
-      </c>
-      <c r="F20" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G20" s="27" t="str">
-        <f>IF(_tag_day_hour!AF17="","",_tag_day_hour!AF17)</f>
-        <v/>
-      </c>
-      <c r="H20" s="27" t="str">
-        <f>IF(_tag_day_hour!AG17="","",_tag_day_hour!AG17)</f>
-        <v/>
-      </c>
-      <c r="I20" s="27" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J20" s="27" t="str">
-        <f>IF(_tag_day_hour!AH17="","",_tag_day_hour!AH17)</f>
-        <v/>
-      </c>
-      <c r="K20" s="27" t="str">
-        <f>IF(_tag_day_hour!AI17="","",_tag_day_hour!AI17)</f>
-        <v/>
-      </c>
-      <c r="L20" s="27" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M20" s="27" t="str">
-        <f>IF(_tag_day_hour!AJ17="","",_tag_day_hour!AJ17)</f>
-        <v/>
-      </c>
-      <c r="N20" s="27" t="str">
-        <f>IF(_tag_day_hour!AK17="","",_tag_day_hour!AK17)</f>
-        <v/>
-      </c>
-      <c r="O20" s="27" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="P20" s="26" t="str">
-        <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$AL$1:_tag_day_hour!$BM$1,MATCH(MAX(_tag_day_hour!AL41:_tag_day_hour!BM41),_tag_day_hour!AL41:_tag_day_hour!BM41,0)),LEN(INDEX(_tag_day_hour!$AL$1:_tag_day_hour!$BM$1,MATCH(MAX(_tag_day_hour!AL41:_tag_day_hour!BM41),_tag_day_hour!AL41:_tag_day_hour!BM41,0)))-13,4),"_",""),"")</f>
-        <v/>
-      </c>
-      <c r="Q20" s="27" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!AL41:_tag_day_hour!BM41)=28,"",MAX(_tag_day_hour!AL41:_tag_day_hour!BM41))</f>
-        <v/>
-      </c>
-      <c r="R20" s="26" t="str">
-        <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$AL$1:_tag_day_hour!$BM$1,MATCH(MIN(_tag_day_hour!AL41:_tag_day_hour!BM41),_tag_day_hour!AL41:_tag_day_hour!BM41,0)),LEN(INDEX(_tag_day_hour!$AL$1:_tag_day_hour!$BM$1,MATCH(MIN(_tag_day_hour!AL41:_tag_day_hour!BM41),_tag_day_hour!AL41:_tag_day_hour!BM41,0)))-13,4),"_",""),"")</f>
-        <v/>
-      </c>
-      <c r="S20" s="27" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!AL41:_tag_day_hour!BM41)=28,"",MIN(_tag_day_hour!AL41:_tag_day_hour!BM41))</f>
-        <v/>
-      </c>
-      <c r="T20" s="27" t="str">
-        <f>IF(_tag_day_hour!BN17="","",_tag_day_hour!BN17)</f>
-        <v/>
-      </c>
-      <c r="U20" s="27" t="str">
-        <f>IF(_tag_day_hour!BO17="","",_tag_day_hour!BO17)</f>
-        <v/>
-      </c>
-      <c r="V20" s="33" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!BP41:_tag_day_hour!CQ41)=28,"",AVERAGE(_tag_day_hour!BP41:_tag_day_hour!CQ41))</f>
-        <v/>
-      </c>
-      <c r="W20" s="34" t="str">
-        <f>IF(_fanchui7_day_hour!B17="","",_fanchui7_day_hour!B17)</f>
-        <v/>
-      </c>
-      <c r="X20" s="33" t="str">
-        <f ca="1">IFERROR(AVERAGE(_fanchui7_day_hour!C17:_fanchui7_day_hour!F17)-_fanchui7_day_hour!G17,"")</f>
-        <v/>
-      </c>
-      <c r="Y20" s="33" t="str">
-        <f ca="1">IFERROR(AVERAGE(_fanchui7_day_hour!H17:_fanchui7_day_hour!K17)-_fanchui7_day_hour!L17,"")</f>
-        <v/>
-      </c>
-      <c r="Z20" s="27" t="str">
-        <f>IF(_maxmin_day_hour!A17="","",_maxmin_day_hour!A17)</f>
-        <v/>
-      </c>
-      <c r="AA20" s="27" t="str">
-        <f>IF(_maxmin_day_hour!B17="","",_maxmin_day_hour!B17)</f>
-        <v/>
-      </c>
-      <c r="AB20" s="43"/>
-    </row>
-    <row r="21" s="11" customFormat="1" ht="14.25" spans="1:28">
-      <c r="A21" s="22">
-        <v>17</v>
-      </c>
-      <c r="B21" s="26" t="str">
-        <f ca="1">IF(COUNTA(_tag_day_hour!A18:_tag_day_hour!AB18)=0,"",COUNTIF(_tag_day_hour!A18:_tag_day_hour!AB18,"=0"))</f>
-        <v/>
-      </c>
-      <c r="C21" s="27" t="str">
-        <f>IF(_tag_day_hour!AC18="","",_tag_day_hour!AC18)</f>
-        <v/>
-      </c>
-      <c r="D21" s="27" t="str">
-        <f>IF(_tag_day_hour!AD18="","",_tag_day_hour!AD18)</f>
-        <v/>
-      </c>
-      <c r="E21" s="27" t="str">
-        <f>IF(_tag_day_hour!AE18="","",_tag_day_hour!AE18)</f>
-        <v/>
-      </c>
-      <c r="F21" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G21" s="27" t="str">
-        <f>IF(_tag_day_hour!AF18="","",_tag_day_hour!AF18)</f>
-        <v/>
-      </c>
-      <c r="H21" s="27" t="str">
-        <f>IF(_tag_day_hour!AG18="","",_tag_day_hour!AG18)</f>
-        <v/>
-      </c>
-      <c r="I21" s="27" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J21" s="27" t="str">
-        <f>IF(_tag_day_hour!AH18="","",_tag_day_hour!AH18)</f>
-        <v/>
-      </c>
-      <c r="K21" s="27" t="str">
-        <f>IF(_tag_day_hour!AI18="","",_tag_day_hour!AI18)</f>
-        <v/>
-      </c>
-      <c r="L21" s="27" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M21" s="27" t="str">
-        <f>IF(_tag_day_hour!AJ18="","",_tag_day_hour!AJ18)</f>
-        <v/>
-      </c>
-      <c r="N21" s="27" t="str">
-        <f>IF(_tag_day_hour!AK18="","",_tag_day_hour!AK18)</f>
-        <v/>
-      </c>
-      <c r="O21" s="27" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="P21" s="26" t="str">
-        <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$AL$1:_tag_day_hour!$BM$1,MATCH(MAX(_tag_day_hour!AL42:_tag_day_hour!BM42),_tag_day_hour!AL42:_tag_day_hour!BM42,0)),LEN(INDEX(_tag_day_hour!$AL$1:_tag_day_hour!$BM$1,MATCH(MAX(_tag_day_hour!AL42:_tag_day_hour!BM42),_tag_day_hour!AL42:_tag_day_hour!BM42,0)))-13,4),"_",""),"")</f>
-        <v/>
-      </c>
-      <c r="Q21" s="27" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!AL42:_tag_day_hour!BM42)=28,"",MAX(_tag_day_hour!AL42:_tag_day_hour!BM42))</f>
-        <v/>
-      </c>
-      <c r="R21" s="26" t="str">
-        <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$AL$1:_tag_day_hour!$BM$1,MATCH(MIN(_tag_day_hour!AL42:_tag_day_hour!BM42),_tag_day_hour!AL42:_tag_day_hour!BM42,0)),LEN(INDEX(_tag_day_hour!$AL$1:_tag_day_hour!$BM$1,MATCH(MIN(_tag_day_hour!AL42:_tag_day_hour!BM42),_tag_day_hour!AL42:_tag_day_hour!BM42,0)))-13,4),"_",""),"")</f>
-        <v/>
-      </c>
-      <c r="S21" s="27" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!AL42:_tag_day_hour!BM42)=28,"",MIN(_tag_day_hour!AL42:_tag_day_hour!BM42))</f>
-        <v/>
-      </c>
-      <c r="T21" s="27" t="str">
-        <f>IF(_tag_day_hour!BN18="","",_tag_day_hour!BN18)</f>
-        <v/>
-      </c>
-      <c r="U21" s="27" t="str">
-        <f>IF(_tag_day_hour!BO18="","",_tag_day_hour!BO18)</f>
-        <v/>
-      </c>
-      <c r="V21" s="33" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!BP42:_tag_day_hour!CQ42)=28,"",AVERAGE(_tag_day_hour!BP42:_tag_day_hour!CQ42))</f>
-        <v/>
-      </c>
-      <c r="W21" s="34" t="str">
-        <f>IF(_fanchui7_day_hour!B18="","",_fanchui7_day_hour!B18)</f>
-        <v/>
-      </c>
-      <c r="X21" s="33" t="str">
-        <f ca="1">IFERROR(AVERAGE(_fanchui7_day_hour!C18:_fanchui7_day_hour!F18)-_fanchui7_day_hour!G18,"")</f>
-        <v/>
-      </c>
-      <c r="Y21" s="33" t="str">
-        <f ca="1">IFERROR(AVERAGE(_fanchui7_day_hour!H18:_fanchui7_day_hour!K18)-_fanchui7_day_hour!L18,"")</f>
-        <v/>
-      </c>
-      <c r="Z21" s="27" t="str">
-        <f>IF(_maxmin_day_hour!A18="","",_maxmin_day_hour!A18)</f>
-        <v/>
-      </c>
-      <c r="AA21" s="27" t="str">
-        <f>IF(_maxmin_day_hour!B18="","",_maxmin_day_hour!B18)</f>
-        <v/>
-      </c>
-      <c r="AB21" s="42" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" s="11" customFormat="1" spans="1:28">
-      <c r="A22" s="25">
-        <v>18</v>
-      </c>
-      <c r="B22" s="26" t="str">
-        <f ca="1">IF(COUNTA(_tag_day_hour!A19:_tag_day_hour!AB19)=0,"",COUNTIF(_tag_day_hour!A19:_tag_day_hour!AB19,"=0"))</f>
-        <v/>
-      </c>
-      <c r="C22" s="27" t="str">
-        <f>IF(_tag_day_hour!AC19="","",_tag_day_hour!AC19)</f>
-        <v/>
-      </c>
-      <c r="D22" s="27" t="str">
-        <f>IF(_tag_day_hour!AD19="","",_tag_day_hour!AD19)</f>
-        <v/>
-      </c>
-      <c r="E22" s="27" t="str">
-        <f>IF(_tag_day_hour!AE19="","",_tag_day_hour!AE19)</f>
-        <v/>
-      </c>
-      <c r="F22" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G22" s="27" t="str">
-        <f>IF(_tag_day_hour!AF19="","",_tag_day_hour!AF19)</f>
-        <v/>
-      </c>
-      <c r="H22" s="27" t="str">
-        <f>IF(_tag_day_hour!AG19="","",_tag_day_hour!AG19)</f>
-        <v/>
-      </c>
-      <c r="I22" s="27" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J22" s="27" t="str">
-        <f>IF(_tag_day_hour!AH19="","",_tag_day_hour!AH19)</f>
-        <v/>
-      </c>
-      <c r="K22" s="27" t="str">
-        <f>IF(_tag_day_hour!AI19="","",_tag_day_hour!AI19)</f>
-        <v/>
-      </c>
-      <c r="L22" s="27" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M22" s="27" t="str">
-        <f>IF(_tag_day_hour!AJ19="","",_tag_day_hour!AJ19)</f>
-        <v/>
-      </c>
-      <c r="N22" s="27" t="str">
-        <f>IF(_tag_day_hour!AK19="","",_tag_day_hour!AK19)</f>
-        <v/>
-      </c>
-      <c r="O22" s="27" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="P22" s="26" t="str">
-        <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$AL$1:_tag_day_hour!$BM$1,MATCH(MAX(_tag_day_hour!AL43:_tag_day_hour!BM43),_tag_day_hour!AL43:_tag_day_hour!BM43,0)),LEN(INDEX(_tag_day_hour!$AL$1:_tag_day_hour!$BM$1,MATCH(MAX(_tag_day_hour!AL43:_tag_day_hour!BM43),_tag_day_hour!AL43:_tag_day_hour!BM43,0)))-13,4),"_",""),"")</f>
-        <v/>
-      </c>
-      <c r="Q22" s="27" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!AL43:_tag_day_hour!BM43)=28,"",MAX(_tag_day_hour!AL43:_tag_day_hour!BM43))</f>
-        <v/>
-      </c>
-      <c r="R22" s="26" t="str">
-        <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$AL$1:_tag_day_hour!$BM$1,MATCH(MIN(_tag_day_hour!AL43:_tag_day_hour!BM43),_tag_day_hour!AL43:_tag_day_hour!BM43,0)),LEN(INDEX(_tag_day_hour!$AL$1:_tag_day_hour!$BM$1,MATCH(MIN(_tag_day_hour!AL43:_tag_day_hour!BM43),_tag_day_hour!AL43:_tag_day_hour!BM43,0)))-13,4),"_",""),"")</f>
-        <v/>
-      </c>
-      <c r="S22" s="27" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!AL43:_tag_day_hour!BM43)=28,"",MIN(_tag_day_hour!AL43:_tag_day_hour!BM43))</f>
-        <v/>
-      </c>
-      <c r="T22" s="27" t="str">
-        <f>IF(_tag_day_hour!BN19="","",_tag_day_hour!BN19)</f>
-        <v/>
-      </c>
-      <c r="U22" s="27" t="str">
-        <f>IF(_tag_day_hour!BO19="","",_tag_day_hour!BO19)</f>
-        <v/>
-      </c>
-      <c r="V22" s="33" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!BP43:_tag_day_hour!CQ43)=28,"",AVERAGE(_tag_day_hour!BP43:_tag_day_hour!CQ43))</f>
-        <v/>
-      </c>
-      <c r="W22" s="34" t="str">
-        <f>IF(_fanchui7_day_hour!B19="","",_fanchui7_day_hour!B19)</f>
-        <v/>
-      </c>
-      <c r="X22" s="33" t="str">
-        <f ca="1">IFERROR(AVERAGE(_fanchui7_day_hour!C19:_fanchui7_day_hour!F19)-_fanchui7_day_hour!G19,"")</f>
-        <v/>
-      </c>
-      <c r="Y22" s="33" t="str">
-        <f ca="1">IFERROR(AVERAGE(_fanchui7_day_hour!H19:_fanchui7_day_hour!K19)-_fanchui7_day_hour!L19,"")</f>
-        <v/>
-      </c>
-      <c r="Z22" s="27" t="str">
-        <f>IF(_maxmin_day_hour!A19="","",_maxmin_day_hour!A19)</f>
-        <v/>
-      </c>
-      <c r="AA22" s="27" t="str">
-        <f>IF(_maxmin_day_hour!B19="","",_maxmin_day_hour!B19)</f>
-        <v/>
-      </c>
-      <c r="AB22" s="43"/>
-    </row>
-    <row r="23" s="11" customFormat="1" ht="14.25" spans="1:28">
-      <c r="A23" s="22">
-        <v>19</v>
-      </c>
-      <c r="B23" s="26" t="str">
-        <f ca="1">IF(COUNTA(_tag_day_hour!A20:_tag_day_hour!AB20)=0,"",COUNTIF(_tag_day_hour!A20:_tag_day_hour!AB20,"=0"))</f>
-        <v/>
-      </c>
-      <c r="C23" s="27" t="str">
-        <f>IF(_tag_day_hour!AC20="","",_tag_day_hour!AC20)</f>
-        <v/>
-      </c>
-      <c r="D23" s="27" t="str">
-        <f>IF(_tag_day_hour!AD20="","",_tag_day_hour!AD20)</f>
-        <v/>
-      </c>
-      <c r="E23" s="27" t="str">
-        <f>IF(_tag_day_hour!AE20="","",_tag_day_hour!AE20)</f>
-        <v/>
-      </c>
-      <c r="F23" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G23" s="27" t="str">
-        <f>IF(_tag_day_hour!AF20="","",_tag_day_hour!AF20)</f>
-        <v/>
-      </c>
-      <c r="H23" s="27" t="str">
-        <f>IF(_tag_day_hour!AG20="","",_tag_day_hour!AG20)</f>
-        <v/>
-      </c>
-      <c r="I23" s="27" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J23" s="27" t="str">
-        <f>IF(_tag_day_hour!AH20="","",_tag_day_hour!AH20)</f>
-        <v/>
-      </c>
-      <c r="K23" s="27" t="str">
-        <f>IF(_tag_day_hour!AI20="","",_tag_day_hour!AI20)</f>
-        <v/>
-      </c>
-      <c r="L23" s="27" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M23" s="27" t="str">
-        <f>IF(_tag_day_hour!AJ20="","",_tag_day_hour!AJ20)</f>
-        <v/>
-      </c>
-      <c r="N23" s="27" t="str">
-        <f>IF(_tag_day_hour!AK20="","",_tag_day_hour!AK20)</f>
-        <v/>
-      </c>
-      <c r="O23" s="27" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="P23" s="26" t="str">
-        <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$AL$1:_tag_day_hour!$BM$1,MATCH(MAX(_tag_day_hour!AL44:_tag_day_hour!BM44),_tag_day_hour!AL44:_tag_day_hour!BM44,0)),LEN(INDEX(_tag_day_hour!$AL$1:_tag_day_hour!$BM$1,MATCH(MAX(_tag_day_hour!AL44:_tag_day_hour!BM44),_tag_day_hour!AL44:_tag_day_hour!BM44,0)))-13,4),"_",""),"")</f>
-        <v/>
-      </c>
-      <c r="Q23" s="27" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!AL44:_tag_day_hour!BM44)=28,"",MAX(_tag_day_hour!AL44:_tag_day_hour!BM44))</f>
-        <v/>
-      </c>
-      <c r="R23" s="26" t="str">
-        <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$AL$1:_tag_day_hour!$BM$1,MATCH(MIN(_tag_day_hour!AL44:_tag_day_hour!BM44),_tag_day_hour!AL44:_tag_day_hour!BM44,0)),LEN(INDEX(_tag_day_hour!$AL$1:_tag_day_hour!$BM$1,MATCH(MIN(_tag_day_hour!AL44:_tag_day_hour!BM44),_tag_day_hour!AL44:_tag_day_hour!BM44,0)))-13,4),"_",""),"")</f>
-        <v/>
-      </c>
-      <c r="S23" s="27" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!AL44:_tag_day_hour!BM44)=28,"",MIN(_tag_day_hour!AL44:_tag_day_hour!BM44))</f>
-        <v/>
-      </c>
-      <c r="T23" s="27" t="str">
-        <f>IF(_tag_day_hour!BN20="","",_tag_day_hour!BN20)</f>
-        <v/>
-      </c>
-      <c r="U23" s="27" t="str">
-        <f>IF(_tag_day_hour!BO20="","",_tag_day_hour!BO20)</f>
-        <v/>
-      </c>
-      <c r="V23" s="33" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!BP44:_tag_day_hour!CQ44)=28,"",AVERAGE(_tag_day_hour!BP44:_tag_day_hour!CQ44))</f>
-        <v/>
-      </c>
-      <c r="W23" s="34" t="str">
-        <f>IF(_fanchui7_day_hour!B20="","",_fanchui7_day_hour!B20)</f>
-        <v/>
-      </c>
-      <c r="X23" s="33" t="str">
-        <f ca="1">IFERROR(AVERAGE(_fanchui7_day_hour!C20:_fanchui7_day_hour!F20)-_fanchui7_day_hour!G20,"")</f>
-        <v/>
-      </c>
-      <c r="Y23" s="33" t="str">
-        <f ca="1">IFERROR(AVERAGE(_fanchui7_day_hour!H20:_fanchui7_day_hour!K20)-_fanchui7_day_hour!L20,"")</f>
-        <v/>
-      </c>
-      <c r="Z23" s="27" t="str">
-        <f>IF(_maxmin_day_hour!A20="","",_maxmin_day_hour!A20)</f>
-        <v/>
-      </c>
-      <c r="AA23" s="27" t="str">
-        <f>IF(_maxmin_day_hour!B20="","",_maxmin_day_hour!B20)</f>
-        <v/>
-      </c>
-      <c r="AB23" s="43"/>
-    </row>
-    <row r="24" s="11" customFormat="1" spans="1:28">
-      <c r="A24" s="25">
-        <v>20</v>
-      </c>
-      <c r="B24" s="26" t="str">
-        <f ca="1">IF(COUNTA(_tag_day_hour!A21:_tag_day_hour!AB21)=0,"",COUNTIF(_tag_day_hour!A21:_tag_day_hour!AB21,"=0"))</f>
-        <v/>
-      </c>
-      <c r="C24" s="27" t="str">
-        <f>IF(_tag_day_hour!AC21="","",_tag_day_hour!AC21)</f>
-        <v/>
-      </c>
-      <c r="D24" s="27" t="str">
-        <f>IF(_tag_day_hour!AD21="","",_tag_day_hour!AD21)</f>
-        <v/>
-      </c>
-      <c r="E24" s="27" t="str">
-        <f>IF(_tag_day_hour!AE21="","",_tag_day_hour!AE21)</f>
-        <v/>
-      </c>
-      <c r="F24" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G24" s="27" t="str">
-        <f>IF(_tag_day_hour!AF21="","",_tag_day_hour!AF21)</f>
-        <v/>
-      </c>
-      <c r="H24" s="27" t="str">
-        <f>IF(_tag_day_hour!AG21="","",_tag_day_hour!AG21)</f>
-        <v/>
-      </c>
-      <c r="I24" s="27" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J24" s="27" t="str">
-        <f>IF(_tag_day_hour!AH21="","",_tag_day_hour!AH21)</f>
-        <v/>
-      </c>
-      <c r="K24" s="27" t="str">
-        <f>IF(_tag_day_hour!AI21="","",_tag_day_hour!AI21)</f>
-        <v/>
-      </c>
-      <c r="L24" s="27" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M24" s="27" t="str">
-        <f>IF(_tag_day_hour!AJ21="","",_tag_day_hour!AJ21)</f>
-        <v/>
-      </c>
-      <c r="N24" s="27" t="str">
-        <f>IF(_tag_day_hour!AK21="","",_tag_day_hour!AK21)</f>
-        <v/>
-      </c>
-      <c r="O24" s="27" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="P24" s="26" t="str">
-        <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$AL$1:_tag_day_hour!$BM$1,MATCH(MAX(_tag_day_hour!AL45:_tag_day_hour!BM45),_tag_day_hour!AL45:_tag_day_hour!BM45,0)),LEN(INDEX(_tag_day_hour!$AL$1:_tag_day_hour!$BM$1,MATCH(MAX(_tag_day_hour!AL45:_tag_day_hour!BM45),_tag_day_hour!AL45:_tag_day_hour!BM45,0)))-13,4),"_",""),"")</f>
-        <v/>
-      </c>
-      <c r="Q24" s="27" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!AL45:_tag_day_hour!BM45)=28,"",MAX(_tag_day_hour!AL45:_tag_day_hour!BM45))</f>
-        <v/>
-      </c>
-      <c r="R24" s="26" t="str">
-        <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$AL$1:_tag_day_hour!$BM$1,MATCH(MIN(_tag_day_hour!AL45:_tag_day_hour!BM45),_tag_day_hour!AL45:_tag_day_hour!BM45,0)),LEN(INDEX(_tag_day_hour!$AL$1:_tag_day_hour!$BM$1,MATCH(MIN(_tag_day_hour!AL45:_tag_day_hour!BM45),_tag_day_hour!AL45:_tag_day_hour!BM45,0)))-13,4),"_",""),"")</f>
-        <v/>
-      </c>
-      <c r="S24" s="27" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!AL45:_tag_day_hour!BM45)=28,"",MIN(_tag_day_hour!AL45:_tag_day_hour!BM45))</f>
-        <v/>
-      </c>
-      <c r="T24" s="27" t="str">
-        <f>IF(_tag_day_hour!BN21="","",_tag_day_hour!BN21)</f>
-        <v/>
-      </c>
-      <c r="U24" s="27" t="str">
-        <f>IF(_tag_day_hour!BO21="","",_tag_day_hour!BO21)</f>
-        <v/>
-      </c>
-      <c r="V24" s="33" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!BP45:_tag_day_hour!CQ45)=28,"",AVERAGE(_tag_day_hour!BP45:_tag_day_hour!CQ45))</f>
-        <v/>
-      </c>
-      <c r="W24" s="34" t="str">
-        <f>IF(_fanchui7_day_hour!B21="","",_fanchui7_day_hour!B21)</f>
-        <v/>
-      </c>
-      <c r="X24" s="33" t="str">
-        <f ca="1">IFERROR(AVERAGE(_fanchui7_day_hour!C21:_fanchui7_day_hour!F21)-_fanchui7_day_hour!G21,"")</f>
-        <v/>
-      </c>
-      <c r="Y24" s="33" t="str">
-        <f ca="1">IFERROR(AVERAGE(_fanchui7_day_hour!H21:_fanchui7_day_hour!K21)-_fanchui7_day_hour!L21,"")</f>
-        <v/>
-      </c>
-      <c r="Z24" s="27" t="str">
-        <f>IF(_maxmin_day_hour!A21="","",_maxmin_day_hour!A21)</f>
-        <v/>
-      </c>
-      <c r="AA24" s="27" t="str">
-        <f>IF(_maxmin_day_hour!B21="","",_maxmin_day_hour!B21)</f>
-        <v/>
-      </c>
-      <c r="AB24" s="43"/>
-    </row>
-    <row r="25" s="11" customFormat="1" ht="14.25" spans="1:28">
-      <c r="A25" s="22">
-        <v>21</v>
-      </c>
-      <c r="B25" s="26" t="str">
-        <f ca="1">IF(COUNTA(_tag_day_hour!A22:_tag_day_hour!AB22)=0,"",COUNTIF(_tag_day_hour!A22:_tag_day_hour!AB22,"=0"))</f>
-        <v/>
-      </c>
-      <c r="C25" s="27" t="str">
-        <f>IF(_tag_day_hour!AC22="","",_tag_day_hour!AC22)</f>
-        <v/>
-      </c>
-      <c r="D25" s="27" t="str">
-        <f>IF(_tag_day_hour!AD22="","",_tag_day_hour!AD22)</f>
-        <v/>
-      </c>
-      <c r="E25" s="27" t="str">
-        <f>IF(_tag_day_hour!AE22="","",_tag_day_hour!AE22)</f>
-        <v/>
-      </c>
-      <c r="F25" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G25" s="27" t="str">
-        <f>IF(_tag_day_hour!AF22="","",_tag_day_hour!AF22)</f>
-        <v/>
-      </c>
-      <c r="H25" s="27" t="str">
-        <f>IF(_tag_day_hour!AG22="","",_tag_day_hour!AG22)</f>
-        <v/>
-      </c>
-      <c r="I25" s="27" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J25" s="27" t="str">
-        <f>IF(_tag_day_hour!AH22="","",_tag_day_hour!AH22)</f>
-        <v/>
-      </c>
-      <c r="K25" s="27" t="str">
-        <f>IF(_tag_day_hour!AI22="","",_tag_day_hour!AI22)</f>
-        <v/>
-      </c>
-      <c r="L25" s="27" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M25" s="27" t="str">
-        <f>IF(_tag_day_hour!AJ22="","",_tag_day_hour!AJ22)</f>
-        <v/>
-      </c>
-      <c r="N25" s="27" t="str">
-        <f>IF(_tag_day_hour!AK22="","",_tag_day_hour!AK22)</f>
-        <v/>
-      </c>
-      <c r="O25" s="27" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="P25" s="26" t="str">
-        <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$AL$1:_tag_day_hour!$BM$1,MATCH(MAX(_tag_day_hour!AL46:_tag_day_hour!BM46),_tag_day_hour!AL46:_tag_day_hour!BM46,0)),LEN(INDEX(_tag_day_hour!$AL$1:_tag_day_hour!$BM$1,MATCH(MAX(_tag_day_hour!AL46:_tag_day_hour!BM46),_tag_day_hour!AL46:_tag_day_hour!BM46,0)))-13,4),"_",""),"")</f>
-        <v/>
-      </c>
-      <c r="Q25" s="27" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!AL46:_tag_day_hour!BM46)=28,"",MAX(_tag_day_hour!AL46:_tag_day_hour!BM46))</f>
-        <v/>
-      </c>
-      <c r="R25" s="26" t="str">
-        <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$AL$1:_tag_day_hour!$BM$1,MATCH(MIN(_tag_day_hour!AL46:_tag_day_hour!BM46),_tag_day_hour!AL46:_tag_day_hour!BM46,0)),LEN(INDEX(_tag_day_hour!$AL$1:_tag_day_hour!$BM$1,MATCH(MIN(_tag_day_hour!AL46:_tag_day_hour!BM46),_tag_day_hour!AL46:_tag_day_hour!BM46,0)))-13,4),"_",""),"")</f>
-        <v/>
-      </c>
-      <c r="S25" s="27" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!AL46:_tag_day_hour!BM46)=28,"",MIN(_tag_day_hour!AL46:_tag_day_hour!BM46))</f>
-        <v/>
-      </c>
-      <c r="T25" s="27" t="str">
-        <f>IF(_tag_day_hour!BN22="","",_tag_day_hour!BN22)</f>
-        <v/>
-      </c>
-      <c r="U25" s="27" t="str">
-        <f>IF(_tag_day_hour!BO22="","",_tag_day_hour!BO22)</f>
-        <v/>
-      </c>
-      <c r="V25" s="33" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!BP46:_tag_day_hour!CQ46)=28,"",AVERAGE(_tag_day_hour!BP46:_tag_day_hour!CQ46))</f>
-        <v/>
-      </c>
-      <c r="W25" s="34" t="str">
-        <f>IF(_fanchui7_day_hour!B22="","",_fanchui7_day_hour!B22)</f>
-        <v/>
-      </c>
-      <c r="X25" s="33" t="str">
-        <f ca="1">IFERROR(AVERAGE(_fanchui7_day_hour!C22:_fanchui7_day_hour!F22)-_fanchui7_day_hour!G22,"")</f>
-        <v/>
-      </c>
-      <c r="Y25" s="33" t="str">
-        <f ca="1">IFERROR(AVERAGE(_fanchui7_day_hour!H22:_fanchui7_day_hour!K22)-_fanchui7_day_hour!L22,"")</f>
-        <v/>
-      </c>
-      <c r="Z25" s="27" t="str">
-        <f>IF(_maxmin_day_hour!A22="","",_maxmin_day_hour!A22)</f>
-        <v/>
-      </c>
-      <c r="AA25" s="27" t="str">
-        <f>IF(_maxmin_day_hour!B22="","",_maxmin_day_hour!B22)</f>
-        <v/>
-      </c>
-      <c r="AB25" s="43"/>
-    </row>
-    <row r="26" s="11" customFormat="1" spans="1:28">
-      <c r="A26" s="25">
-        <v>22</v>
-      </c>
-      <c r="B26" s="26" t="str">
-        <f ca="1">IF(COUNTA(_tag_day_hour!A23:_tag_day_hour!AB23)=0,"",COUNTIF(_tag_day_hour!A23:_tag_day_hour!AB23,"=0"))</f>
-        <v/>
-      </c>
-      <c r="C26" s="27" t="str">
-        <f>IF(_tag_day_hour!AC23="","",_tag_day_hour!AC23)</f>
-        <v/>
-      </c>
-      <c r="D26" s="27" t="str">
-        <f>IF(_tag_day_hour!AD23="","",_tag_day_hour!AD23)</f>
-        <v/>
-      </c>
-      <c r="E26" s="27" t="str">
-        <f>IF(_tag_day_hour!AE23="","",_tag_day_hour!AE23)</f>
-        <v/>
-      </c>
-      <c r="F26" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G26" s="27" t="str">
-        <f>IF(_tag_day_hour!AF23="","",_tag_day_hour!AF23)</f>
-        <v/>
-      </c>
-      <c r="H26" s="27" t="str">
-        <f>IF(_tag_day_hour!AG23="","",_tag_day_hour!AG23)</f>
-        <v/>
-      </c>
-      <c r="I26" s="27" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J26" s="27" t="str">
-        <f>IF(_tag_day_hour!AH23="","",_tag_day_hour!AH23)</f>
-        <v/>
-      </c>
-      <c r="K26" s="27" t="str">
-        <f>IF(_tag_day_hour!AI23="","",_tag_day_hour!AI23)</f>
-        <v/>
-      </c>
-      <c r="L26" s="27" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M26" s="27" t="str">
-        <f>IF(_tag_day_hour!AJ23="","",_tag_day_hour!AJ23)</f>
-        <v/>
-      </c>
-      <c r="N26" s="27" t="str">
-        <f>IF(_tag_day_hour!AK23="","",_tag_day_hour!AK23)</f>
-        <v/>
-      </c>
-      <c r="O26" s="27" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="P26" s="26" t="str">
-        <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$AL$1:_tag_day_hour!$BM$1,MATCH(MAX(_tag_day_hour!AL47:_tag_day_hour!BM47),_tag_day_hour!AL47:_tag_day_hour!BM47,0)),LEN(INDEX(_tag_day_hour!$AL$1:_tag_day_hour!$BM$1,MATCH(MAX(_tag_day_hour!AL47:_tag_day_hour!BM47),_tag_day_hour!AL47:_tag_day_hour!BM47,0)))-13,4),"_",""),"")</f>
-        <v/>
-      </c>
-      <c r="Q26" s="27" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!AL47:_tag_day_hour!BM47)=28,"",MAX(_tag_day_hour!AL47:_tag_day_hour!BM47))</f>
-        <v/>
-      </c>
-      <c r="R26" s="26" t="str">
-        <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$AL$1:_tag_day_hour!$BM$1,MATCH(MIN(_tag_day_hour!AL47:_tag_day_hour!BM47),_tag_day_hour!AL47:_tag_day_hour!BM47,0)),LEN(INDEX(_tag_day_hour!$AL$1:_tag_day_hour!$BM$1,MATCH(MIN(_tag_day_hour!AL47:_tag_day_hour!BM47),_tag_day_hour!AL47:_tag_day_hour!BM47,0)))-13,4),"_",""),"")</f>
-        <v/>
-      </c>
-      <c r="S26" s="27" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!AL47:_tag_day_hour!BM47)=28,"",MIN(_tag_day_hour!AL47:_tag_day_hour!BM47))</f>
-        <v/>
-      </c>
-      <c r="T26" s="27" t="str">
-        <f>IF(_tag_day_hour!BN23="","",_tag_day_hour!BN23)</f>
-        <v/>
-      </c>
-      <c r="U26" s="27" t="str">
-        <f>IF(_tag_day_hour!BO23="","",_tag_day_hour!BO23)</f>
-        <v/>
-      </c>
-      <c r="V26" s="33" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!BP47:_tag_day_hour!CQ47)=28,"",AVERAGE(_tag_day_hour!BP47:_tag_day_hour!CQ47))</f>
-        <v/>
-      </c>
-      <c r="W26" s="34" t="str">
-        <f>IF(_fanchui7_day_hour!B23="","",_fanchui7_day_hour!B23)</f>
-        <v/>
-      </c>
-      <c r="X26" s="33" t="str">
-        <f ca="1">IFERROR(AVERAGE(_fanchui7_day_hour!C23:_fanchui7_day_hour!F23)-_fanchui7_day_hour!G23,"")</f>
-        <v/>
-      </c>
-      <c r="Y26" s="33" t="str">
-        <f ca="1">IFERROR(AVERAGE(_fanchui7_day_hour!H23:_fanchui7_day_hour!K23)-_fanchui7_day_hour!L23,"")</f>
-        <v/>
-      </c>
-      <c r="Z26" s="27" t="str">
-        <f>IF(_maxmin_day_hour!A23="","",_maxmin_day_hour!A23)</f>
-        <v/>
-      </c>
-      <c r="AA26" s="27" t="str">
-        <f>IF(_maxmin_day_hour!B23="","",_maxmin_day_hour!B23)</f>
-        <v/>
-      </c>
-      <c r="AB26" s="43"/>
-    </row>
-    <row r="27" s="11" customFormat="1" ht="14.25" spans="1:28">
-      <c r="A27" s="22">
-        <v>23</v>
-      </c>
-      <c r="B27" s="26" t="str">
-        <f ca="1">IF(COUNTA(_tag_day_hour!A24:_tag_day_hour!AB24)=0,"",COUNTIF(_tag_day_hour!A24:_tag_day_hour!AB24,"=0"))</f>
-        <v/>
-      </c>
-      <c r="C27" s="27" t="str">
-        <f>IF(_tag_day_hour!AC24="","",_tag_day_hour!AC24)</f>
-        <v/>
-      </c>
-      <c r="D27" s="27" t="str">
-        <f>IF(_tag_day_hour!AD24="","",_tag_day_hour!AD24)</f>
-        <v/>
-      </c>
-      <c r="E27" s="27" t="str">
-        <f>IF(_tag_day_hour!AE24="","",_tag_day_hour!AE24)</f>
-        <v/>
-      </c>
-      <c r="F27" s="27" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G27" s="27" t="str">
-        <f>IF(_tag_day_hour!AF24="","",_tag_day_hour!AF24)</f>
-        <v/>
-      </c>
-      <c r="H27" s="27" t="str">
-        <f>IF(_tag_day_hour!AG24="","",_tag_day_hour!AG24)</f>
-        <v/>
-      </c>
-      <c r="I27" s="27" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J27" s="27" t="str">
-        <f>IF(_tag_day_hour!AH24="","",_tag_day_hour!AH24)</f>
-        <v/>
-      </c>
-      <c r="K27" s="27" t="str">
-        <f>IF(_tag_day_hour!AI24="","",_tag_day_hour!AI24)</f>
-        <v/>
-      </c>
-      <c r="L27" s="27" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M27" s="27" t="str">
-        <f>IF(_tag_day_hour!AJ24="","",_tag_day_hour!AJ24)</f>
-        <v/>
-      </c>
-      <c r="N27" s="27" t="str">
-        <f>IF(_tag_day_hour!AK24="","",_tag_day_hour!AK24)</f>
-        <v/>
-      </c>
-      <c r="O27" s="27" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="P27" s="26" t="str">
-        <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$AL$1:_tag_day_hour!$BM$1,MATCH(MAX(_tag_day_hour!AL48:_tag_day_hour!BM48),_tag_day_hour!AL48:_tag_day_hour!BM48,0)),LEN(INDEX(_tag_day_hour!$AL$1:_tag_day_hour!$BM$1,MATCH(MAX(_tag_day_hour!AL48:_tag_day_hour!BM48),_tag_day_hour!AL48:_tag_day_hour!BM48,0)))-13,4),"_",""),"")</f>
-        <v/>
-      </c>
-      <c r="Q27" s="27" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!AL48:_tag_day_hour!BM48)=28,"",MAX(_tag_day_hour!AL48:_tag_day_hour!BM48))</f>
-        <v/>
-      </c>
-      <c r="R27" s="26" t="str">
-        <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$AL$1:_tag_day_hour!$BM$1,MATCH(MIN(_tag_day_hour!AL48:_tag_day_hour!BM48),_tag_day_hour!AL48:_tag_day_hour!BM48,0)),LEN(INDEX(_tag_day_hour!$AL$1:_tag_day_hour!$BM$1,MATCH(MIN(_tag_day_hour!AL48:_tag_day_hour!BM48),_tag_day_hour!AL48:_tag_day_hour!BM48,0)))-13,4),"_",""),"")</f>
-        <v/>
-      </c>
-      <c r="S27" s="27" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!AL48:_tag_day_hour!BM48)=28,"",MIN(_tag_day_hour!AL48:_tag_day_hour!BM48))</f>
-        <v/>
-      </c>
-      <c r="T27" s="27" t="str">
-        <f>IF(_tag_day_hour!BN24="","",_tag_day_hour!BN24)</f>
-        <v/>
-      </c>
-      <c r="U27" s="27" t="str">
-        <f>IF(_tag_day_hour!BO24="","",_tag_day_hour!BO24)</f>
-        <v/>
-      </c>
-      <c r="V27" s="33" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!BP48:_tag_day_hour!CQ48)=28,"",AVERAGE(_tag_day_hour!BP48:_tag_day_hour!CQ48))</f>
-        <v/>
-      </c>
-      <c r="W27" s="34" t="str">
-        <f>IF(_fanchui7_day_hour!B24="","",_fanchui7_day_hour!B24)</f>
-        <v/>
-      </c>
-      <c r="X27" s="33" t="str">
-        <f ca="1">IFERROR(AVERAGE(_fanchui7_day_hour!C24:_fanchui7_day_hour!F24)-_fanchui7_day_hour!G24,"")</f>
-        <v/>
-      </c>
-      <c r="Y27" s="33" t="str">
-        <f ca="1">IFERROR(AVERAGE(_fanchui7_day_hour!H24:_fanchui7_day_hour!K24)-_fanchui7_day_hour!L24,"")</f>
-        <v/>
-      </c>
-      <c r="Z27" s="27" t="str">
-        <f>IF(_maxmin_day_hour!A24="","",_maxmin_day_hour!A24)</f>
-        <v/>
-      </c>
-      <c r="AA27" s="27" t="str">
-        <f>IF(_maxmin_day_hour!B24="","",_maxmin_day_hour!B24)</f>
-        <v/>
-      </c>
-      <c r="AB27" s="43"/>
-    </row>
-    <row r="28" s="11" customFormat="1" ht="14.25" spans="1:28">
-      <c r="A28" s="28">
-        <v>24</v>
-      </c>
-      <c r="B28" s="29" t="str">
-        <f ca="1">IF(COUNTA(_tag_day_hour!A25:_tag_day_hour!AB25)=0,"",COUNTIF(_tag_day_hour!A25:_tag_day_hour!AB25,"=0"))</f>
-        <v/>
-      </c>
-      <c r="C28" s="30" t="str">
-        <f>IF(_tag_day_hour!AC25="","",_tag_day_hour!AC25)</f>
-        <v/>
-      </c>
-      <c r="D28" s="30" t="str">
-        <f>IF(_tag_day_hour!AD25="","",_tag_day_hour!AD25)</f>
-        <v/>
-      </c>
-      <c r="E28" s="30" t="str">
-        <f>IF(_tag_day_hour!AE25="","",_tag_day_hour!AE25)</f>
-        <v/>
-      </c>
-      <c r="F28" s="30" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="G28" s="30" t="str">
-        <f>IF(_tag_day_hour!AF25="","",_tag_day_hour!AF25)</f>
-        <v/>
-      </c>
-      <c r="H28" s="30" t="str">
-        <f>IF(_tag_day_hour!AG25="","",_tag_day_hour!AG25)</f>
-        <v/>
-      </c>
-      <c r="I28" s="30" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J28" s="30" t="str">
-        <f>IF(_tag_day_hour!AH25="","",_tag_day_hour!AH25)</f>
-        <v/>
-      </c>
-      <c r="K28" s="30" t="str">
-        <f>IF(_tag_day_hour!AI25="","",_tag_day_hour!AI25)</f>
-        <v/>
-      </c>
-      <c r="L28" s="30" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M28" s="30" t="str">
-        <f>IF(_tag_day_hour!AJ25="","",_tag_day_hour!AJ25)</f>
-        <v/>
-      </c>
-      <c r="N28" s="30" t="str">
-        <f>IF(_tag_day_hour!AK25="","",_tag_day_hour!AK25)</f>
-        <v/>
-      </c>
-      <c r="O28" s="30" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="P28" s="29" t="str">
-        <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$AL$1:_tag_day_hour!$BM$1,MATCH(MAX(_tag_day_hour!AL49:_tag_day_hour!BM49),_tag_day_hour!AL49:_tag_day_hour!BM49,0)),LEN(INDEX(_tag_day_hour!$AL$1:_tag_day_hour!$BM$1,MATCH(MAX(_tag_day_hour!AL49:_tag_day_hour!BM49),_tag_day_hour!AL49:_tag_day_hour!BM49,0)))-13,4),"_",""),"")</f>
-        <v/>
-      </c>
-      <c r="Q28" s="30" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!AL49:_tag_day_hour!BM49)=28,"",MAX(_tag_day_hour!AL49:_tag_day_hour!BM49))</f>
-        <v/>
-      </c>
-      <c r="R28" s="29" t="str">
-        <f ca="1">IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$AL$1:_tag_day_hour!$BM$1,MATCH(MIN(_tag_day_hour!AL49:_tag_day_hour!BM49),_tag_day_hour!AL49:_tag_day_hour!BM49,0)),LEN(INDEX(_tag_day_hour!$AL$1:_tag_day_hour!$BM$1,MATCH(MIN(_tag_day_hour!AL49:_tag_day_hour!BM49),_tag_day_hour!AL49:_tag_day_hour!BM49,0)))-13,4),"_",""),"")</f>
-        <v/>
-      </c>
-      <c r="S28" s="30" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!AL49:_tag_day_hour!BM49)=28,"",MIN(_tag_day_hour!AL49:_tag_day_hour!BM49))</f>
-        <v/>
-      </c>
-      <c r="T28" s="30" t="str">
+      <c r="P28" s="23" t="str">
+        <f>IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$AL$1:'_tag_day_hour'!$BM$1,MATCH(MAX(_tag_day_hour!AL49:'_tag_day_hour'!BM49),_tag_day_hour!AL49:'_tag_day_hour'!BM49,0)),LEN(INDEX(_tag_day_hour!$AL$1:'_tag_day_hour'!$BM$1,MATCH(MAX(_tag_day_hour!AL49:'_tag_day_hour'!BM49),_tag_day_hour!AL49:'_tag_day_hour'!BM49,0)))-13,4),"_",""),"")</f>
+        <v/>
+      </c>
+      <c r="Q28" s="29" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!AL49:'_tag_day_hour'!BM49)=28,"",MAX(_tag_day_hour!AL49:'_tag_day_hour'!BM49))</f>
+        <v/>
+      </c>
+      <c r="R28" s="23" t="str">
+        <f>IFERROR(SUBSTITUTE(MID(INDEX(_tag_day_hour!$AL$1:'_tag_day_hour'!$BM$1,MATCH(MIN(_tag_day_hour!AL49:'_tag_day_hour'!BM49),_tag_day_hour!AL49:'_tag_day_hour'!BM49,0)),LEN(INDEX(_tag_day_hour!$AL$1:'_tag_day_hour'!$BM$1,MATCH(MIN(_tag_day_hour!AL49:'_tag_day_hour'!BM49),_tag_day_hour!AL49:'_tag_day_hour'!BM49,0)))-13,4),"_",""),"")</f>
+        <v/>
+      </c>
+      <c r="S28" s="29" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!AL49:'_tag_day_hour'!BM49)=28,"",MIN(_tag_day_hour!AL49:'_tag_day_hour'!BM49))</f>
+        <v/>
+      </c>
+      <c r="T28" s="35" t="str">
         <f>IF(_tag_day_hour!BN25="","",_tag_day_hour!BN25)</f>
         <v/>
       </c>
-      <c r="U28" s="30" t="str">
+      <c r="U28" s="40" t="str">
         <f>IF(_tag_day_hour!BO25="","",_tag_day_hour!BO25)</f>
         <v/>
       </c>
-      <c r="V28" s="35" t="str">
-        <f ca="1">IF(COUNTBLANK(_tag_day_hour!BP49:_tag_day_hour!CQ49)=28,"",AVERAGE(_tag_day_hour!BP49:_tag_day_hour!CQ49))</f>
-        <v/>
-      </c>
-      <c r="W28" s="36" t="str">
+      <c r="V28" s="40" t="str">
+        <f>IF(COUNTBLANK(_tag_day_hour!BP49:'_tag_day_hour'!CQ49)=28,"",AVERAGE(_tag_day_hour!BP49:'_tag_day_hour'!CQ49))</f>
+        <v/>
+      </c>
+      <c r="W28" s="16" t="str">
         <f>IF(_fanchui7_day_hour!B25="","",_fanchui7_day_hour!B25)</f>
         <v/>
       </c>
-      <c r="X28" s="35" t="str">
-        <f ca="1">IFERROR(AVERAGE(_fanchui7_day_hour!C25:_fanchui7_day_hour!F25)-_fanchui7_day_hour!G25,"")</f>
-        <v/>
-      </c>
-      <c r="Y28" s="35" t="str">
-        <f ca="1">IFERROR(AVERAGE(_fanchui7_day_hour!H25:_fanchui7_day_hour!K25)-_fanchui7_day_hour!L25,"")</f>
-        <v/>
-      </c>
-      <c r="Z28" s="30" t="str">
+      <c r="X28" s="40" t="str">
+        <f>IFERROR(AVERAGE(_fanchui7_day_hour!C25:'_fanchui7_day_hour'!F25)-_fanchui7_day_hour!G25,"")</f>
+        <v/>
+      </c>
+      <c r="Y28" s="40" t="str">
+        <f>IFERROR(AVERAGE(_fanchui7_day_hour!H25:'_fanchui7_day_hour'!K25)-_fanchui7_day_hour!L25,"")</f>
+        <v/>
+      </c>
+      <c r="Z28" s="29" t="str">
         <f>IF(_maxmin_day_hour!A25="","",_maxmin_day_hour!A25)</f>
         <v/>
       </c>
-      <c r="AA28" s="30" t="str">
+      <c r="AA28" s="29" t="str">
         <f>IF(_maxmin_day_hour!B25="","",_maxmin_day_hour!B25)</f>
         <v/>
       </c>
@@ -4823,6 +4291,9 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
     <mergeCell ref="D1:Q1"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="D3:F3"/>
@@ -4830,322 +4301,319 @@
     <mergeCell ref="J3:L3"/>
     <mergeCell ref="M3:O3"/>
     <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="AB5:AB12"/>
+    <mergeCell ref="AB13:AB20"/>
+    <mergeCell ref="AB21:AB28"/>
     <mergeCell ref="R3:S3"/>
     <mergeCell ref="T3:V3"/>
     <mergeCell ref="W3:Y3"/>
     <mergeCell ref="Z3:AA3"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="AB5:AB12"/>
-    <mergeCell ref="AB13:AB20"/>
-    <mergeCell ref="AB21:AB28"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CQ49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" s="6" customFormat="1" ht="72" spans="1:95">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:95" s="5" customFormat="1" ht="93.6" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="M1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="N1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="O1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="P1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="Q1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="R1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="S1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="T1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="V1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="W1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="X1" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="Y1" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="X1" s="8" t="s">
+      <c r="Z1" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="Y1" s="9" t="s">
+      <c r="AA1" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="Z1" s="9" t="s">
+      <c r="AB1" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="AA1" s="9" t="s">
+      <c r="AC1" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="AB1" s="9" t="s">
+      <c r="AD1" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="AC1" s="10" t="s">
+      <c r="AE1" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="AD1" s="10" t="s">
+      <c r="AF1" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="AE1" s="10" t="s">
+      <c r="AG1" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="AF1" s="10" t="s">
+      <c r="AH1" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="AG1" s="10" t="s">
+      <c r="AI1" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="AH1" s="10" t="s">
+      <c r="AJ1" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="AI1" s="10" t="s">
+      <c r="AK1" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="AJ1" s="10" t="s">
+      <c r="AL1" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="AK1" s="10" t="s">
+      <c r="AM1" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="AL1" s="10" t="s">
+      <c r="AN1" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="AM1" s="4" t="s">
+      <c r="AO1" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="AN1" s="4" t="s">
+      <c r="AP1" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="AO1" s="4" t="s">
+      <c r="AQ1" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="AP1" s="4" t="s">
+      <c r="AR1" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="AQ1" s="4" t="s">
+      <c r="AS1" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="AR1" s="4" t="s">
+      <c r="AT1" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="AS1" s="4" t="s">
+      <c r="AU1" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="AT1" s="4" t="s">
+      <c r="AV1" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="AU1" s="4" t="s">
+      <c r="AW1" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="AV1" s="4" t="s">
+      <c r="AX1" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="AW1" s="4" t="s">
+      <c r="AY1" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="AX1" s="4" t="s">
+      <c r="AZ1" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="AY1" s="4" t="s">
+      <c r="BA1" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="AZ1" s="4" t="s">
+      <c r="BB1" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="BA1" s="4" t="s">
+      <c r="BC1" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="BB1" s="4" t="s">
+      <c r="BD1" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="BC1" s="4" t="s">
+      <c r="BE1" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="BD1" s="4" t="s">
+      <c r="BF1" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="BE1" s="4" t="s">
+      <c r="BG1" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="BF1" s="4" t="s">
+      <c r="BH1" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="BG1" s="4" t="s">
+      <c r="BI1" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="BH1" s="4" t="s">
+      <c r="BJ1" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="BI1" s="8" t="s">
+      <c r="BK1" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="BJ1" s="9" t="s">
+      <c r="BL1" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="BK1" s="9" t="s">
+      <c r="BM1" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="BL1" s="9" t="s">
+      <c r="BN1" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="BM1" s="9" t="s">
+      <c r="BO1" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="BN1" s="10" t="s">
+      <c r="BP1" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="BO1" s="10" t="s">
+      <c r="BQ1" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="BP1" s="4" t="s">
+      <c r="BR1" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="BQ1" s="4" t="s">
+      <c r="BS1" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="BR1" s="4" t="s">
+      <c r="BT1" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="BS1" s="4" t="s">
+      <c r="BU1" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="BT1" s="4" t="s">
+      <c r="BV1" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="BU1" s="4" t="s">
+      <c r="BW1" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="BV1" s="4" t="s">
+      <c r="BX1" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="BW1" s="4" t="s">
+      <c r="BY1" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="BX1" s="4" t="s">
+      <c r="BZ1" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="BY1" s="4" t="s">
+      <c r="CA1" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="BZ1" s="4" t="s">
+      <c r="CB1" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="CA1" s="4" t="s">
+      <c r="CC1" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="CB1" s="4" t="s">
+      <c r="CD1" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="CC1" s="4" t="s">
+      <c r="CE1" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="CD1" s="4" t="s">
+      <c r="CF1" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="CE1" s="4" t="s">
+      <c r="CG1" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="CF1" s="4" t="s">
+      <c r="CH1" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="CG1" s="4" t="s">
+      <c r="CI1" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="CH1" s="4" t="s">
+      <c r="CJ1" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="CI1" s="4" t="s">
+      <c r="CK1" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="CJ1" s="4" t="s">
+      <c r="CL1" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="CK1" s="4" t="s">
+      <c r="CM1" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="CL1" s="4" t="s">
+      <c r="CN1" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="CM1" s="8" t="s">
+      <c r="CO1" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="CN1" s="9" t="s">
+      <c r="CP1" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="CO1" s="9" t="s">
+      <c r="CQ1" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="CP1" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="CQ1" s="9" t="s">
-        <v>126</v>
-      </c>
     </row>
-    <row r="26" spans="39:95">
+    <row r="26" spans="38:95" x14ac:dyDescent="0.25">
       <c r="AM26" t="str">
         <f t="shared" ref="AM26:AM49" si="0">IF(B2="","",IF(B2=0,AM2,""))</f>
         <v/>
@@ -5367,9 +4835,9 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="38:95">
+    <row r="27" spans="38:95" x14ac:dyDescent="0.25">
       <c r="AL27" t="str">
-        <f t="shared" ref="AL26:AL49" si="55">IF(A3="","",IF(A3=0,AL3,""))</f>
+        <f t="shared" ref="AL27:AL49" si="55">IF(A3="","",IF(A3=0,AL3,""))</f>
         <v/>
       </c>
       <c r="AM27" t="str">
@@ -5593,7 +5061,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="38:95">
+    <row r="28" spans="38:95" x14ac:dyDescent="0.25">
       <c r="AL28" t="str">
         <f t="shared" si="55"/>
         <v/>
@@ -5819,7 +5287,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="38:95">
+    <row r="29" spans="38:95" x14ac:dyDescent="0.25">
       <c r="AL29" t="str">
         <f t="shared" si="55"/>
         <v/>
@@ -6045,7 +5513,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="38:95">
+    <row r="30" spans="38:95" x14ac:dyDescent="0.25">
       <c r="AL30" t="str">
         <f t="shared" si="55"/>
         <v/>
@@ -6271,7 +5739,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="38:95">
+    <row r="31" spans="38:95" x14ac:dyDescent="0.25">
       <c r="AL31" t="str">
         <f t="shared" si="55"/>
         <v/>
@@ -6497,7 +5965,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="38:95">
+    <row r="32" spans="38:95" x14ac:dyDescent="0.25">
       <c r="AL32" t="str">
         <f t="shared" si="55"/>
         <v/>
@@ -6723,7 +6191,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="38:95">
+    <row r="33" spans="38:95" x14ac:dyDescent="0.25">
       <c r="AL33" t="str">
         <f t="shared" si="55"/>
         <v/>
@@ -6949,7 +6417,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="38:95">
+    <row r="34" spans="38:95" x14ac:dyDescent="0.25">
       <c r="AL34" t="str">
         <f t="shared" si="55"/>
         <v/>
@@ -7175,7 +6643,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="38:95">
+    <row r="35" spans="38:95" x14ac:dyDescent="0.25">
       <c r="AL35" t="str">
         <f t="shared" si="55"/>
         <v/>
@@ -7401,7 +6869,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="38:95">
+    <row r="36" spans="38:95" x14ac:dyDescent="0.25">
       <c r="AL36" t="str">
         <f t="shared" si="55"/>
         <v/>
@@ -7627,7 +7095,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="38:95">
+    <row r="37" spans="38:95" x14ac:dyDescent="0.25">
       <c r="AL37" t="str">
         <f t="shared" si="55"/>
         <v/>
@@ -7853,7 +7321,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="38:95">
+    <row r="38" spans="38:95" x14ac:dyDescent="0.25">
       <c r="AL38" t="str">
         <f t="shared" si="55"/>
         <v/>
@@ -8079,7 +7547,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="38:95">
+    <row r="39" spans="38:95" x14ac:dyDescent="0.25">
       <c r="AL39" t="str">
         <f t="shared" si="55"/>
         <v/>
@@ -8305,7 +7773,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="38:95">
+    <row r="40" spans="38:95" x14ac:dyDescent="0.25">
       <c r="AL40" t="str">
         <f t="shared" si="55"/>
         <v/>
@@ -8531,7 +7999,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="38:95">
+    <row r="41" spans="38:95" x14ac:dyDescent="0.25">
       <c r="AL41" t="str">
         <f t="shared" si="55"/>
         <v/>
@@ -8757,7 +8225,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="38:95">
+    <row r="42" spans="38:95" x14ac:dyDescent="0.25">
       <c r="AL42" t="str">
         <f t="shared" si="55"/>
         <v/>
@@ -8983,7 +8451,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="38:95">
+    <row r="43" spans="38:95" x14ac:dyDescent="0.25">
       <c r="AL43" t="str">
         <f t="shared" si="55"/>
         <v/>
@@ -9209,7 +8677,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="38:95">
+    <row r="44" spans="38:95" x14ac:dyDescent="0.25">
       <c r="AL44" t="str">
         <f t="shared" si="55"/>
         <v/>
@@ -9435,7 +8903,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="38:95">
+    <row r="45" spans="38:95" x14ac:dyDescent="0.25">
       <c r="AL45" t="str">
         <f t="shared" si="55"/>
         <v/>
@@ -9661,7 +9129,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="38:95">
+    <row r="46" spans="38:95" x14ac:dyDescent="0.25">
       <c r="AL46" t="str">
         <f t="shared" si="55"/>
         <v/>
@@ -9887,7 +9355,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="38:95">
+    <row r="47" spans="38:95" x14ac:dyDescent="0.25">
       <c r="AL47" t="str">
         <f t="shared" si="55"/>
         <v/>
@@ -10113,7 +9581,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="38:95">
+    <row r="48" spans="38:95" x14ac:dyDescent="0.25">
       <c r="AL48" t="str">
         <f t="shared" si="55"/>
         <v/>
@@ -10339,7 +9807,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="38:95">
+    <row r="49" spans="38:95" x14ac:dyDescent="0.25">
       <c r="AL49" t="str">
         <f t="shared" si="55"/>
         <v/>
@@ -10566,134 +10034,128 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" ht="15" spans="1:2">
-      <c r="A1" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="B1" s="5">
+    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" s="4">
         <v>6</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" ht="67.5" spans="1:12">
-      <c r="A1" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C1" s="3" t="s">
+    <row r="1" spans="1:12" ht="72" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="H1" s="3" t="s">
+      <c r="G1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="K1" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>98</v>
+      <c r="L1" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C$1:C$1048576"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.625" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B1" s="1"/>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="59" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
--- a/excel/finished/环保/7BF-煤气布袋除尘报表.xlsx
+++ b/excel/finished/环保/7BF-煤气布袋除尘报表.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\朱川\Desktop\布袋除尘\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20736" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="7BF-煤气布袋除尘报表" sheetId="1" r:id="rId1"/>
@@ -19,7 +14,7 @@
     <sheet name="_fanchui7_day_hour" sheetId="5" r:id="rId5"/>
     <sheet name="_maxmin_day_hour" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -29,7 +24,7 @@
     <author>何茂成</author>
   </authors>
   <commentList>
-    <comment ref="B5" authorId="0" shapeId="0">
+    <comment ref="B5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -51,7 +46,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P5" authorId="0" shapeId="0">
+    <comment ref="P5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -73,7 +68,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q5" authorId="0" shapeId="0">
+    <comment ref="Q5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -95,7 +90,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S5" authorId="0" shapeId="0">
+    <comment ref="S5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -117,7 +112,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V5" authorId="0" shapeId="0">
+    <comment ref="V5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -149,7 +144,7 @@
     <author>何茂成</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -171,7 +166,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AL1" authorId="0" shapeId="0">
+    <comment ref="AL1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -193,7 +188,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BP1" authorId="0" shapeId="0">
+    <comment ref="BP1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -225,7 +220,7 @@
     <author>何茂成</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -247,7 +242,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -274,7 +269,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="130">
   <si>
     <t>7号高炉煤气布袋除尘器运行记录</t>
   </si>
@@ -659,12 +654,6 @@
   </si>
   <si>
     <t>version</t>
-  </si>
-  <si>
-    <t>BF7_L2C_DEDUST_quanchen_1m_max</t>
-  </si>
-  <si>
-    <t>BF7_L2C_DEDUST_quanchenkaish_1m_max</t>
   </si>
   <si>
     <t>BF7_L2C_DEDUST_NewTag_4_1m_avg</t>
@@ -689,6 +678,10 @@
     </r>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
+  <si>
+    <t>BF7_L2C_DEDUST_is_XTFC_start_1m_min</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -700,7 +693,7 @@
     <numFmt numFmtId="178" formatCode="0_ "/>
     <numFmt numFmtId="179" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -770,6 +763,14 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1000,7 +1001,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center"/>
@@ -1126,33 +1127,6 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1177,8 +1151,38 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1457,13 +1461,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AA1" activeCellId="1" sqref="Z1:Z1048576 AA1:AA1048576"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="W13" sqref="W13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" style="10" customWidth="1"/>
+    <col min="1" max="1" width="12.375" style="10" customWidth="1"/>
     <col min="2" max="2" width="9" style="19"/>
     <col min="3" max="5" width="9" style="26"/>
     <col min="6" max="6" width="9" style="26" customWidth="1"/>
@@ -1474,101 +1478,101 @@
     <col min="19" max="19" width="9" style="26"/>
     <col min="20" max="20" width="9" style="31"/>
     <col min="21" max="22" width="9" style="36"/>
-    <col min="23" max="23" width="13.109375" style="24" customWidth="1"/>
+    <col min="23" max="23" width="17.625" style="24" customWidth="1"/>
     <col min="24" max="25" width="9" style="36"/>
     <col min="26" max="27" width="9" style="26"/>
-    <col min="28" max="28" width="23.21875" style="10" customWidth="1"/>
+    <col min="28" max="28" width="23.25" style="10" customWidth="1"/>
     <col min="29" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="22.2" x14ac:dyDescent="0.25">
-      <c r="D1" s="57" t="s">
+    <row r="1" spans="1:28" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="D1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57"/>
-      <c r="O1" s="57"/>
-      <c r="P1" s="57"/>
-      <c r="Q1" s="57"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
     </row>
-    <row r="2" spans="1:28" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="F2" s="58" t="str">
+    <row r="2" spans="1:28" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="F2" s="50" t="str">
         <f>IF(_metadata!B2="","",_metadata!B2)</f>
         <v/>
       </c>
-      <c r="G2" s="58"/>
+      <c r="G2" s="50"/>
       <c r="P2" s="20" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="51" t="s">
+    <row r="3" spans="1:28" ht="39.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="46" t="s">
+      <c r="D3" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="48"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="46" t="s">
+      <c r="E3" s="52"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="48"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="46" t="s">
+      <c r="H3" s="52"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="48"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="46" t="s">
+      <c r="K3" s="52"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="48"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="46" t="s">
+      <c r="N3" s="52"/>
+      <c r="O3" s="53"/>
+      <c r="P3" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="Q3" s="47"/>
-      <c r="R3" s="46" t="s">
+      <c r="Q3" s="53"/>
+      <c r="R3" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="S3" s="47"/>
-      <c r="T3" s="46" t="s">
+      <c r="S3" s="53"/>
+      <c r="T3" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="U3" s="48"/>
-      <c r="V3" s="47"/>
-      <c r="W3" s="46" t="s">
+      <c r="U3" s="52"/>
+      <c r="V3" s="53"/>
+      <c r="W3" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="X3" s="48"/>
-      <c r="Y3" s="47"/>
-      <c r="Z3" s="49" t="s">
-        <v>130</v>
-      </c>
-      <c r="AA3" s="50"/>
+      <c r="X3" s="52"/>
+      <c r="Y3" s="53"/>
+      <c r="Z3" s="57" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA3" s="58"/>
       <c r="AB3" s="17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="52"/>
-      <c r="B4" s="54"/>
-      <c r="C4" s="56"/>
+    <row r="4" spans="1:28" ht="69" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="44"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="48"/>
       <c r="D4" s="30" t="s">
         <v>14</v>
       </c>
@@ -1627,7 +1631,7 @@
         <v>22</v>
       </c>
       <c r="W4" s="25" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="X4" s="37" t="s">
         <v>23</v>
@@ -1643,7 +1647,7 @@
       </c>
       <c r="AB4" s="18"/>
     </row>
-    <row r="5" spans="1:28" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="11">
         <v>1</v>
       </c>
@@ -1732,15 +1736,15 @@
         <v/>
       </c>
       <c r="W5" s="15" t="str">
-        <f>IF(_fanchui7_day_hour!B2="","",_fanchui7_day_hour!B2)</f>
+        <f>IF(_fanchui7_day_hour!A2="","",_fanchui7_day_hour!A2)</f>
         <v/>
       </c>
       <c r="X5" s="39" t="str">
-        <f>IFERROR(AVERAGE(_fanchui7_day_hour!C2:'_fanchui7_day_hour'!F2)-_fanchui7_day_hour!G2,"")</f>
+        <f>IFERROR(AVERAGE(_fanchui7_day_hour!B2:'_fanchui7_day_hour'!E2)-_fanchui7_day_hour!F2,"")</f>
         <v/>
       </c>
       <c r="Y5" s="39" t="str">
-        <f>IFERROR(AVERAGE(_fanchui7_day_hour!H2:'_fanchui7_day_hour'!K2)-_fanchui7_day_hour!L2,"")</f>
+        <f>IFERROR(AVERAGE(_fanchui7_day_hour!G2:'_fanchui7_day_hour'!J2)-_fanchui7_day_hour!K2,"")</f>
         <v/>
       </c>
       <c r="Z5" s="28" t="str">
@@ -1751,11 +1755,11 @@
         <f>IF(_maxmin_day_hour!B2="","",_maxmin_day_hour!B2)</f>
         <v/>
       </c>
-      <c r="AB5" s="43" t="s">
+      <c r="AB5" s="54" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A6" s="13">
         <v>2</v>
       </c>
@@ -1844,15 +1848,15 @@
         <v/>
       </c>
       <c r="W6" s="15" t="str">
-        <f>IF(_fanchui7_day_hour!B3="","",_fanchui7_day_hour!B3)</f>
+        <f>IF(_fanchui7_day_hour!A3="","",_fanchui7_day_hour!A3)</f>
         <v/>
       </c>
       <c r="X6" s="39" t="str">
-        <f>IFERROR(AVERAGE(_fanchui7_day_hour!C3:'_fanchui7_day_hour'!F3)-_fanchui7_day_hour!G3,"")</f>
+        <f>IFERROR(AVERAGE(_fanchui7_day_hour!B3:'_fanchui7_day_hour'!E3)-_fanchui7_day_hour!F3,"")</f>
         <v/>
       </c>
       <c r="Y6" s="39" t="str">
-        <f>IFERROR(AVERAGE(_fanchui7_day_hour!H3:'_fanchui7_day_hour'!K3)-_fanchui7_day_hour!L3,"")</f>
+        <f>IFERROR(AVERAGE(_fanchui7_day_hour!G3:'_fanchui7_day_hour'!J3)-_fanchui7_day_hour!K3,"")</f>
         <v/>
       </c>
       <c r="Z6" s="28" t="str">
@@ -1863,9 +1867,9 @@
         <f>IF(_maxmin_day_hour!B3="","",_maxmin_day_hour!B3)</f>
         <v/>
       </c>
-      <c r="AB6" s="44"/>
+      <c r="AB6" s="55"/>
     </row>
-    <row r="7" spans="1:28" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="11">
         <v>3</v>
       </c>
@@ -1954,15 +1958,15 @@
         <v/>
       </c>
       <c r="W7" s="15" t="str">
-        <f>IF(_fanchui7_day_hour!B4="","",_fanchui7_day_hour!B4)</f>
+        <f>IF(_fanchui7_day_hour!A4="","",_fanchui7_day_hour!A4)</f>
         <v/>
       </c>
       <c r="X7" s="39" t="str">
-        <f>IFERROR(AVERAGE(_fanchui7_day_hour!C4:'_fanchui7_day_hour'!F4)-_fanchui7_day_hour!G4,"")</f>
+        <f>IFERROR(AVERAGE(_fanchui7_day_hour!B4:'_fanchui7_day_hour'!E4)-_fanchui7_day_hour!F4,"")</f>
         <v/>
       </c>
       <c r="Y7" s="39" t="str">
-        <f>IFERROR(AVERAGE(_fanchui7_day_hour!H4:'_fanchui7_day_hour'!K4)-_fanchui7_day_hour!L4,"")</f>
+        <f>IFERROR(AVERAGE(_fanchui7_day_hour!G4:'_fanchui7_day_hour'!J4)-_fanchui7_day_hour!K4,"")</f>
         <v/>
       </c>
       <c r="Z7" s="42" t="str">
@@ -1973,9 +1977,9 @@
         <f>IF(_maxmin_day_hour!B4="","",_maxmin_day_hour!B4)</f>
         <v/>
       </c>
-      <c r="AB7" s="44"/>
+      <c r="AB7" s="55"/>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A8" s="13">
         <v>4</v>
       </c>
@@ -2064,15 +2068,15 @@
         <v/>
       </c>
       <c r="W8" s="15" t="str">
-        <f>IF(_fanchui7_day_hour!B5="","",_fanchui7_day_hour!B5)</f>
+        <f>IF(_fanchui7_day_hour!A5="","",_fanchui7_day_hour!A5)</f>
         <v/>
       </c>
       <c r="X8" s="39" t="str">
-        <f>IFERROR(AVERAGE(_fanchui7_day_hour!C5:'_fanchui7_day_hour'!F5)-_fanchui7_day_hour!G5,"")</f>
+        <f>IFERROR(AVERAGE(_fanchui7_day_hour!B5:'_fanchui7_day_hour'!E5)-_fanchui7_day_hour!F5,"")</f>
         <v/>
       </c>
       <c r="Y8" s="39" t="str">
-        <f>IFERROR(AVERAGE(_fanchui7_day_hour!H5:'_fanchui7_day_hour'!K5)-_fanchui7_day_hour!L5,"")</f>
+        <f>IFERROR(AVERAGE(_fanchui7_day_hour!G5:'_fanchui7_day_hour'!J5)-_fanchui7_day_hour!K5,"")</f>
         <v/>
       </c>
       <c r="Z8" s="28" t="str">
@@ -2083,9 +2087,9 @@
         <f>IF(_maxmin_day_hour!B5="","",_maxmin_day_hour!B5)</f>
         <v/>
       </c>
-      <c r="AB8" s="44"/>
+      <c r="AB8" s="55"/>
     </row>
-    <row r="9" spans="1:28" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="11">
         <v>5</v>
       </c>
@@ -2174,15 +2178,15 @@
         <v/>
       </c>
       <c r="W9" s="15" t="str">
-        <f>IF(_fanchui7_day_hour!B6="","",_fanchui7_day_hour!B6)</f>
+        <f>IF(_fanchui7_day_hour!A6="","",_fanchui7_day_hour!A6)</f>
         <v/>
       </c>
       <c r="X9" s="39" t="str">
-        <f>IFERROR(AVERAGE(_fanchui7_day_hour!C6:'_fanchui7_day_hour'!F6)-_fanchui7_day_hour!G6,"")</f>
+        <f>IFERROR(AVERAGE(_fanchui7_day_hour!B6:'_fanchui7_day_hour'!E6)-_fanchui7_day_hour!F6,"")</f>
         <v/>
       </c>
       <c r="Y9" s="39" t="str">
-        <f>IFERROR(AVERAGE(_fanchui7_day_hour!H6:'_fanchui7_day_hour'!K6)-_fanchui7_day_hour!L6,"")</f>
+        <f>IFERROR(AVERAGE(_fanchui7_day_hour!G6:'_fanchui7_day_hour'!J6)-_fanchui7_day_hour!K6,"")</f>
         <v/>
       </c>
       <c r="Z9" s="28" t="str">
@@ -2193,9 +2197,9 @@
         <f>IF(_maxmin_day_hour!B6="","",_maxmin_day_hour!B6)</f>
         <v/>
       </c>
-      <c r="AB9" s="44"/>
+      <c r="AB9" s="55"/>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A10" s="13">
         <v>6</v>
       </c>
@@ -2284,15 +2288,15 @@
         <v/>
       </c>
       <c r="W10" s="15" t="str">
-        <f>IF(_fanchui7_day_hour!B7="","",_fanchui7_day_hour!B7)</f>
+        <f>IF(_fanchui7_day_hour!A7="","",_fanchui7_day_hour!A7)</f>
         <v/>
       </c>
       <c r="X10" s="39" t="str">
-        <f>IFERROR(AVERAGE(_fanchui7_day_hour!C7:'_fanchui7_day_hour'!F7)-_fanchui7_day_hour!G7,"")</f>
+        <f>IFERROR(AVERAGE(_fanchui7_day_hour!B7:'_fanchui7_day_hour'!E7)-_fanchui7_day_hour!F7,"")</f>
         <v/>
       </c>
       <c r="Y10" s="39" t="str">
-        <f>IFERROR(AVERAGE(_fanchui7_day_hour!H7:'_fanchui7_day_hour'!K7)-_fanchui7_day_hour!L7,"")</f>
+        <f>IFERROR(AVERAGE(_fanchui7_day_hour!G7:'_fanchui7_day_hour'!J7)-_fanchui7_day_hour!K7,"")</f>
         <v/>
       </c>
       <c r="Z10" s="28" t="str">
@@ -2303,9 +2307,9 @@
         <f>IF(_maxmin_day_hour!B7="","",_maxmin_day_hour!B7)</f>
         <v/>
       </c>
-      <c r="AB10" s="44"/>
+      <c r="AB10" s="55"/>
     </row>
-    <row r="11" spans="1:28" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="11">
         <v>7</v>
       </c>
@@ -2394,15 +2398,15 @@
         <v/>
       </c>
       <c r="W11" s="15" t="str">
-        <f>IF(_fanchui7_day_hour!B8="","",_fanchui7_day_hour!B8)</f>
+        <f>IF(_fanchui7_day_hour!A8="","",_fanchui7_day_hour!A8)</f>
         <v/>
       </c>
       <c r="X11" s="39" t="str">
-        <f>IFERROR(AVERAGE(_fanchui7_day_hour!C8:'_fanchui7_day_hour'!F8)-_fanchui7_day_hour!G8,"")</f>
+        <f>IFERROR(AVERAGE(_fanchui7_day_hour!B8:'_fanchui7_day_hour'!E8)-_fanchui7_day_hour!F8,"")</f>
         <v/>
       </c>
       <c r="Y11" s="39" t="str">
-        <f>IFERROR(AVERAGE(_fanchui7_day_hour!H8:'_fanchui7_day_hour'!K8)-_fanchui7_day_hour!L8,"")</f>
+        <f>IFERROR(AVERAGE(_fanchui7_day_hour!G8:'_fanchui7_day_hour'!J8)-_fanchui7_day_hour!K8,"")</f>
         <v/>
       </c>
       <c r="Z11" s="28" t="str">
@@ -2413,9 +2417,9 @@
         <f>IF(_maxmin_day_hour!B8="","",_maxmin_day_hour!B8)</f>
         <v/>
       </c>
-      <c r="AB11" s="44"/>
+      <c r="AB11" s="55"/>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A12" s="13">
         <v>8</v>
       </c>
@@ -2504,15 +2508,15 @@
         <v/>
       </c>
       <c r="W12" s="15" t="str">
-        <f>IF(_fanchui7_day_hour!B9="","",_fanchui7_day_hour!B9)</f>
+        <f>IF(_fanchui7_day_hour!A9="","",_fanchui7_day_hour!A9)</f>
         <v/>
       </c>
       <c r="X12" s="39" t="str">
-        <f>IFERROR(AVERAGE(_fanchui7_day_hour!C9:'_fanchui7_day_hour'!F9)-_fanchui7_day_hour!G9,"")</f>
+        <f>IFERROR(AVERAGE(_fanchui7_day_hour!B9:'_fanchui7_day_hour'!E9)-_fanchui7_day_hour!F9,"")</f>
         <v/>
       </c>
       <c r="Y12" s="39" t="str">
-        <f>IFERROR(AVERAGE(_fanchui7_day_hour!H9:'_fanchui7_day_hour'!K9)-_fanchui7_day_hour!L9,"")</f>
+        <f>IFERROR(AVERAGE(_fanchui7_day_hour!G9:'_fanchui7_day_hour'!J9)-_fanchui7_day_hour!K9,"")</f>
         <v/>
       </c>
       <c r="Z12" s="28" t="str">
@@ -2523,9 +2527,9 @@
         <f>IF(_maxmin_day_hour!B9="","",_maxmin_day_hour!B9)</f>
         <v/>
       </c>
-      <c r="AB12" s="44"/>
+      <c r="AB12" s="55"/>
     </row>
-    <row r="13" spans="1:28" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="11">
         <v>9</v>
       </c>
@@ -2614,15 +2618,15 @@
         <v/>
       </c>
       <c r="W13" s="15" t="str">
-        <f>IF(_fanchui7_day_hour!B10="","",_fanchui7_day_hour!B10)</f>
+        <f>IF(_fanchui7_day_hour!A10="","",_fanchui7_day_hour!A10)</f>
         <v/>
       </c>
       <c r="X13" s="39" t="str">
-        <f>IFERROR(AVERAGE(_fanchui7_day_hour!C10:'_fanchui7_day_hour'!F10)-_fanchui7_day_hour!G10,"")</f>
+        <f>IFERROR(AVERAGE(_fanchui7_day_hour!B10:'_fanchui7_day_hour'!E10)-_fanchui7_day_hour!F10,"")</f>
         <v/>
       </c>
       <c r="Y13" s="39" t="str">
-        <f>IFERROR(AVERAGE(_fanchui7_day_hour!H10:'_fanchui7_day_hour'!K10)-_fanchui7_day_hour!L10,"")</f>
+        <f>IFERROR(AVERAGE(_fanchui7_day_hour!G10:'_fanchui7_day_hour'!J10)-_fanchui7_day_hour!K10,"")</f>
         <v/>
       </c>
       <c r="Z13" s="28" t="str">
@@ -2633,11 +2637,11 @@
         <f>IF(_maxmin_day_hour!B10="","",_maxmin_day_hour!B10)</f>
         <v/>
       </c>
-      <c r="AB13" s="43" t="s">
+      <c r="AB13" s="54" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A14" s="13">
         <v>10</v>
       </c>
@@ -2726,15 +2730,15 @@
         <v/>
       </c>
       <c r="W14" s="15" t="str">
-        <f>IF(_fanchui7_day_hour!B11="","",_fanchui7_day_hour!B11)</f>
+        <f>IF(_fanchui7_day_hour!A11="","",_fanchui7_day_hour!A11)</f>
         <v/>
       </c>
       <c r="X14" s="39" t="str">
-        <f>IFERROR(AVERAGE(_fanchui7_day_hour!C11:'_fanchui7_day_hour'!F11)-_fanchui7_day_hour!G11,"")</f>
+        <f>IFERROR(AVERAGE(_fanchui7_day_hour!B11:'_fanchui7_day_hour'!E11)-_fanchui7_day_hour!F11,"")</f>
         <v/>
       </c>
       <c r="Y14" s="39" t="str">
-        <f>IFERROR(AVERAGE(_fanchui7_day_hour!H11:'_fanchui7_day_hour'!K11)-_fanchui7_day_hour!L11,"")</f>
+        <f>IFERROR(AVERAGE(_fanchui7_day_hour!G11:'_fanchui7_day_hour'!J11)-_fanchui7_day_hour!K11,"")</f>
         <v/>
       </c>
       <c r="Z14" s="28" t="str">
@@ -2745,9 +2749,9 @@
         <f>IF(_maxmin_day_hour!B11="","",_maxmin_day_hour!B11)</f>
         <v/>
       </c>
-      <c r="AB14" s="44"/>
+      <c r="AB14" s="55"/>
     </row>
-    <row r="15" spans="1:28" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" s="11">
         <v>11</v>
       </c>
@@ -2836,15 +2840,15 @@
         <v/>
       </c>
       <c r="W15" s="15" t="str">
-        <f>IF(_fanchui7_day_hour!B12="","",_fanchui7_day_hour!B12)</f>
+        <f>IF(_fanchui7_day_hour!A12="","",_fanchui7_day_hour!A12)</f>
         <v/>
       </c>
       <c r="X15" s="39" t="str">
-        <f>IFERROR(AVERAGE(_fanchui7_day_hour!C12:'_fanchui7_day_hour'!F12)-_fanchui7_day_hour!G12,"")</f>
+        <f>IFERROR(AVERAGE(_fanchui7_day_hour!B12:'_fanchui7_day_hour'!E12)-_fanchui7_day_hour!F12,"")</f>
         <v/>
       </c>
       <c r="Y15" s="39" t="str">
-        <f>IFERROR(AVERAGE(_fanchui7_day_hour!H12:'_fanchui7_day_hour'!K12)-_fanchui7_day_hour!L12,"")</f>
+        <f>IFERROR(AVERAGE(_fanchui7_day_hour!G12:'_fanchui7_day_hour'!J12)-_fanchui7_day_hour!K12,"")</f>
         <v/>
       </c>
       <c r="Z15" s="28" t="str">
@@ -2855,9 +2859,9 @@
         <f>IF(_maxmin_day_hour!B12="","",_maxmin_day_hour!B12)</f>
         <v/>
       </c>
-      <c r="AB15" s="44"/>
+      <c r="AB15" s="55"/>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A16" s="13">
         <v>12</v>
       </c>
@@ -2946,15 +2950,15 @@
         <v/>
       </c>
       <c r="W16" s="15" t="str">
-        <f>IF(_fanchui7_day_hour!B13="","",_fanchui7_day_hour!B13)</f>
+        <f>IF(_fanchui7_day_hour!A13="","",_fanchui7_day_hour!A13)</f>
         <v/>
       </c>
       <c r="X16" s="39" t="str">
-        <f>IFERROR(AVERAGE(_fanchui7_day_hour!C13:'_fanchui7_day_hour'!F13)-_fanchui7_day_hour!G13,"")</f>
+        <f>IFERROR(AVERAGE(_fanchui7_day_hour!B13:'_fanchui7_day_hour'!E13)-_fanchui7_day_hour!F13,"")</f>
         <v/>
       </c>
       <c r="Y16" s="39" t="str">
-        <f>IFERROR(AVERAGE(_fanchui7_day_hour!H13:'_fanchui7_day_hour'!K13)-_fanchui7_day_hour!L13,"")</f>
+        <f>IFERROR(AVERAGE(_fanchui7_day_hour!G13:'_fanchui7_day_hour'!J13)-_fanchui7_day_hour!K13,"")</f>
         <v/>
       </c>
       <c r="Z16" s="28" t="str">
@@ -2965,9 +2969,9 @@
         <f>IF(_maxmin_day_hour!B13="","",_maxmin_day_hour!B13)</f>
         <v/>
       </c>
-      <c r="AB16" s="44"/>
+      <c r="AB16" s="55"/>
     </row>
-    <row r="17" spans="1:28" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A17" s="11">
         <v>13</v>
       </c>
@@ -3056,15 +3060,15 @@
         <v/>
       </c>
       <c r="W17" s="15" t="str">
-        <f>IF(_fanchui7_day_hour!B14="","",_fanchui7_day_hour!B14)</f>
+        <f>IF(_fanchui7_day_hour!A14="","",_fanchui7_day_hour!A14)</f>
         <v/>
       </c>
       <c r="X17" s="39" t="str">
-        <f>IFERROR(AVERAGE(_fanchui7_day_hour!C14:'_fanchui7_day_hour'!F14)-_fanchui7_day_hour!G14,"")</f>
+        <f>IFERROR(AVERAGE(_fanchui7_day_hour!B14:'_fanchui7_day_hour'!E14)-_fanchui7_day_hour!F14,"")</f>
         <v/>
       </c>
       <c r="Y17" s="39" t="str">
-        <f>IFERROR(AVERAGE(_fanchui7_day_hour!H14:'_fanchui7_day_hour'!K14)-_fanchui7_day_hour!L14,"")</f>
+        <f>IFERROR(AVERAGE(_fanchui7_day_hour!G14:'_fanchui7_day_hour'!J14)-_fanchui7_day_hour!K14,"")</f>
         <v/>
       </c>
       <c r="Z17" s="28" t="str">
@@ -3075,9 +3079,9 @@
         <f>IF(_maxmin_day_hour!B14="","",_maxmin_day_hour!B14)</f>
         <v/>
       </c>
-      <c r="AB17" s="44"/>
+      <c r="AB17" s="55"/>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A18" s="13">
         <v>14</v>
       </c>
@@ -3166,15 +3170,15 @@
         <v/>
       </c>
       <c r="W18" s="15" t="str">
-        <f>IF(_fanchui7_day_hour!B15="","",_fanchui7_day_hour!B15)</f>
+        <f>IF(_fanchui7_day_hour!A15="","",_fanchui7_day_hour!A15)</f>
         <v/>
       </c>
       <c r="X18" s="39" t="str">
-        <f>IFERROR(AVERAGE(_fanchui7_day_hour!C15:'_fanchui7_day_hour'!F15)-_fanchui7_day_hour!G15,"")</f>
+        <f>IFERROR(AVERAGE(_fanchui7_day_hour!B15:'_fanchui7_day_hour'!E15)-_fanchui7_day_hour!F15,"")</f>
         <v/>
       </c>
       <c r="Y18" s="39" t="str">
-        <f>IFERROR(AVERAGE(_fanchui7_day_hour!H15:'_fanchui7_day_hour'!K15)-_fanchui7_day_hour!L15,"")</f>
+        <f>IFERROR(AVERAGE(_fanchui7_day_hour!G15:'_fanchui7_day_hour'!J15)-_fanchui7_day_hour!K15,"")</f>
         <v/>
       </c>
       <c r="Z18" s="28" t="str">
@@ -3185,9 +3189,9 @@
         <f>IF(_maxmin_day_hour!B15="","",_maxmin_day_hour!B15)</f>
         <v/>
       </c>
-      <c r="AB18" s="44"/>
+      <c r="AB18" s="55"/>
     </row>
-    <row r="19" spans="1:28" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A19" s="11">
         <v>15</v>
       </c>
@@ -3276,15 +3280,15 @@
         <v/>
       </c>
       <c r="W19" s="15" t="str">
-        <f>IF(_fanchui7_day_hour!B16="","",_fanchui7_day_hour!B16)</f>
+        <f>IF(_fanchui7_day_hour!A16="","",_fanchui7_day_hour!A16)</f>
         <v/>
       </c>
       <c r="X19" s="39" t="str">
-        <f>IFERROR(AVERAGE(_fanchui7_day_hour!C16:'_fanchui7_day_hour'!F16)-_fanchui7_day_hour!G16,"")</f>
+        <f>IFERROR(AVERAGE(_fanchui7_day_hour!B16:'_fanchui7_day_hour'!E16)-_fanchui7_day_hour!F16,"")</f>
         <v/>
       </c>
       <c r="Y19" s="39" t="str">
-        <f>IFERROR(AVERAGE(_fanchui7_day_hour!H16:'_fanchui7_day_hour'!K16)-_fanchui7_day_hour!L16,"")</f>
+        <f>IFERROR(AVERAGE(_fanchui7_day_hour!G16:'_fanchui7_day_hour'!J16)-_fanchui7_day_hour!K16,"")</f>
         <v/>
       </c>
       <c r="Z19" s="28" t="str">
@@ -3295,9 +3299,9 @@
         <f>IF(_maxmin_day_hour!B16="","",_maxmin_day_hour!B16)</f>
         <v/>
       </c>
-      <c r="AB19" s="44"/>
+      <c r="AB19" s="55"/>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A20" s="13">
         <v>16</v>
       </c>
@@ -3386,15 +3390,15 @@
         <v/>
       </c>
       <c r="W20" s="15" t="str">
-        <f>IF(_fanchui7_day_hour!B17="","",_fanchui7_day_hour!B17)</f>
+        <f>IF(_fanchui7_day_hour!A17="","",_fanchui7_day_hour!A17)</f>
         <v/>
       </c>
       <c r="X20" s="39" t="str">
-        <f>IFERROR(AVERAGE(_fanchui7_day_hour!C17:'_fanchui7_day_hour'!F17)-_fanchui7_day_hour!G17,"")</f>
+        <f>IFERROR(AVERAGE(_fanchui7_day_hour!B17:'_fanchui7_day_hour'!E17)-_fanchui7_day_hour!F17,"")</f>
         <v/>
       </c>
       <c r="Y20" s="39" t="str">
-        <f>IFERROR(AVERAGE(_fanchui7_day_hour!H17:'_fanchui7_day_hour'!K17)-_fanchui7_day_hour!L17,"")</f>
+        <f>IFERROR(AVERAGE(_fanchui7_day_hour!G17:'_fanchui7_day_hour'!J17)-_fanchui7_day_hour!K17,"")</f>
         <v/>
       </c>
       <c r="Z20" s="28" t="str">
@@ -3405,9 +3409,9 @@
         <f>IF(_maxmin_day_hour!B17="","",_maxmin_day_hour!B17)</f>
         <v/>
       </c>
-      <c r="AB20" s="44"/>
+      <c r="AB20" s="55"/>
     </row>
-    <row r="21" spans="1:28" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A21" s="11">
         <v>17</v>
       </c>
@@ -3496,15 +3500,15 @@
         <v/>
       </c>
       <c r="W21" s="15" t="str">
-        <f>IF(_fanchui7_day_hour!B18="","",_fanchui7_day_hour!B18)</f>
+        <f>IF(_fanchui7_day_hour!A18="","",_fanchui7_day_hour!A18)</f>
         <v/>
       </c>
       <c r="X21" s="39" t="str">
-        <f>IFERROR(AVERAGE(_fanchui7_day_hour!C18:'_fanchui7_day_hour'!F18)-_fanchui7_day_hour!G18,"")</f>
+        <f>IFERROR(AVERAGE(_fanchui7_day_hour!B18:'_fanchui7_day_hour'!E18)-_fanchui7_day_hour!F18,"")</f>
         <v/>
       </c>
       <c r="Y21" s="39" t="str">
-        <f>IFERROR(AVERAGE(_fanchui7_day_hour!H18:'_fanchui7_day_hour'!K18)-_fanchui7_day_hour!L18,"")</f>
+        <f>IFERROR(AVERAGE(_fanchui7_day_hour!G18:'_fanchui7_day_hour'!J18)-_fanchui7_day_hour!K18,"")</f>
         <v/>
       </c>
       <c r="Z21" s="28" t="str">
@@ -3515,11 +3519,11 @@
         <f>IF(_maxmin_day_hour!B18="","",_maxmin_day_hour!B18)</f>
         <v/>
       </c>
-      <c r="AB21" s="43" t="s">
+      <c r="AB21" s="54" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A22" s="13">
         <v>18</v>
       </c>
@@ -3608,15 +3612,15 @@
         <v/>
       </c>
       <c r="W22" s="15" t="str">
-        <f>IF(_fanchui7_day_hour!B19="","",_fanchui7_day_hour!B19)</f>
+        <f>IF(_fanchui7_day_hour!A19="","",_fanchui7_day_hour!A19)</f>
         <v/>
       </c>
       <c r="X22" s="39" t="str">
-        <f>IFERROR(AVERAGE(_fanchui7_day_hour!C19:'_fanchui7_day_hour'!F19)-_fanchui7_day_hour!G19,"")</f>
+        <f>IFERROR(AVERAGE(_fanchui7_day_hour!B19:'_fanchui7_day_hour'!E19)-_fanchui7_day_hour!F19,"")</f>
         <v/>
       </c>
       <c r="Y22" s="39" t="str">
-        <f>IFERROR(AVERAGE(_fanchui7_day_hour!H19:'_fanchui7_day_hour'!K19)-_fanchui7_day_hour!L19,"")</f>
+        <f>IFERROR(AVERAGE(_fanchui7_day_hour!G19:'_fanchui7_day_hour'!J19)-_fanchui7_day_hour!K19,"")</f>
         <v/>
       </c>
       <c r="Z22" s="28" t="str">
@@ -3627,9 +3631,9 @@
         <f>IF(_maxmin_day_hour!B19="","",_maxmin_day_hour!B19)</f>
         <v/>
       </c>
-      <c r="AB22" s="44"/>
+      <c r="AB22" s="55"/>
     </row>
-    <row r="23" spans="1:28" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A23" s="11">
         <v>19</v>
       </c>
@@ -3718,15 +3722,15 @@
         <v/>
       </c>
       <c r="W23" s="15" t="str">
-        <f>IF(_fanchui7_day_hour!B20="","",_fanchui7_day_hour!B20)</f>
+        <f>IF(_fanchui7_day_hour!A20="","",_fanchui7_day_hour!A20)</f>
         <v/>
       </c>
       <c r="X23" s="39" t="str">
-        <f>IFERROR(AVERAGE(_fanchui7_day_hour!C20:'_fanchui7_day_hour'!F20)-_fanchui7_day_hour!G20,"")</f>
+        <f>IFERROR(AVERAGE(_fanchui7_day_hour!B20:'_fanchui7_day_hour'!E20)-_fanchui7_day_hour!F20,"")</f>
         <v/>
       </c>
       <c r="Y23" s="39" t="str">
-        <f>IFERROR(AVERAGE(_fanchui7_day_hour!H20:'_fanchui7_day_hour'!K20)-_fanchui7_day_hour!L20,"")</f>
+        <f>IFERROR(AVERAGE(_fanchui7_day_hour!G20:'_fanchui7_day_hour'!J20)-_fanchui7_day_hour!K20,"")</f>
         <v/>
       </c>
       <c r="Z23" s="28" t="str">
@@ -3737,9 +3741,9 @@
         <f>IF(_maxmin_day_hour!B20="","",_maxmin_day_hour!B20)</f>
         <v/>
       </c>
-      <c r="AB23" s="44"/>
+      <c r="AB23" s="55"/>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A24" s="13">
         <v>20</v>
       </c>
@@ -3828,15 +3832,15 @@
         <v/>
       </c>
       <c r="W24" s="15" t="str">
-        <f>IF(_fanchui7_day_hour!B21="","",_fanchui7_day_hour!B21)</f>
+        <f>IF(_fanchui7_day_hour!A21="","",_fanchui7_day_hour!A21)</f>
         <v/>
       </c>
       <c r="X24" s="39" t="str">
-        <f>IFERROR(AVERAGE(_fanchui7_day_hour!C21:'_fanchui7_day_hour'!F21)-_fanchui7_day_hour!G21,"")</f>
+        <f>IFERROR(AVERAGE(_fanchui7_day_hour!B21:'_fanchui7_day_hour'!E21)-_fanchui7_day_hour!F21,"")</f>
         <v/>
       </c>
       <c r="Y24" s="39" t="str">
-        <f>IFERROR(AVERAGE(_fanchui7_day_hour!H21:'_fanchui7_day_hour'!K21)-_fanchui7_day_hour!L21,"")</f>
+        <f>IFERROR(AVERAGE(_fanchui7_day_hour!G21:'_fanchui7_day_hour'!J21)-_fanchui7_day_hour!K21,"")</f>
         <v/>
       </c>
       <c r="Z24" s="28" t="str">
@@ -3847,9 +3851,9 @@
         <f>IF(_maxmin_day_hour!B21="","",_maxmin_day_hour!B21)</f>
         <v/>
       </c>
-      <c r="AB24" s="44"/>
+      <c r="AB24" s="55"/>
     </row>
-    <row r="25" spans="1:28" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A25" s="11">
         <v>21</v>
       </c>
@@ -3938,15 +3942,15 @@
         <v/>
       </c>
       <c r="W25" s="15" t="str">
-        <f>IF(_fanchui7_day_hour!B22="","",_fanchui7_day_hour!B22)</f>
+        <f>IF(_fanchui7_day_hour!A22="","",_fanchui7_day_hour!A22)</f>
         <v/>
       </c>
       <c r="X25" s="39" t="str">
-        <f>IFERROR(AVERAGE(_fanchui7_day_hour!C22:'_fanchui7_day_hour'!F22)-_fanchui7_day_hour!G22,"")</f>
+        <f>IFERROR(AVERAGE(_fanchui7_day_hour!B22:'_fanchui7_day_hour'!E22)-_fanchui7_day_hour!F22,"")</f>
         <v/>
       </c>
       <c r="Y25" s="39" t="str">
-        <f>IFERROR(AVERAGE(_fanchui7_day_hour!H22:'_fanchui7_day_hour'!K22)-_fanchui7_day_hour!L22,"")</f>
+        <f>IFERROR(AVERAGE(_fanchui7_day_hour!G22:'_fanchui7_day_hour'!J22)-_fanchui7_day_hour!K22,"")</f>
         <v/>
       </c>
       <c r="Z25" s="28" t="str">
@@ -3957,9 +3961,9 @@
         <f>IF(_maxmin_day_hour!B22="","",_maxmin_day_hour!B22)</f>
         <v/>
       </c>
-      <c r="AB25" s="44"/>
+      <c r="AB25" s="55"/>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A26" s="13">
         <v>22</v>
       </c>
@@ -4048,15 +4052,15 @@
         <v/>
       </c>
       <c r="W26" s="15" t="str">
-        <f>IF(_fanchui7_day_hour!B23="","",_fanchui7_day_hour!B23)</f>
+        <f>IF(_fanchui7_day_hour!A23="","",_fanchui7_day_hour!A23)</f>
         <v/>
       </c>
       <c r="X26" s="39" t="str">
-        <f>IFERROR(AVERAGE(_fanchui7_day_hour!C23:'_fanchui7_day_hour'!F23)-_fanchui7_day_hour!G23,"")</f>
+        <f>IFERROR(AVERAGE(_fanchui7_day_hour!B23:'_fanchui7_day_hour'!E23)-_fanchui7_day_hour!F23,"")</f>
         <v/>
       </c>
       <c r="Y26" s="39" t="str">
-        <f>IFERROR(AVERAGE(_fanchui7_day_hour!H23:'_fanchui7_day_hour'!K23)-_fanchui7_day_hour!L23,"")</f>
+        <f>IFERROR(AVERAGE(_fanchui7_day_hour!G23:'_fanchui7_day_hour'!J23)-_fanchui7_day_hour!K23,"")</f>
         <v/>
       </c>
       <c r="Z26" s="28" t="str">
@@ -4067,9 +4071,9 @@
         <f>IF(_maxmin_day_hour!B23="","",_maxmin_day_hour!B23)</f>
         <v/>
       </c>
-      <c r="AB26" s="44"/>
+      <c r="AB26" s="55"/>
     </row>
-    <row r="27" spans="1:28" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A27" s="11">
         <v>23</v>
       </c>
@@ -4158,15 +4162,15 @@
         <v/>
       </c>
       <c r="W27" s="15" t="str">
-        <f>IF(_fanchui7_day_hour!B24="","",_fanchui7_day_hour!B24)</f>
+        <f>IF(_fanchui7_day_hour!A24="","",_fanchui7_day_hour!A24)</f>
         <v/>
       </c>
       <c r="X27" s="39" t="str">
-        <f>IFERROR(AVERAGE(_fanchui7_day_hour!C24:'_fanchui7_day_hour'!F24)-_fanchui7_day_hour!G24,"")</f>
+        <f>IFERROR(AVERAGE(_fanchui7_day_hour!B24:'_fanchui7_day_hour'!E24)-_fanchui7_day_hour!F24,"")</f>
         <v/>
       </c>
       <c r="Y27" s="39" t="str">
-        <f>IFERROR(AVERAGE(_fanchui7_day_hour!H24:'_fanchui7_day_hour'!K24)-_fanchui7_day_hour!L24,"")</f>
+        <f>IFERROR(AVERAGE(_fanchui7_day_hour!G24:'_fanchui7_day_hour'!J24)-_fanchui7_day_hour!K24,"")</f>
         <v/>
       </c>
       <c r="Z27" s="28" t="str">
@@ -4177,9 +4181,9 @@
         <f>IF(_maxmin_day_hour!B24="","",_maxmin_day_hour!B24)</f>
         <v/>
       </c>
-      <c r="AB27" s="44"/>
+      <c r="AB27" s="55"/>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A28" s="14">
         <v>24</v>
       </c>
@@ -4268,15 +4272,15 @@
         <v/>
       </c>
       <c r="W28" s="16" t="str">
-        <f>IF(_fanchui7_day_hour!B25="","",_fanchui7_day_hour!B25)</f>
+        <f>IF(_fanchui7_day_hour!A25="","",_fanchui7_day_hour!A25)</f>
         <v/>
       </c>
       <c r="X28" s="40" t="str">
-        <f>IFERROR(AVERAGE(_fanchui7_day_hour!C25:'_fanchui7_day_hour'!F25)-_fanchui7_day_hour!G25,"")</f>
+        <f>IFERROR(AVERAGE(_fanchui7_day_hour!B25:'_fanchui7_day_hour'!E25)-_fanchui7_day_hour!F25,"")</f>
         <v/>
       </c>
       <c r="Y28" s="40" t="str">
-        <f>IFERROR(AVERAGE(_fanchui7_day_hour!H25:'_fanchui7_day_hour'!K25)-_fanchui7_day_hour!L25,"")</f>
+        <f>IFERROR(AVERAGE(_fanchui7_day_hour!G25:'_fanchui7_day_hour'!J25)-_fanchui7_day_hour!K25,"")</f>
         <v/>
       </c>
       <c r="Z28" s="29" t="str">
@@ -4287,10 +4291,17 @@
         <f>IF(_maxmin_day_hour!B25="","",_maxmin_day_hour!B25)</f>
         <v/>
       </c>
-      <c r="AB28" s="45"/>
+      <c r="AB28" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AB5:AB12"/>
+    <mergeCell ref="AB13:AB20"/>
+    <mergeCell ref="AB21:AB28"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="T3:V3"/>
+    <mergeCell ref="W3:Y3"/>
+    <mergeCell ref="Z3:AA3"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
@@ -4301,13 +4312,6 @@
     <mergeCell ref="J3:L3"/>
     <mergeCell ref="M3:O3"/>
     <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="AB5:AB12"/>
-    <mergeCell ref="AB13:AB20"/>
-    <mergeCell ref="AB21:AB28"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="T3:V3"/>
-    <mergeCell ref="W3:Y3"/>
-    <mergeCell ref="Z3:AA3"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4324,9 +4328,9 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:95" s="5" customFormat="1" ht="93.6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:95" s="5" customFormat="1" ht="71.25" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
         <v>30</v>
       </c>
@@ -4613,7 +4617,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="26" spans="38:95" x14ac:dyDescent="0.25">
+    <row r="26" spans="38:95" x14ac:dyDescent="0.15">
       <c r="AM26" t="str">
         <f t="shared" ref="AM26:AM49" si="0">IF(B2="","",IF(B2=0,AM2,""))</f>
         <v/>
@@ -4835,7 +4839,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="38:95" x14ac:dyDescent="0.25">
+    <row r="27" spans="38:95" x14ac:dyDescent="0.15">
       <c r="AL27" t="str">
         <f t="shared" ref="AL27:AL49" si="55">IF(A3="","",IF(A3=0,AL3,""))</f>
         <v/>
@@ -5061,7 +5065,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="38:95" x14ac:dyDescent="0.25">
+    <row r="28" spans="38:95" x14ac:dyDescent="0.15">
       <c r="AL28" t="str">
         <f t="shared" si="55"/>
         <v/>
@@ -5287,7 +5291,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="38:95" x14ac:dyDescent="0.25">
+    <row r="29" spans="38:95" x14ac:dyDescent="0.15">
       <c r="AL29" t="str">
         <f t="shared" si="55"/>
         <v/>
@@ -5513,7 +5517,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="38:95" x14ac:dyDescent="0.25">
+    <row r="30" spans="38:95" x14ac:dyDescent="0.15">
       <c r="AL30" t="str">
         <f t="shared" si="55"/>
         <v/>
@@ -5739,7 +5743,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="38:95" x14ac:dyDescent="0.25">
+    <row r="31" spans="38:95" x14ac:dyDescent="0.15">
       <c r="AL31" t="str">
         <f t="shared" si="55"/>
         <v/>
@@ -5965,7 +5969,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="38:95" x14ac:dyDescent="0.25">
+    <row r="32" spans="38:95" x14ac:dyDescent="0.15">
       <c r="AL32" t="str">
         <f t="shared" si="55"/>
         <v/>
@@ -6191,7 +6195,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="38:95" x14ac:dyDescent="0.25">
+    <row r="33" spans="38:95" x14ac:dyDescent="0.15">
       <c r="AL33" t="str">
         <f t="shared" si="55"/>
         <v/>
@@ -6417,7 +6421,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="38:95" x14ac:dyDescent="0.25">
+    <row r="34" spans="38:95" x14ac:dyDescent="0.15">
       <c r="AL34" t="str">
         <f t="shared" si="55"/>
         <v/>
@@ -6643,7 +6647,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="38:95" x14ac:dyDescent="0.25">
+    <row r="35" spans="38:95" x14ac:dyDescent="0.15">
       <c r="AL35" t="str">
         <f t="shared" si="55"/>
         <v/>
@@ -6869,7 +6873,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="38:95" x14ac:dyDescent="0.25">
+    <row r="36" spans="38:95" x14ac:dyDescent="0.15">
       <c r="AL36" t="str">
         <f t="shared" si="55"/>
         <v/>
@@ -7095,7 +7099,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="38:95" x14ac:dyDescent="0.25">
+    <row r="37" spans="38:95" x14ac:dyDescent="0.15">
       <c r="AL37" t="str">
         <f t="shared" si="55"/>
         <v/>
@@ -7321,7 +7325,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="38:95" x14ac:dyDescent="0.25">
+    <row r="38" spans="38:95" x14ac:dyDescent="0.15">
       <c r="AL38" t="str">
         <f t="shared" si="55"/>
         <v/>
@@ -7547,7 +7551,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="38:95" x14ac:dyDescent="0.25">
+    <row r="39" spans="38:95" x14ac:dyDescent="0.15">
       <c r="AL39" t="str">
         <f t="shared" si="55"/>
         <v/>
@@ -7773,7 +7777,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="38:95" x14ac:dyDescent="0.25">
+    <row r="40" spans="38:95" x14ac:dyDescent="0.15">
       <c r="AL40" t="str">
         <f t="shared" si="55"/>
         <v/>
@@ -7999,7 +8003,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="38:95" x14ac:dyDescent="0.25">
+    <row r="41" spans="38:95" x14ac:dyDescent="0.15">
       <c r="AL41" t="str">
         <f t="shared" si="55"/>
         <v/>
@@ -8225,7 +8229,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="38:95" x14ac:dyDescent="0.25">
+    <row r="42" spans="38:95" x14ac:dyDescent="0.15">
       <c r="AL42" t="str">
         <f t="shared" si="55"/>
         <v/>
@@ -8451,7 +8455,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="38:95" x14ac:dyDescent="0.25">
+    <row r="43" spans="38:95" x14ac:dyDescent="0.15">
       <c r="AL43" t="str">
         <f t="shared" si="55"/>
         <v/>
@@ -8677,7 +8681,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="38:95" x14ac:dyDescent="0.25">
+    <row r="44" spans="38:95" x14ac:dyDescent="0.15">
       <c r="AL44" t="str">
         <f t="shared" si="55"/>
         <v/>
@@ -8903,7 +8907,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="38:95" x14ac:dyDescent="0.25">
+    <row r="45" spans="38:95" x14ac:dyDescent="0.15">
       <c r="AL45" t="str">
         <f t="shared" si="55"/>
         <v/>
@@ -9129,7 +9133,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="38:95" x14ac:dyDescent="0.25">
+    <row r="46" spans="38:95" x14ac:dyDescent="0.15">
       <c r="AL46" t="str">
         <f t="shared" si="55"/>
         <v/>
@@ -9355,7 +9359,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="38:95" x14ac:dyDescent="0.25">
+    <row r="47" spans="38:95" x14ac:dyDescent="0.15">
       <c r="AL47" t="str">
         <f t="shared" si="55"/>
         <v/>
@@ -9581,7 +9585,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="38:95" x14ac:dyDescent="0.25">
+    <row r="48" spans="38:95" x14ac:dyDescent="0.15">
       <c r="AL48" t="str">
         <f t="shared" si="55"/>
         <v/>
@@ -9807,7 +9811,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="38:95" x14ac:dyDescent="0.25">
+    <row r="49" spans="38:95" x14ac:dyDescent="0.15">
       <c r="AL49" t="str">
         <f t="shared" si="55"/>
         <v/>
@@ -10048,9 +10052,9 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>125</v>
       </c>
@@ -10070,7 +10074,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -10079,49 +10083,46 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="72" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C1" s="2" t="s">
+    <row r="1" spans="1:11" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A1" s="60" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>59</v>
       </c>
+      <c r="C1" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="D1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>96</v>
       </c>
     </row>
@@ -10140,14 +10141,14 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" customWidth="1"/>
+    <col min="1" max="1" width="21.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="59" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B1" s="59"/>
     </row>

--- a/excel/finished/环保/7BF-煤气布袋除尘报表.xlsx
+++ b/excel/finished/环保/7BF-煤气布袋除尘报表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="7BF-煤气布袋除尘报表" sheetId="1" r:id="rId1"/>
@@ -1127,6 +1127,36 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1151,38 +1181,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1461,8 +1461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB28"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="W13" sqref="W13"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1486,93 +1486,93 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
     </row>
     <row r="2" spans="1:28" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="F2" s="50" t="str">
+      <c r="F2" s="59" t="str">
         <f>IF(_metadata!B2="","",_metadata!B2)</f>
         <v/>
       </c>
-      <c r="G2" s="50"/>
+      <c r="G2" s="59"/>
       <c r="P2" s="20" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:28" ht="39.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="51" t="s">
+      <c r="D3" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="52"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="51" t="s">
+      <c r="E3" s="49"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="52"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="51" t="s">
+      <c r="H3" s="49"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="52"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="51" t="s">
+      <c r="K3" s="49"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="52"/>
-      <c r="O3" s="53"/>
-      <c r="P3" s="51" t="s">
+      <c r="N3" s="49"/>
+      <c r="O3" s="48"/>
+      <c r="P3" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="Q3" s="53"/>
-      <c r="R3" s="51" t="s">
+      <c r="Q3" s="48"/>
+      <c r="R3" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="S3" s="53"/>
-      <c r="T3" s="51" t="s">
+      <c r="S3" s="48"/>
+      <c r="T3" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="U3" s="52"/>
-      <c r="V3" s="53"/>
-      <c r="W3" s="51" t="s">
+      <c r="U3" s="49"/>
+      <c r="V3" s="48"/>
+      <c r="W3" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="X3" s="52"/>
-      <c r="Y3" s="53"/>
-      <c r="Z3" s="57" t="s">
+      <c r="X3" s="49"/>
+      <c r="Y3" s="48"/>
+      <c r="Z3" s="50" t="s">
         <v>128</v>
       </c>
-      <c r="AA3" s="58"/>
+      <c r="AA3" s="51"/>
       <c r="AB3" s="17" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:28" ht="69" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="44"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="48"/>
+      <c r="A4" s="53"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="57"/>
       <c r="D4" s="30" t="s">
         <v>14</v>
       </c>
@@ -1755,7 +1755,7 @@
         <f>IF(_maxmin_day_hour!B2="","",_maxmin_day_hour!B2)</f>
         <v/>
       </c>
-      <c r="AB5" s="54" t="s">
+      <c r="AB5" s="44" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1867,7 +1867,7 @@
         <f>IF(_maxmin_day_hour!B3="","",_maxmin_day_hour!B3)</f>
         <v/>
       </c>
-      <c r="AB6" s="55"/>
+      <c r="AB6" s="45"/>
     </row>
     <row r="7" spans="1:28" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="11">
@@ -1977,7 +1977,7 @@
         <f>IF(_maxmin_day_hour!B4="","",_maxmin_day_hour!B4)</f>
         <v/>
       </c>
-      <c r="AB7" s="55"/>
+      <c r="AB7" s="45"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A8" s="13">
@@ -2087,7 +2087,7 @@
         <f>IF(_maxmin_day_hour!B5="","",_maxmin_day_hour!B5)</f>
         <v/>
       </c>
-      <c r="AB8" s="55"/>
+      <c r="AB8" s="45"/>
     </row>
     <row r="9" spans="1:28" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="11">
@@ -2197,7 +2197,7 @@
         <f>IF(_maxmin_day_hour!B6="","",_maxmin_day_hour!B6)</f>
         <v/>
       </c>
-      <c r="AB9" s="55"/>
+      <c r="AB9" s="45"/>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A10" s="13">
@@ -2307,7 +2307,7 @@
         <f>IF(_maxmin_day_hour!B7="","",_maxmin_day_hour!B7)</f>
         <v/>
       </c>
-      <c r="AB10" s="55"/>
+      <c r="AB10" s="45"/>
     </row>
     <row r="11" spans="1:28" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="11">
@@ -2417,7 +2417,7 @@
         <f>IF(_maxmin_day_hour!B8="","",_maxmin_day_hour!B8)</f>
         <v/>
       </c>
-      <c r="AB11" s="55"/>
+      <c r="AB11" s="45"/>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A12" s="13">
@@ -2527,7 +2527,7 @@
         <f>IF(_maxmin_day_hour!B9="","",_maxmin_day_hour!B9)</f>
         <v/>
       </c>
-      <c r="AB12" s="55"/>
+      <c r="AB12" s="45"/>
     </row>
     <row r="13" spans="1:28" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="11">
@@ -2637,7 +2637,7 @@
         <f>IF(_maxmin_day_hour!B10="","",_maxmin_day_hour!B10)</f>
         <v/>
       </c>
-      <c r="AB13" s="54" t="s">
+      <c r="AB13" s="44" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2749,7 +2749,7 @@
         <f>IF(_maxmin_day_hour!B11="","",_maxmin_day_hour!B11)</f>
         <v/>
       </c>
-      <c r="AB14" s="55"/>
+      <c r="AB14" s="45"/>
     </row>
     <row r="15" spans="1:28" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" s="11">
@@ -2859,7 +2859,7 @@
         <f>IF(_maxmin_day_hour!B12="","",_maxmin_day_hour!B12)</f>
         <v/>
       </c>
-      <c r="AB15" s="55"/>
+      <c r="AB15" s="45"/>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A16" s="13">
@@ -2969,7 +2969,7 @@
         <f>IF(_maxmin_day_hour!B13="","",_maxmin_day_hour!B13)</f>
         <v/>
       </c>
-      <c r="AB16" s="55"/>
+      <c r="AB16" s="45"/>
     </row>
     <row r="17" spans="1:28" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A17" s="11">
@@ -3079,7 +3079,7 @@
         <f>IF(_maxmin_day_hour!B14="","",_maxmin_day_hour!B14)</f>
         <v/>
       </c>
-      <c r="AB17" s="55"/>
+      <c r="AB17" s="45"/>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A18" s="13">
@@ -3189,7 +3189,7 @@
         <f>IF(_maxmin_day_hour!B15="","",_maxmin_day_hour!B15)</f>
         <v/>
       </c>
-      <c r="AB18" s="55"/>
+      <c r="AB18" s="45"/>
     </row>
     <row r="19" spans="1:28" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A19" s="11">
@@ -3299,7 +3299,7 @@
         <f>IF(_maxmin_day_hour!B16="","",_maxmin_day_hour!B16)</f>
         <v/>
       </c>
-      <c r="AB19" s="55"/>
+      <c r="AB19" s="45"/>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A20" s="13">
@@ -3409,7 +3409,7 @@
         <f>IF(_maxmin_day_hour!B17="","",_maxmin_day_hour!B17)</f>
         <v/>
       </c>
-      <c r="AB20" s="55"/>
+      <c r="AB20" s="45"/>
     </row>
     <row r="21" spans="1:28" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A21" s="11">
@@ -3519,7 +3519,7 @@
         <f>IF(_maxmin_day_hour!B18="","",_maxmin_day_hour!B18)</f>
         <v/>
       </c>
-      <c r="AB21" s="54" t="s">
+      <c r="AB21" s="44" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3631,7 +3631,7 @@
         <f>IF(_maxmin_day_hour!B19="","",_maxmin_day_hour!B19)</f>
         <v/>
       </c>
-      <c r="AB22" s="55"/>
+      <c r="AB22" s="45"/>
     </row>
     <row r="23" spans="1:28" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A23" s="11">
@@ -3741,7 +3741,7 @@
         <f>IF(_maxmin_day_hour!B20="","",_maxmin_day_hour!B20)</f>
         <v/>
       </c>
-      <c r="AB23" s="55"/>
+      <c r="AB23" s="45"/>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A24" s="13">
@@ -3851,7 +3851,7 @@
         <f>IF(_maxmin_day_hour!B21="","",_maxmin_day_hour!B21)</f>
         <v/>
       </c>
-      <c r="AB24" s="55"/>
+      <c r="AB24" s="45"/>
     </row>
     <row r="25" spans="1:28" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A25" s="11">
@@ -3961,7 +3961,7 @@
         <f>IF(_maxmin_day_hour!B22="","",_maxmin_day_hour!B22)</f>
         <v/>
       </c>
-      <c r="AB25" s="55"/>
+      <c r="AB25" s="45"/>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A26" s="13">
@@ -4071,7 +4071,7 @@
         <f>IF(_maxmin_day_hour!B23="","",_maxmin_day_hour!B23)</f>
         <v/>
       </c>
-      <c r="AB26" s="55"/>
+      <c r="AB26" s="45"/>
     </row>
     <row r="27" spans="1:28" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A27" s="11">
@@ -4181,7 +4181,7 @@
         <f>IF(_maxmin_day_hour!B24="","",_maxmin_day_hour!B24)</f>
         <v/>
       </c>
-      <c r="AB27" s="55"/>
+      <c r="AB27" s="45"/>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A28" s="14">
@@ -4291,17 +4291,10 @@
         <f>IF(_maxmin_day_hour!B25="","",_maxmin_day_hour!B25)</f>
         <v/>
       </c>
-      <c r="AB28" s="56"/>
+      <c r="AB28" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AB5:AB12"/>
-    <mergeCell ref="AB13:AB20"/>
-    <mergeCell ref="AB21:AB28"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="T3:V3"/>
-    <mergeCell ref="W3:Y3"/>
-    <mergeCell ref="Z3:AA3"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
@@ -4312,6 +4305,13 @@
     <mergeCell ref="J3:L3"/>
     <mergeCell ref="M3:O3"/>
     <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="AB5:AB12"/>
+    <mergeCell ref="AB13:AB20"/>
+    <mergeCell ref="AB21:AB28"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="T3:V3"/>
+    <mergeCell ref="W3:Y3"/>
+    <mergeCell ref="Z3:AA3"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10085,14 +10085,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:11" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="43" t="s">
         <v>129</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -10147,10 +10147,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="60" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="59"/>
+      <c r="B1" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="1">
